--- a/EUvsVirus/output/Q4.xlsx
+++ b/EUvsVirus/output/Q4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Title</t>
   </si>
@@ -37,172 +37,151 @@
     <t>Search_words</t>
   </si>
   <si>
-    <t>Crisis, Tourism and Tourism Crisis Management</t>
-  </si>
-  <si>
-    <t>Signal detection as the first line of defence in tourism crisis management</t>
-  </si>
-  <si>
-    <t>Management of a Large Middle East Respiratory Syndrome Outbreak in a Tertiary Care Hospital: a Qualitative Case Study Management of a Large Middle East Respiratory Syndrome Outbreak Management of a Large Middle East Respiratory Syndrome Outbreak in a Tertiary Care Hospital: a Qualitative Case Study Perceptions of Management of a Large Middle East Respiratory Syndrome Outbreak in a Tertiary Care Hospital: a Qualitative Study Management of a Large Middle East Respiratory Syndrome Outbreak Perceptions of Post-break out Management by management and healthcare workers of a Middle East Respiratory Syndrome Outbreak in a Tertiary Care Hospital: a Qualitative Study Management of a Large Middle East Respiratory Syndrome Outbreak</t>
-  </si>
-  <si>
-    <t>The Business of Resort Management</t>
-  </si>
-  <si>
-    <t>Crisis management in the Australian tourism industry: Preparedness, personnel and postscript</t>
-  </si>
-  <si>
-    <t>'No Ebola…still doomed' -The Ebola-induced tourism crisis</t>
-  </si>
-  <si>
-    <t>Crisis management and recovery: how restaurants in Hong Kong responded to SARS</t>
-  </si>
-  <si>
-    <t>Ebola crisis response in the USA: Communication management and SOPs</t>
-  </si>
-  <si>
-    <t>Core components for effective infection prevention and control programmes: new WHO evidence-based recommendations</t>
-  </si>
-  <si>
-    <t>1bbc274a90f59b6c5dcb54f6fca3030f5d7666c9</t>
-  </si>
-  <si>
-    <t>d52f81e1f4ce86495cd34452fc6571b50de29899</t>
-  </si>
-  <si>
-    <t>4af614b04d5df393575c749cd953aa3855fa8b44</t>
-  </si>
-  <si>
-    <t>d14c96f812885bd622a652cd6a1e1048a6f4dfaf</t>
-  </si>
-  <si>
-    <t>1e0fb78c4543e6199a5c15b888a1a95103f131fe</t>
-  </si>
-  <si>
-    <t>3de64b3940bc3b03b54f7d05562d3037d426b10e</t>
-  </si>
-  <si>
-    <t>b40febe00c4d2d37149174049ca41cacdf4eaf45</t>
-  </si>
-  <si>
-    <t>88fd7896ce3b5dc6a078ed9a4bfa8f3825a33126</t>
-  </si>
-  <si>
-    <t>0c3be6f8d192a86bbfa513bffc229e5b8488f479</t>
-  </si>
-  <si>
-    <t>7cd8d3fec1f3a8251b75a50aad856e1b5526de83</t>
-  </si>
-  <si>
-    <t>Alexandros Paraskevas, Levent Altinay</t>
-  </si>
-  <si>
-    <t>Al Knawy, Bandar ; , Bandar A Al-Knawy, Hanan M Al-Kadri, Mahmoud Elbarbary, Yaseen M Arabi, Hanan H Balkhy, Alexander M Clark,  Frcp, Yaseen M Al Arabi, Bandar A Al Knawy, Health Arabi, Yaseen ; , Yaseen M Al, Arabi Fccp</t>
-  </si>
-  <si>
-    <t>Barbara A Anderson</t>
-  </si>
-  <si>
-    <t>Marina Novelli, Liv Gussing Burgess, Adam Jones, Brent W Ritchie</t>
-  </si>
-  <si>
-    <t>Alan C B Tse, Stella So, Leo Sin</t>
-  </si>
-  <si>
-    <t>Simon A Andrew, Sudha Arlikatti, Vaswati Chatterjee, Orkhan Ismayilov</t>
-  </si>
-  <si>
-    <t>Julie Storr, Anthony Twyman, Walter Zingg, Nizam Damani, Claire Kilpatrick, Jacqui Reilly, Lesley Price, Matthias Egger, M Lindsay Grayson, Edward Kelley, Benedetta Allegranzi, Who Guidelines</t>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>First two months of the 2019 Coronavirus Disease (COVID-19) epidemic in China: real- time surveillance and evaluation with a second derivative model</t>
+  </si>
+  <si>
+    <t>Long-Term Care Facilities and the Coronavirus Epidemic: Practical Guidelines for a Population at Highest Risk</t>
+  </si>
+  <si>
+    <t>Deep Learning-based Detection for COVID-19 from Chest CT using Weak Label</t>
+  </si>
+  <si>
+    <t>Machine learning using intrinsic genomic signatures for rapid classification of novel pathogens: COVID-19 case study</t>
+  </si>
+  <si>
+    <t>Journal Pre-proof Featuring COVID-19 cases via screening symptomatic patients with epidemiologic link during flu season in a medical center of central Taiwan</t>
+  </si>
+  <si>
+    <t>882219fd09765ece5b362415882397e78972373e</t>
+  </si>
+  <si>
+    <t>469ed0f00c09e2637351c9735c306f27acf3aace</t>
+  </si>
+  <si>
+    <t>b40159b406d4be046f9e60d3ed65d94ea46879fb</t>
+  </si>
+  <si>
+    <t>91334a1ca7778c46bc8a73aaed4e7051cf05738b</t>
+  </si>
+  <si>
+    <t>49391a17a2ab396eee878283e8a81d27c69f0ba0</t>
+  </si>
+  <si>
+    <t>0e38333bff68345492526fd39b70d1b18969cb83</t>
+  </si>
+  <si>
+    <t>bb8e3d331bb2975e1c644c8729b842797da2d626</t>
+  </si>
+  <si>
+    <t>995e8964959188fdd8a8c7b813717e1f3cf714d3</t>
+  </si>
+  <si>
+    <t>5cb5e6a2d2fb1eb4ab85598211846a7061b24e92</t>
+  </si>
+  <si>
+    <t>98b433f47b392ae93d124c96efa8df3385f72d5b</t>
+  </si>
+  <si>
+    <t>Xinguang Chen, Bin Yu</t>
+  </si>
+  <si>
+    <t>Luke Dray, / Stringer, / Getty, Images Comment</t>
+  </si>
+  <si>
+    <t>David Dosa, Robin L P Jump, Kerry Laplante,  Fidsa, Stefan Gravenstein</t>
+  </si>
+  <si>
+    <t>Chuangsheng Zheng, Xianbo Deng, Qiang Fu, Qiang Zhou, Jiapei Feng, Hui Ma, Wenyu Liu, Xinggang Wang</t>
+  </si>
+  <si>
+    <t>Gurjit S Randhawa, P M Maximillian,  Soltysiak, Hadi El Roz, Camila P E De Souza, Kathleen A Hill, Lila Kari</t>
+  </si>
+  <si>
+    <t>Monica Malta, Anne W Rimoin, Steffanie A Strathdee</t>
+  </si>
+  <si>
+    <t>Catrin Sohrabi, Zaid Alsafi, Niamh O&amp;apos;neill, Mehdi Khan, Ahmed Kerwan, Ahmed Al-Jabir, Christos Iosifidis, Riaz Agha</t>
+  </si>
+  <si>
+    <t>Wen-Hsin Hsih, Meng-Yu Cheng, Mao-Wang Ho, Chia-Huei Chou, Po-Chang Lin, Chih-Yu Chi, Wei-Chih Liao, Chih-Yu Chen, Lih-Ying Leong, Ni Tien, Huan-Cheng Lai, Yi-Chyi Lai, Min-Chi Lu</t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
-Objectives: This study sought to examine the operational and organizational management of a major outbreak of Middle East Respiratory Syndrome (MERS) caused by a novel coronavirus (MERS-CoV) in the Kingdom of Saudi Arabia (KSA). Key stakeholder perspectives were sought of the managerial processes associated with perceived success and lessons for future outbreaks.Setting: A large teaching tertiary health care center in KSA; outbreak lasted six weeks commencing August 2015.Participants: Data were collected via individual and focus group interviews with twenty-eight participants. These included nine key decision-makers and nineteen frontline health care workers (May, 2016). Additionally, documents pertaining to the outbreak management and subsequent audit were reviewed.We used process evaluation utilizing qualitative methods to examine perceptions of the outbreak and the factors contributing to, or detracting from, successful management. Data were analyzed using thematic content analysis.Results: Analysis revealed five themes and fifteen sub-themes. The themes were related to 1) Stress of the outbreak, 2) Factors perceived to contribute to outbreak occurrence, 3) Factors perceived to contribute to success of outbreak control, 4) Factors inhibiting outbreak control, and 5) Long-term institutional gains in response to the outbreak management.The practiced management of MERS at KAMC-R is an example of collective leadership. The dynamic utilization of multiple leaders, the selective activation of middle management's role, and the effective distribution of different tasks and responsibilities, resulted in breaking the transmission chain. The study also illustrates the need to address managerial aspects relating to the empowerment, motivation and mental health protection of frontline health care workers.• This is the first study to examine stakeholder perspectives of emergency managerial handling of MERS-CoV -a virus of international significance and high mortality.• The study was independently conducted, and included perspectives of key stakeholders; managers and frontline health care workers.• The study was relatively small, and focused on the subjective perceptions of key stakeholder participants.The King Abdullah International Medical Research Center approved the research and funded the data collection and analysis.that is suitable to be replicated. Frontline management, dynamic utilization of multiple leaders, selective activation of middle management's role, and the effective distribution of different tasks and responsibilities among all concerned parties, resulted in a clear success, represented by outbreak control and subsequent institutional transformation. Despite this success, several managerial and change management aspects related to the empowerment, motivation, and mental health protection of frontline HCWs need to be addressed.The research team members declare no conflicts of interest.
+Background: Similar to outbreaks of many other infectious diseases, success in controlling the novel 2019 coronavirus infection requires a timely and accurate monitoring of the epidemic, particularly during its early period with rather limited data while the need for information increases explosively. Methods: In this study, we used a second derivative model to characterize the coronavirus epidemic in China with cumulatively diagnosed cases during the first 2 months. The analysis was further enhanced by an exponential model with a close-population assumption. This model was built with the data and used to assess the detection rate during the study period, considering the differences between the true infections, detectable and detected cases. Results: Results from the second derivative modeling suggest the coronavirus epidemic as nonlinear and chaotic in nature. Although it emerged gradually, the epidemic was highly responsive to massive interventions initiated on January 21, 2020, as indicated by results from both second derivative and exponential modeling analyses. The epidemic started to decelerate immediately after the massive actions. The results derived from our analysis signaled the decline of the epidemic 14 days before it eventually occurred on February 4, 2020. Study findings further signaled an accelerated decline in the epidemic starting in 14 days on February 18, 2020. Conclusions: The coronavirus epidemic appeared to be nonlinear and chaotic, and was responsive to effective interventions. The methods used in this study can be applied in surveillance to inform and encourage the general public, public health professionals, clinicians and decision-makers to take coordinative and collaborative efforts to control the epidemic.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
-Since the pilots' strike of 1989, the Australian tourism industry has experienced a series of 'shocks' or crises which have included the 1991 Gulf War, the Asian economic crisis in 1997, the dotcom crash of 2000, the collapse of the HIH Insurance Company, the World Trade Centre attacks and the demise of Ansett Airlines in 2001, the Bali bombings in 2002 and the Iraq War and the outbreak of the SARS (severe acute respiratory syndrome) epidemic in 2003. In 2002, a research project was carried out in a range of sectors of the Australian tourism industry to investigate the impact of the collapse of the HIH Insurance Company, the World Trade Centre attacks and the demise of Ansett Airlines on these organisations and the range of responses adopted to these events. This paper describes the preparedness of organisations to respond to these events; the personnel or human resource (HR) strategies implemented and the postscript, the organisational learning which had occurred. Interview findings indicate that there was little preparation for such events, a widespread reluctance to retrench staff, and limited organisational learning had taken place. r
+Accurate and rapid diagnosis of COVID-19 suspected cases plays a crucial role in timely quarantine and medical treatment. Developing a deep learning-based model for automatic COVID-19 detection on chest CT is helpful to counter the outbreak of SARS-CoV-2. A weakly-supervised deep learning-based software system was developed using 3D CT volumes to detect COVID-19. For each patient, the lung region was segmented using a pre-trained UNet; then the segmented 3D lung region was fed into a 3D deep neural network to predict the probability of COVID-19 infectious. 499 CT volumes collected from Dec. 13, 2019, to Jan. 23, 2020, were used for training and 131 CT volumes collected from Jan 24, 2020, to Feb 6, 2020, were used for testing. The deep learning algorithm obtained 0.959 ROC AUC and 0.976 PR AUC. There was an operating point with 0.907 sensitivity and 0.911 specificity in the ROC curve. When using a probability threshold of 0.5 to classify COVID-positive and COVID-negative, the algorithm obtained an accuracy of 0.901, a positive predictive value of 0.840 and a very high negative predictive value of 0.982. The algorithm took only 1.93 seconds to process a single patient's CT volume using a dedicated GPU. Our weaklysupervised deep learning model can accurately predict the COVID-19 infectious probability in chest CT volumes without the need for annotating the lesions for training. The easily-trained and highperformance deep learning algorithm provides a fast way to identify COVID-19 patients, which is beneficial to control the outbreak of SARS-CoV-2. The developed deep learning software is available at https://github.com/sydney0zq/covid-19-detection.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
-Many recent crisis and disasters affecting tourism have been studied, but few explicitly explore health related crisis in developing countries. This study analyses the effect of the Ebola Virus Disease Epidemic (EVDE) on The Gambia, where, despite no reported cases, EVDE had devastating consequences. A Rapid Situation Analysis is used to gain insights into responses to the EVDE, encompassing interviews with key stakeholders, field observations and follow up meetings with those involved in managing the crisis over 21 months. A crisis and disaster framework is used to understand the challenges encountered. Findings highlight the importance of consumer perception and preparedness and management failures' consequences, contributing to the broader debate on the indirect threat of epidemics on tourism in developing countries.
+Background. Coronavirus disease 2019 , caused by severe acute respiratory syndrome coronavirus 2 (SARS-CO-V-2), was first reported in Wuhan, Hubei province, China has now rapidly spread over 50 countries. For the prevention and control of infection, Taiwan Centers for Disease Control initiated testing of SARS-CoV-2 on January 24 th 2020 for persons suspected with this disease. Until February 28 th , 43 flu-like symptomatic patients were screened in China Medical University Hospital. Methods. Two patients were confirmed positive for SARS-CoV-2 infection by rRT-PCR as COVID-19 patients A and B. Causative pathogens for included patients were detected using FilmArray TM Respiratory Panel. We retrospectively analyzed the clinical presentations, laboratory data, radiologic findings, and travel and exposure contact histories, of the COVID-19 patients in comparison to those with other respiratory infections. Results. Through contact with Taiwan No. 19 case patient on 27 th January, COVID-19 patients A and B were infected. Both patients had no identified comorbidities and developed mild illness with temporal fever, persistent cough, and lung interstitial infiltrates. Owing to the persistence of positive SARS-CoV-2 in respiratory specimen, the two COVID-19 patients are still in the isolation rooms despite recovery until 10 th of March. The results of FilmArray TM Respiratory Panel revealed 22 of the 41 non-COVID-19 patients were infected by particular pathogens.In general, seasonal respiratory pathogens are more prevalent than SARS-CoV-2 in symptomatic patients in non-COVID-19 endemic area during the flu season. Since all patients shared similar clinical and laboratory findings, expanded surveillance of detailed exposure history for suspected patients and application of rapid detection tools are highly recommended.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Abstract
-The 2003 Severe Acute Respiratory Syndrome (SARS) outbreak constitutes an example of the many crises that a restaurant may encounter. This article reviews a typology of crises, examines the crisis response of restaurants in Hong Kong, illustrates how local restaurants deal with this unprecedented situation and develop strategies for management and recovery. The lessons and experience gained from dealing with the SARS crisis serve as references for restaurants in other destinations when they face similar crises in future. r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
-This research focuses on the 2014 Ebola crisis response by emergency managers in the Dallas-Fort Worth (DFW) Metropolitan region in the State of Texas, U.S.A. It examines the patterns of crisis communication and the use of Standard Operating Procedures (SOPs) during the first month of the crisis. Primary data collected from 24 faceto-face interviews and 12 online surveys are analyzed. The research identifies elements contributing to organizational failures, which by their very nature gain public and media attention, and also explicates the less mentioned successful decisions made by response agencies in the DFW region. It is important to investigate both failures and successes to help inform organizational learning for better preparedness to future health crises. Findings suggest that, although there was a breakdown in communication between small city governments/ municipalities and higher levels of government at the State and Federal levels, prior training and collaborative relationships helped in improvised decision-making. Takeaways for practitioners include reiterating the importance of establishing SOPs, merits of flexibility, and improvisational decisions for shared learning.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
-Health care-associated infections (HAI) are a major public health problem with a significant impact on morbidity, mortality and quality of life. They represent also an important economic burden to health systems worldwide. However, a large proportion of HAI are preventable through effective infection prevention and control (IPC) measures. Improvements in IPC at the national and facility level are critical for the successful containment of antimicrobial resistance and the prevention of HAI, including outbreaks of highly transmissible diseases through high quality care within the context of universal health coverage. Given the limited availability of IPC evidencebased guidance and standards, the World Health Organization (WHO) decided to prioritize the development of global recommendations on the core components of effective IPC programmes both at the national and acute health care facility level, based on systematic literature reviews and expert consensus. The aim of the guideline development process was to identify the evidence and evaluate its quality, consider patient values and preferences, resource implications, and the feasibility and acceptability of the recommendations. As a result, 11 recommendations and three good practice statements are presented here, including a summary of the supporting evidence, and form the substance of a new WHO IPC guideline.
-</t>
-  </si>
-  <si>
-    <t>['Introduction\n\nThe fi nal chapter briefl y reviews the main themes of the book and conclusions to be derived from earlier chapters, highlighting the signifi cance of crisis management in which planning is a core ingredient.', 'Elements of plans and the parties with a role in their creation and implementation are then examined, followed by some comments about the future and directions for further research.', "Case studies are devoted to a tourism crisis management plan and an interesting example of one company's endeavors to manage the dual challenge of a destination and commercial crisis following a natural disaster.", 'Every crisis is unique and their characteristics, evolution and resolution are shaped by a multiplicity of forces both internal and external to the organization and industry.', 'Despite considerable variety and diversity, some common types and features are discernible and lessons learned from particular experiences of crises may have a general applicability.While all industries are subject to crisis, it would seem that the tourism sector is unusually exposed because of the nature of its services, markets and operations.', 'Importance of Tourism Crisis Management\n\nGiven the above factors, the management of crises is an activity of great signifi cance which is being allocated a higher priority as discussed in the opening chapter.', 'Preparing and planning for crises were described there as central to their effective management, an observation confi rmed by analysis of the cases cited in the book which reveal the way in which the costs of crises can escalate when institutions and places are ill equipped and unready.Crisis management is a term which describes the responses to a crisis by organizations affected and their attempts to exercise some control over its progress and outcomes.', 'The ultimate aims are to overcome the dangers posed by the crisis and minimize damage.This interpretation suggests a reactive stance, illustrations of which have been discussed throughout the book, but crisis management is becoming more proactive and extends to the anticipation of threats and preparations to avert or meet them.', 'Such an exercise commences prior to the onset of crisis conditions and incorporates plans which can be executed should threats materialize.', 'A more positive approach incorporates the notion of crises as a chance for benefi cial change and growth, as well as a time for solving urgent problems, and Asian commentators frequently observe that the two Chinese characters for the word symbolize fi rstly crisis or danger and then opportunity.Plans come in an assortment of forms, from those about fi re at hotel properties to extreme weather at destinations, and crisis communications may be the theme of a separate and complementary document in recognition of its importance.', 'However, companies often wish to preserve confi dentiality and are reluctant to allow any plans to enter the public domain for reasons of security and competitive advantage.', 'Stages in Tourism Crisis Management\n\nStages in crisis management can be summarized under the four headings of reduction, readiness, response and recovery.', 'Each crisis stage encompasses several aspects and tasks requiring the management of information, operations and communications.The devising and documenting of formal plans are elements of the readiness stage and can cover a destination, industry sector or business unit and the crisis context could be general or specifi c. For example, the Caribbean island of Saint Lucia has a National Emergency Management Organization (NEMO) with responsibility for natural and man-made disasters, a potentially devastating hazard being that of hurricanes.', 'The Hospitality Industry Crisis Management Plan was produced jointly by NEMO, the Tourism Board and Hotel and Tourism and Ground Handlers Associations of Saint Lucia (NEMO, 1997) .', 'It established a structure consisting of a Hospitality Industry Crisis Management Committee to take charge, liaising with NEMO and overseeing a Crisis Management Centre (CMC).', 'The CMC comprises Crisis Management and Communications Units.', 'They have been provided with guidelines and hotels and ground handlers have been issued with procedures to follow to try and ensure visitor well-being should a tropical storm hit the island.The plan gives precedence to operational matters and the personal safety of staff and customers is deemed to be an immediate priority, as well as securing and protecting property.', 'Some reference is made to communications with various audiences and, as previously noted, this dimension often merits a discrete plan in acknowledgment of its pivotal contribution.', 'Facts should reach friends and relatives of tourists caught up in the crisis, industry representatives, government at home and abroad and the media without undue delay.Crisis plans further highlight the need to cultivate good relations with the media and public prior to any disturbance so that there is a store of goodwill and favorable reputation for organizations and destinations to draw on.', "Failure to do so and inept management of external communications at the height of the crisis and subsequently may mar a company's standing and even jeopardize its existence, similarly tarnishing destination image.", 'It is advised that one person be appointed as spokesperson in advance, working closely with the leader of the crisis task force and is as open and honest as circumstances permit.', 'Senior fi gures should also be seen to be actively involved and committed to action to address the causes of the crisis and deal with its consequences.Marketing in the short, medium and longer term is allocated space in crisis management plans and is another core tool in recovery efforts.', 'Plans suggest that its emphasis shifts with the evolution of the crisis.', "Table 10 .1 proposes a model plan, adapted from those of Faulkner's (2001) and Faulkner and Faulkner and Vikulov (2001) , which contains guidance pertaining to each step of a crisis for hotels exposed to an outbreak of infectious disease.", 'It is Table 10 .1: Managing a crisis of infections disease: guidelines for hotels\n\nStage of crisis Actions\n\nPre-event Appointment of a crisis team manager who will be in charge of environmental scanning, identifying and assessing the risk of potential disasters or threats Establishment of a crisis management team and allocation of specifi c responsibilities and duties to relevant individuals Brainstorming on possible scenarios and preparation of contingency crisis management plans Assessment of capability to cope with the impacts of crisis Development and documentation of crisis management strategies which are aligned to overall mission and objectives Identifi cation of relevant external agencies and ascertainment of desired and likely level of cooperation in times of crisis Determination of procedures for the procurement and allocation of necessary resources Communication of the crisis management plans to all levels of employees, making sure that individuals are certain of their roles in the event of a crisis Development of a corporate culture of crisis awareness and preparedness Establishment of media communication strategies and management policies to be used at all times Prodromal Establishment of crisis management command center Activation of selected procedures Raising of level of preparedness across the organization Determination of primary objectives in the management of the crisis so as to focus the direction of all actions to be taken Review and revision of marketing based on actual experiences during the SARS epidemic and of contemporary relevance for the industry worldwide which is confronting the predicted avian infl uenza pandemic mentioned in Chapter 7.', 'Planning recovery within a destination, compared to organization, framework is a much broader concept and arduous endeavor which embraces community initiatives illustrated by the Phuket Action Plan.', 'Strategies which can be employed are classed under the fi ve "action areas" of "marketing communications, community relief, professional training, sustainable redevelopment and risk management" (WTO, 2005, p. 2).', 'The plan serves as a reminder that crisis management can and should be informed by the philosophies and practices of sustainable tourism (BEST, 2005) and corporate social responsibility.', "Many companies did attempt to pursue these goals in the Indian Ocean region and achieved some success, even without a pre-existing formal plan (see Case Two).The London Development Agency and Visit London, the city's tourism promotion agency, also developed a guide in response to the 2005 terrorist bombings in the British capital with the intention of aiding tourism businesses.", 'Such a publication is again of value for other locations and could be replicated in their crisis management plans.', 'These plans would be of particular interest to small ventures as most transnational, national and larger local companies will already possess instructions about how to proceed during and after emergencies.The recurrence of terrorist outrages and natural disasters is likely to accelerate moves from a reactive to a proactive position and more such materials will be assembled prior to crises rather than in their aftermath.', 'This trend is evident in the growing volume of "preparedness programs," manuals and conferences dedicated to staff training, installation of safety equipment and routines and monitoring regimes to enable businesses to manage the unexpected (Holland, 2000) .A fi nal phase, or perhaps a facet of recovery, is the measurement of success which is indicated by the pace of recovery and the degree of permanent damage infl icted by the crisis.', 'This closing period is also a time for refl ection and evaluation, leading to appropriate revisions to existing plans so that those responsible are better prepared for future crises.', 'Plans must therefore be fl exible enough to accommodate changes outside and within the industry and destinations, as should organizations and their workforces.', 'Distinctive Features of Tourism Crisis Management Plans\n\nThe requirements of planning and plan contents depend on spatial boundaries which can extend from national or even international, in the case of a globally rampant infectious disease, to the premises of a single enterprise.', 'Context is another consideration and plans can be general or more specifi c, subjects for the latter easier to identify in certain circumstances such as an earthquake in a zone of seismic instability.', 'Authorship also dictates the composition of plans which may be prepared by managers of individual businesses, teams at corporate headquarters, governments and semi-offi cial agencies, private consultants or sometimes a combination of these.', 'There is perhaps a tendency toward cumbersome bureaucracy regarding plans and task forces with an extensive remit which should be guarded against, although partnership is a key to effectiveness in managing crises as outlined in the next section.Many tourism crisis management plans appear somewhat over-general and may not be best suited to actual situations of crisis while there might be obstacles when it comes to implementation of plans as a whole.', 'Plans drawn up by consultants, especially with regard to destinations, may fail to take local conditions suffi ciently into account and be too ambitious so that prevailing realities hinder execution.The plans discussed also indicate the particular demands of planning for crises within a tourism industry setting, confi rming again the special qualities which set it apart from other economic sectors.', 'While selected tourism organization plans may correspond to those found in unrelated industries, the physical presence and movement of the consumer and likelihood of mass injury as a consequence of some tourism crises intensify their potential gravity and the urgency of good management.', 'Defective products and services are not always life threatening and this gives rise to differences between the way other businesses and members of the tourism industry perceive and respond to crises.In addition, destination crisis management planning relates to geographic location from resorts to states and its operations must be destination-wide which entails numerous participants working in collaboration.', 'This also leads to a reliance on emergency services and other agencies of government with international, national, regional and local organizations providing support, training and guidance in the fi elds of crisis and disaster.', 'Indeed, governments have obligations to protect tourists and residents at destinations and may be principal initiators and implementers of crisis management plans.', 'Those with a part to play in managing a destination crisis are identifi ed in the PATA strategy such as the police, fi re and medical authorities as well as tourism and non-tourism enterprises and community groups.', 'Whether the privatization and commercialization of disaster management is desirable is a matter for debate, but it does mean another party to consider regarding crisis planning, coordination and communications.There are also commercial partners outside the tourism sector, an important one being the insurance industry.', 'The question of insurance is a concern for both the tourism industry and tourist, with uncertainties about coverage should particular types of crisis occur perhaps deterring some movement and investment.', 'Hazard taxes and initiatives to simplify insurance arrangements and make them more affordable have also been urged (IBLF, 2005) .Crisis prevention, management and recovery therefore necessitate a team effort among and between the public and private sectors.', 'These teams grow in size with the scale and scope of the crisis and may assume national and international responsibilities.', 'At the same time, strong centralized authority and direction are required to lead organizations and destinations out of crisis.', 'The industry will continue to be highly competitive and subject to commercial pressures capable of triggering crises, although it has some control over those crises which are a result of adverse developments of its own creation.', 'Analyses can also generate strategic and practical tools for use by managers at the heart of a tourism crisis, especially those from smaller businesses who may be disadvantaged in terms of resources.', 'Crisis management encompasses a multiplicity of activities and is a cooperative effort for destinations where authorities are expressing greater interest in the subject, a refl ection of the perceived economic rewards of tourism.', 'While more tourism crises are inevitable, it is possible to learn from past experiences so that some situations can be avoided or at least ameliorated through appropriate attitudes and actions by the parties involved.', 'What barriers might hinder the effective implementation of the PATA plan and is it suitable for adoption outside the Asia Pacifi c region?', 'What factors are critical to the success of an organization crisis management plan?', 'It does not contain all of the components, contingencies or options required by each organisation or destination for its specifi c crisis planning process.Done To be done 1 We agree that prevention is better than cure 2 We have defi ned "crisis" for our organisation/destination 3 We have a business impact analysis for each anticipated crisis 4 We have identifi ed all potential hazards and their particular locations 5 We involve suppliers, vendors and channel partners in crisis reduction activities 6 We train specifi c stakeholders/staff in security awareness 7 We train specifi c stakeholders/staff in standard crime prevention behaviour 8 We educate stakeholders/staff in preventive crisis reduction techniques 9 We have proactive Standard Operating Procedures that take the avoidance of possible hazards and crises into consideration 10 We are soliciting advice from emergency agencies to reduce possible hazards and crises 11 We have assured proactive cooperation with the relevant insurance companies 12 We have adequate disaster procedures for application in routine emergencies 13 We have created awareness among elected and appointed offi cials and organisational leaders about community involvement during a disaster 14 We have set up an emergency services liaison panel 15 We have organised meetings to promote informal contact between all those likely to be involved in a major crisis 16 We have communicated the need to have a crisis management plan to all stakeholders 17 We have initiated a steering committee to assist all stakeholders to develop crisis management plans 18 We have produced public or organisation education material 19 We, in our destination, have the full cooperation of all political parties and movements 20 We, in our destination, are actively linking tourism with the peace movement 21 We, in our destination, have the full cooperation of all tourism associations and organisations 22 We, in our destination, have created community, consumer, retailer and wholesaler awareness of our proactive efforts through public relations 23 We have introduced legislation to increase awareness for the need to proactively reduce the chances of crisis 24 We have introduced legislation to increase the readiness of the organisation or destination 25 We realise that every crisis has its opportunities\n\nReadiness checklist\n\nThis checklist is only a guide.', 'It does not contain all of the components, contingencies or options required by each organisation or destination for its specifi c crisis planning process.Done To be done 1 We have a crisis management plan 2 We identifi ed a crisis management coordinator and alternate 3 We assigned responsibilities to each stakeholder and alternates 4 We have a multi-network notifi cation system in place to alert all stakeholders 5 We have a trained crisis response team 6 We established a law enforcement, fi re department and emergency services liaison 7 We are aware of the law enforcement, fi re department and emergency services command and control structure and their crisis-scene management plans 8 We established a media liaison and plan for communication 9 We have an inventory of internal and external skills that may be helpful 10 We placed crisis management toolboxes (necessary items assembled in advance) in several easily accessible locations 11 We have an emergency "dark" Web site designed that can be activated on short notice 12 We developed all necessary forms to assist in crisis management 13 We made suppliers, vendors and channel partners aware of the plan 14 We designated a safe and secure crisis centre (and an alternative area) 15 We have back-up procedures for critical information in an off-site location 16 We collect, collate and disseminate appropriate information through one agreed spokesperson 17 We make sure that the crisis plan avoids trying to change how people normally behave in crisis situations 18 We are convinced that all those that are involved in the design of the plan accept it and will assist in its continued development 19 We have made sure that the emergency organisations in our area have adopted standard terminology and procedures 20 We ensured with all stakeholders that the responsibility for common disaster tasks is now predetermined on a mutually agreed basis 21 We practice crisis alerts periodically throughout the year 22 We established procedures for annual inclusion of new staff/stakeholders 23 We established procedures for annual update/review for all stakeholders 24 We obtained a professional review of our crisis response procedures 25 We obtained a legal review of crisis response procedures\n\nResponse checklist\n\nThis checklist is only a guide.', 'It does not contain all of the components, contingencies or options required by each organisation or destination for its specifi c crisis planning process.Done To be done 1 We have a plan that focuses on saving lives, preventing further damage and reducing the effects of the disaster 2 We have given persons with expertise in emergency medical services the primary authority at the scene over patient care and transport 3 We have a plan and associated training for disaster casualty distribution among area hospitals 4 We can activate on and off-location emergency operation centre(s) within 30 minutes 5 We can alert all stakeholders within 30 minutes 6 We have a designated person (and/or alternate) in charge of the emergency operation centre 7 We can have the complete crisis response team operational within one hour 8 We have an independent crisis communication system 9 We will have all appropriate public and private organisations represented at the emergency operations centre 10 We have procedures for limiting the congestion caused by excessive responders and curious public 11 We have procedures for incorporating and managing volunteers 12 We have evacuation areas identifi ed and staff assigned 13 We have a plan for the set up of a temporary morgue and evaluation centre 14 We can activate on-and off-location family assistance centre(s) within 30 minutes 15 We have a designated person (and/or alternate) in charge of the family assistance centre 16 We can activate sensitive family notifi cation procedures 17 We have an emergency budget available for family assistance 18 We have religious support for the victims and their families available 19 We can issue an initial press statement in the local language and English within 90 minutes after the crisis 20 We can activate an off-location media centre within two hours 21 We can have fi rst press briefi ngs with basic details of crisis and planned/ongoing response activities within three hours 22 We have a designated person (and/or alternate) in charge of the media centre, as well as a designated main spokesperson 23 We have linked the Web master(s) of the emergency Web site with the media centre for simultaneous updating 24 We have secured an (emergency) budget to handle our response activities\n\nRecovery checklist\n\nThis checklist is only a guide.', 'It does not contain all of the components, contingencies or options required by each organisation or destination for its specifi c crisis planning process.Done To be done 1 We have plans to consult with families on memorial services and markers 2 We will stay in contact with recovering victims and with the families of the deceased 3 We will designate a leading executive as the "Destination Maker" 4 We have a strategic recovery plan draft involving all stakeholders 5 We recognise the importance of the aviation industry as a (reversed) distribution system and work closely with them 6 We will concentrate all possible political efforts on the reduction of travel advisories 7 We will update our overseas representatives on a regular basis 8 We will adopt branding as the platform of the joint marketing efforts 9 We have a recovery sales action plan draft 10 We will target the travel consultants in our main markets 11 We will consult our key customers and work together to reduce the impact of the crisis for both parties 12 We will use this opportunity to start relationships in new markets 13 We have a public relations plan on stand-by 14 We will prepare a new media and community relations plan 15 We will target the end-user in our main markets as recipients of these media efforts 16 We will invite (and host) as many credible journalists as we can 17 We have a system to review press clippings and to evaluate if perceptions in these articles were correct or incorrect 18 We will survey the affected public, either formally or informally, to evaluate the effects on the image of the organisation or destination 19 We will intensively (with all employees) work to create awareness of the importance of making our organisation or destination as safe as humanly possible 20 We will organise internal and external seminars on recovery activities for all staff 21 We will use the recovery period for intensive skill training for our staff 22 We will counsel and motivate all employees to overcome the emotional stress 23 We have plans for intensive debriefi ng sessions with all concerned 24 We will analyse the recovery efforts and use the "lessons learned" to improve our crisis management plan 25 We will recognise and thank those who have helped, both internally and externally \n\nCase Two: Banyan Tree and the Indian Ocean Tsunami\n\nBanyan Tree Hotels and Resorts operate a chain of luxury hotel resorts which were largely spared by the tsunami.', 'Nevertheless, the crisis for the region was also a corporate crisis.', 'Alternatively, they could transfer their booking to any of the resorts owned and managed by Banyan Tree.', 'Guests with bookings elsewhere were allowed to delay their visit by three months or choose a transfer.', 'Staff members contributed 5% of their monthly salary on a voluntary basis and the Green Imperative Fund or GIF (a long-standing scheme dedicated to "community based environmental action in the Asia Pacifi c region") was redirected to the tsunami funds from January until March 2005.']</t>
-  </si>
-  <si>
-    <t>['These interdependencies mean that a crisis in a tourism sector will have repercussions in the others.', "Henderson (2007, p. 8) argued that a transport accident, a hotel fire or a street riot in which tourists will be caught up will impact tourist arrivals in a destination with impacts on accommodation, attraction and transport providers as well as a number of other tourism stakeholders such as tour operators, travel agents and the destination's tourism authorities.", 'Similarly, events that are not directly connected to tourism may have a huge impact on tourism sectors as witnessed in the 1997 Asian financial crisis (De Sausmarez, 2004) , the 2001 World Trade Centre terrorist attack (Ito &amp; Lee, 2005) , the SARS epidemic (Pine &amp; McKercher, 2004) , the Indian Ocean tsunami (Rittichainuwat, 2006) .', 'Mitroff (1988, p. 18) observed that "long before its actual occurrence, a crisis sends off a repeated and persistent trail of early warning signals" which could be picked up at a time where there is still opportunity to prevent it from occurring or to take measures that will minimise its impact.', 'These early warning or crisis signals are pieces of information indicating deviation from normalcy (e.g., financial indicators exceeding a threshold, abnormal patterns of social behaviour, etc.)', 'that may escalate and lead to a crisis.', 'Early detection of these signals and timely response to them might have saved a good part of the 230,000 lives claimed by the 2004 Indian Ocean tsunami, of the 41% of tourism GDP that Hong Kong has lost due to SARS in 2003 or of the more than $600 million Bahrain has lost due to the cancellation of the Formula 1 Grand Prix in 2011.Several scholars in the field of crisis management (Boin, 2003; Boin &amp; Lagadec, 2000; Takeda &amp; Helms, 2006) have suggested that as crises are dynamic in nature with events morphing at varying rates of acceleration and deceleration.', 'Small changes in the parameters of a crisis may ultimately cause enormous changes in its outcome as minute initial differences are magnified and transformed by the dynamical processes at work ("butterfly effect", Lorenz, 1993) rendering the crisis extremely sensitive to the initial conditions of its evolution (Paraskevas, 2006) .', 'This sensitivity underlines the importance of early interventions in crisis development and, therefore, of processes able to capture the crisis dynamism through the detection, transmission and interpretation of the signals it emanates.', 'With this thinking, Mitroff (1988) proposed a five phase ("five mechanisms" e in his terms) crisis management model: signal detection; preparation/prevention; containment (damage limitation); recovery; and learning.', 'This model pre-supposes a signal detection mechanism for better crisis preparedness and even prevention of a crisis.The subject of tourism crises has attracted the attention of several scholars in the field resulting in a significant body of literature.', 'These studies have contributed a lot in evaluating the impact of crises on tourism (e.g., Blake &amp; Sinclair, 2003; Eugenio-Martin, Sinclair, &amp; Yeoman, 2005; Pizam &amp; Fleischer, 2002) , addressing particular aspects of crisis management, mainly destination recovery (e.g., Beirman, 2003; Israeli &amp; Reichel, 2003; Prideaux, 2004) or focussing on lessons learned from crises (e.g., De Sausmarez, 2004; Henderson, 2003a,b; Miller &amp; Ritchie, 2003) .', 'However none of them has looked at crisis signals and what Mitroff (1988) calls "crisis detection mechanism".', 'Even the few studies that propose more strategic approaches to tourism crisis/disaster management (Faulkner, 2001; Ritchie, 2004) just touch upon crisis signal detection.', "Key research questions such as how should a signal detection mechanism be designed, what types of detectors it should use and for what signals it should look and where, largely remain with no answer.This paper aims to narrow this research gap, by exploring the 'mechanism' of crisis signal detection in the context of the tourism organizations.", 'We first look at the crisis literature within tourism and we develop a conceptual framework for the detection process of crisis signals based on a number of theories including the information communication theory and the signal detection theory.', 'We then conduct a fieldwork with 16 corporate level executives of international tourism organizations in order to explore the significance of signal detection in their crisis management practice, the way it is designed and the challenges they are facing.', 'Crisis management in tourism\n\nAs with the generic crisis management literature, Santana (2004, p. 307) concluded that \'the [tourism] literature provides no generally accepted definition of crisis" since there are several definitions for the term "tourism crisis" (e.g., Beirman, 2003; Faulkner, 2001; Glaesser, 2003; Henderson, 2007; Ritchie, 2004) .', 'The more comprehensive definition, however, is perhaps offered by Sönmez, Backman, and Allen (1994) who state that a tourism crisis is:"any occurrence which can threaten the normal operation and conduct of tourism related businesses; damage a tourist destination\'s overall reputation for safety, attractiveness and comfort by negatively affecting visitors\' perceptions of that destination; and, in turn, cause a downturn in the local travel and tourism economy and interrupt the continuity of business operations for the local travel and tourism industry by the reduction in tourist arrivals and expenditures."', '(Sönmez et al., 1994, p. 22) There are four clearly defined streams of research in the area of crisis management in tourism.', "The first stream of research focuses on the impact of crises on tourism and started with Mihalic (1999) looking at the impact of the war in Yugoslavia's tourism industry and Henderson (1999a,b,c) evaluating the impact of Asian financial crisis on tourism.", "These researchers described the crisis events in detail offering authors' analyses and participants' insights about the crises under investigation as well as evaluation of its impacts on the economies of different destinations leading them to suggestions about the need for post-crisis response and actions to minimise the impacts of crises on tourism organizations and destinations.The second stream of research focuses on the recovery aspect of crisis management by rebuilding the destination image through appropriate crisis communications and marketing initiatives (Beirman, 2003; Fall, 2004; Fall &amp; Massey, 2006; Frisby, 2002) , identifying ways by which destinations can re-establish tourist confidence (Armstrong &amp; Ritchie, 2008; Cavlek, 2002; Huan, Beaman, &amp; Shelby, 2004) and by implementing specific business recovery strategies (Anderson, 2006; Leung &amp; Lam, 2004; Litvin &amp; Alderson, 2003; Lo, Chung, &amp; Law, 2006) .", 'Researchers in this stream also identified the importance of the development of crisis management teams, disaster management plan testing, employee training for crises and the protection of guests from disasters (Brewton, 1987; Burby &amp; Wagner, 1996; Drabek, 1995) at the postcrisis stage.', 'This stream is taking a more reactive approach to crisis management thus completely ignoring the possibility of crisis signals and their detection.The third stream of crisis management research highlights the importance of pre-crisis stage and argues that both hospitality organizations and tourist destinations need to understand the causes and consequences of previous crises in order to plan and prepare themselves for the future ones.', 'Scholars in this stream maintain that learning from the previous crises is crucial for the management of a crisis.', 'Although this stream sets a good foundation in understanding the importance of preparedness by learning from the previous crises as well as potentially best practice in crisis response, the relevant studies do not propose a holistic crisis management strategy or a framework capturing the different "mechanisms" of crisis management, thus leaving signal detection largely out of their discussion.The last stream of the literature integrates the extant knowledge of generic crisis and disaster management, and proposes succinct strategies, models and frameworks for a \'holistic\' crisis/disaster management in tourism (for example, Faulkner, 2001; Glaesser, 2003; Ritchie, 2004) .', "Following this study Ritchie (2004) proposed a more 'holistic' strategic approach to crisis management which starts with proactive pre-crisis planning, goes through strategy implementation and ends with evaluation and feedback.", 'The models proposed in this stream touch broadly upon the concept of crisis signal detection and some make reference to early warning systems, however, they do not provide answers to key questions such as how these detection systems should be designed, where the scanning for crisis signals should take place, what types of detectors they should use and how the captured signals should be transmitted to the decision making centres.', 'Crisis signals and detection of signals\n\nCrisis signals were first discussed in the late 1970s and 1980s a period characterised by a number of industrial disasters and transport accidents.', 'Perrow (1981) in his "Normal Accidents Theory" maintains that industrial disasters are unintentional failures ("normal accidents") of systems because of their inherent complexity and that disaster signals that may be generated from potentially destructive interactions between the various agents of these systems are shielded by the technological complexity of organizations.Crisis signals, as discussed earlier, can be any kind of information (qualitative or quantitative) that indicates a deviation from normalcy.', 'in the external (e.g., poor quality of raw materials offered by the organization\'s suppliers) and/or the internal environment of the organization (e.g., a steady increase of employee absences) that "can be interpreted as symptoms or peaks in the development of a crisis" (Roux-Dufort, 2007, p. 231) .Some scholars have expressed their reservations about the existence of these signals claiming \'hindsight bias\' e the tendency, in retrospect, to overestimate the amount of available information on a threat at the time of decision making (Dekker, 2002; Fischoff &amp; Beyth, 1975; Gephart, 1993; Woods, 2005) .', 'Nevertheless, the concept of signals that warn about an emerging crisis (or opportunity) has been widely supported in the generic management literature under different terminology such as weak signals (Ansoff, 1984) , wild cards (Hiltunen, 2006) , early indicators (Petersen, 1999) , early warnings (Inayatullah, 1995) and emerging issues (Stevenson, 2002) .With appropriate signal detection mechanisms in place crisis signals can be picked up in time and then, some -if not all-crises can be averted before they happen.', 'One notable attempt to investigate the factors that affect signal detection was made by Scheaffer, Richardson, and Rosenblatt (1998) who, through their investigation of the Barings crisis, propose a model that summarises the process of "tackling early warning signals" (EWS) by identifying crisis practices, organizational characteristics and patterns that hinder signal detection.', 'Although, their attempt is very helpful in many senses, the factors identified came from the investigation of a single financial crisis and the authors themselves acknowledge (p. 17) that their model is "potentially useful", yet "unsophisticated".', 'A much more helpful study was the one conducted by Judith Ann Clair who investigated an insurance company and its medical division facing a possible financial as well as public relations crisis in the period prior and up to 1991, and was the first to suggest a six-step crisis signal detection framework (1993: 65e79) involving activities grouped into two categories: a) activities triggered by a need to define crisis signals (identifying potential signals, locating data in these signals and interpreting the signals); and b) activities triggered by a need to resolve a potential crisis (stabilising the potential crisis, planning a method to avert the crisis and resolving the crisis).', 'The first goal of the process is the creation of a shared understanding about the situation and of a consensus for a commitment to the crisis response activities.', "The second is the establishment of accountability with regards to these response activities and the third is the reduction of key organization members' uncertainty by creating awareness about the emerging crisis.", "The eventual outcomes (or consequences) of the process will be changes in the organization's core beliefs about its vulnerability to certain threats and its procedures and structures for crisis detection.", 'Until 1993 authors had talked about crisis signal detection as a general concept but did not specify, within the definition, what sort of action was needed for effective signal detection to take place.After Clair (1993) very few authors in the crisis management field have explored the topic.', "Coombs (1999) presented a 'crisis sensing mechanism' from a crisis communications perspective as a three-phase process (locating information, funnelling, and analysis) and lists potential sources for information for issues management, risk assessment and reputation management.", 'Her conception is a more systematic view of what the signal detection phase of crisis management should provide to the organization and illustrates that signal detection is a dynamic process, not only because information is moving within a system of actors, but because the information is itself evolving with the purpose of averting the crisis before it escalates.', "This dynamic process aims at the timely scanning for external/internal crisis signals, their capture and their transmission to the organization's decision making centre which, based on the information they carry, will decide about potential preventive action.The following section of the review presents these key stages of the signal detection process namely; scanning for signals, signal capture and transmission.", 'The information domain contains all elements required for the creation, exploration and dissemination of information as well as its transformation to explicit/tacit knowledge.', 'von Lubitz and Wickramasinghe (2006) include in this domain human factors that affect operations, such as education, experience, political inclinations, social attributes (behaviours and peer interactions), commitment, loyalty, open mindedness and intuition of organizational members involved in the relevant activities.The scanning is performed by detectors which can be technical, human or a combination of the two.', 'An alarm that initiates highly disruptive action (e.g., closure of business, evacuation of premises, transfer to back-up facilities, etc.)', 'Breznitz (1984) , for example, talks about "the credibility loss [of a crisis signal detection system] due to a false alarm" (p. 11).', "Crisis and disaster management theorists, however, argue that in real life situations public response to an alarm is not diminished, if the basis of a false alarm is understood (Dow &amp; Cutter, 1998; Drabek, 1994) .Crisis signals, once generated from their source, have a finite life, they disappear and may not appear again until after an 'avoidable' crisis becomes manifest.", 'Desouza, Hensgen, and Evaristo (2004) maintain that the path a crisis signal traverses through has significant bearings on whether the decision making centre will receive the intended information, given the many opportunities the crisis signal has to be lost or rendered useless.', 'Participant F suggested that her revenue manager should be able to identify a subtle but unusual spate of cancellations when a viral online rumour got out about racist practices in their hotel chain, way before this escalated into a full blown crisis.', 'Several participants noted that organizations fail to learn from crisis experiences because they do not have established mechanisms needed to formalise, codify and share the lessons learned.', "Others (A, C, D, G, M) talked about the need for the creation of a crisis knowledge database (some used the term 'repository') which will help both the detectors and the decision makers in the organization to identify similarities with past crises when an abnormality occur.", "Participant O emphasised that such a database would also offer a 'repertoire' of responses thus enabling a faster reaction of management to a given series of crisis signals.", 'When prompted about a \'repertoire\', Participant L was very sceptical saying that it may limit response to more complex crises: "this matching of information approach will direct us respond according to what this repertoire suggests rather than the crisis we actually experience.', "Other respondents though suggested that some forms of crisis knowledge databases already exist, mentioning organizations such as FEMA and OSAC who also issue warnings when they capture signals indicating abnormalities in certain geographic locations and gave examples on how they were exploiting this 'knowledge'.", 'The proponents of crisis knowledge repositories suggested that such an endeavour could also be achieved at industry level through privateepublic partnerships or even through the UNWTO.The main challenges for signal capture according to the participants are the background noise (unclear or confusing signals) and the information overload (multiple and diverse crisis signals).', 'Participant L illustrates this by stating when describing a case of a group food poisoning in a hotel in South East Asia that "the crisis was not caused because we did not see the warning signs.', 'Signal transmission\n\nThe third stage of the signal detection process is the development of a clear communication platform for the timely and unobstructed transmission of crisis signals from detectors who capture them to those with the mandate of launching responsive measures.', 'Exchange relationships that are based on reciprocity and mutual attraction (Granovetter, 1985) enhance the knowledge flow leading to more effective organisational functioning (Tsai &amp; Ghoshal, 1998) .', 'Finkelstein (2003) argues that in some organizations crisis signals are captured but either the detectors who captured them do not clearly know where they should direct them or the communication platform through which these signals are transmitted is too complex and hierarchical to effectively cope with urgent information.', 'Adelman (1998, p. 65) refers to it as the "dead-ending of information".A further problem that can be observed refers to disregarding some signals due to transmission channel overload with a multitude of diverse signals that may be attributed to the complexity of the emerging crisis or the emergence of more than one crisis at the same time.', 'As signals often carry with them some sampling noise (Lloyd &amp; McMillan, 1956) , the transmission of a multitude of diverse crisis signals through the same communication platform would only add more sampling noise that might possibly degrade the information carried by the signal.', "The 'repeaters' are components whose role is to transfer the signal to a designated destination that can be the decision making centre or a decision maker or a 'hub'.", "Normally the role of such hubs would be assumed by middle managers in the organization as they are often viewed as 'gatekeepers' of information flows (Awazu, 2004; Davenport, De Long, &amp; Beers, 1998) .The 3-stage dynamic process of crisis signal detection can therefore be conceptually summarized in the framework of Fig.", '1 Having established a conceptual model for crisis signal detection, the study moved to explore if and how crisis signal detection is practised by tourism organizations (namely: what crisis signals they are looking for; what detectors they employ; where they scan for signals; how they transmit them to decision makers) and what are the challenges that these organizations face when attempting to detect crisis signals.Tightly intertwined with the detection culture mentioned in 5.1 is the existence of appropriate communication platforms for the transmission of captured signals to the crisis response centre.', 'Participant J emphasised the need for all detectors to know "how" and "to whom" they should send their captured crisis signals.', 'Most participants argued that, with the advances in information and communication technology, the transmission of signals should not present many problems even for organizations whose crisis maturity level is quite low.', 'However, when possible lack of financial resources was brought up, many participants argued that a basic communication platform with a dedicated phone number and an Internet address would suffice as long as there is a structured crisis signal transmission process.For the participants, the major challenges in signal transmission are related not with the technology but with the human transmitters.', 'A similar problem was reported by a number of participants (A, D, F, G, and K) who talked about "silos" and "silo mentality" within the organization which blocks the transmission of certain crisis signals to the decision makers.', 'Some participants (e.g., E and I) had already dedicated crisis information fusion centres.', 'Participant J, although agreeing in principle with the concept, dismissed the idea unfeasible for his organization stating that the cost of decision support technology or expert groups required went beyond their crisis management budget.', 'On the other hand, participant B suggested that "there is no need for specialists in order to filter and collate crisis signals" since, in his view, "we have to trust our staff at property, area and region level to perform this task".', 'The study took Flanagan\'s (1954) \'extreme\' approach as the question focused not at any crisis the participants had faced in their careers but the one "that has changed their perspective on organizational crisis management".', 'Research design\n\nSince crisis signal detection has not been explored in depth in either generic or tourism-specific crisis management literature, the present study followed an inductive approach to research design placing more emphasis on the inductive representation (the "process of interpretation" according to Bogdan &amp; Taylor, 1975, p. 14) of a set of empirical judgements (raw data, observations, experiences) from which we could build up a set of factual propositions, explanations and knowledge about this crisis \'mechanism\' (Altinay &amp; Paraskevas, 2007; Saunders, Lewis, &amp; Thornhill, 2009 ).We used a criterion sampling technique for which Patton (2002, p. 238) states that "the logic of criterion sampling is to review and study all cases that meet some predetermined criteria of importance".', 'In this study, the sample had to meet four criteria: corporate level tourism professionals; working in a multi-unit national or international tourism organizations; being in charge or directly involved with decisions related to risk/crisis management; and having experienced at least one crisis incident in their organizations.', 'Access was gained to a population that met the three first criteria, through the Global Council on Safety, Security and Crisis Management of the International Hotel and Restaurant Association (IH&amp;RA) in 2006.', 'The Global Council at the time consisted of corporate level executives specialised in the area of crisis and risk management (indicative titles: Senior Director Crisis Management &amp; Business Continuity; Vice President Risk Management; Vice President Corporate Safety and Security; Director Corporate Security; Director of Safety and Security; Chief Security Officer) and CEOs of smaller national and international hotel chains.', 'In order to benefit as much as possible from the participants\' crisis management expertise, it was decided for the study to explore \'critical incidents\' in organizations as "focusing on specific events enables the participant to provide a fuller, more detailed description of an experience as it was lived" (Thompson, Locander, &amp; Pollio, 1989, p. 138) .', "The first part of the interview aimed at the participants 're-living' a crisis they experienced; whereas the second part aimed at the participants' insights about what was learnt from the crisis with particular focus on the challenges that early detection of possible crisis signals may present (interview guide is presented in Appendix 1).In order to form a fuller picture of the context, the details and the effects of the critical incident on the organization, we also analysed documentary and other evidence provided by the participants and other sources in order to corroborate and augment the evidence from the participants accounts (internal reports, consultancy reports, meeting minutes, memos and e-mails, policy statements, standard operating procedure manuals, training manuals, articles and press coverage of the critical incidents reported, etc.).", "This process, also known as 'member checking', adds both internal (authenticity check) and external validity (transferability) to the overall study (Lincoln &amp; Guba, 1985) .", "Existence of crisis signals\n\nIn this study, we aimed at the recall of the 'one' crisis that was so significant (shaping their view of crisis management) for the participants, that they had to think it over and over again many times in their lives with all its details.", 'In almost all cases (except 9/11 and the car bombing) the participants admitted that there were adequate warning signals prior to the crisis which were either ignored or misinterpreted.', 'However, in spite of their admission of warning signals, they did not all categorically label their crisis as "predictable" but used expressions such as "could possibly be predicted", "there were some signs that might have led us to a prediction", etc.', 'The ability to make meaningful use of these signals depends on individuals (arrogance, fatalistic approach to life, denial of crisis or mere inability to understand the threat) but, according to most participants, predominantly on the culture of the organization.', 'They have all emphasised the need for a crisis signal detection culture as part of an organization-wide crisis culture that should be embedded at all levels of the organization and by which everyone who notices an abnormality is responsible to report it to a decision making centre.', "Such culture distinguishes a 'crisis averse' from a 'crisis prone' organization.", 'Having said that, they all agreed also in that not every crisis is predictable or emits warning signals.', 'Participant B stated that a pre-condition for effective detection and response to an emerging crisis is the in-depth understanding of threats and risks the organization is facing.', 'This, according to B "is the cornerstone of our crisis management actions; we know that we cannot be possibly prepared for everything but our aim is to be able to limit the damage from the unthinkable".', 'Such understanding, however, is not always possible, due to the complexity of certain crises (as in the case of Katrina e Participants I and K) or because the organizations involved are unable to capture the full scale of cause and effect (Participants B and K used the term "crisis puzzles") as the effect may be the result of multiple causes or one cause may have multiple effects.', 'Pointing out that they had all the crisis signals for a hurricane and they were prepared for it, Participant K stated that they could never expect a "package of three crises in one: hurricane, flood and social unrest".', 'She further argued that in most cases where crisis signals exist, they point towards a "range of possible courses" that a crisis may take.', 'Scanning for crisis signals\n\nAll participants agreed that signal detection should be at the centre of any crisis management effort in the organization and should become its "first line of [crisis] defence".', 'The participants used terms such as "structured", "planned", "targeted" and "robust" to differentiate this type of signal detection process from the passive, ad hoc capture of crisis signals from random sources.', "Only participants B and I organised 'retreats' for scenario planning, situational awareness and exploration of key employees' perceptions of the future (typically though from their risk management divisions rather that the entire organization) in a form of active, unstructured scanning for emerging crisis signals.", "Normally, these networks are formed 'ad hoc' by customers (participants A, D, F, G, O), competitors (participants B, D, E, F, N) or vendors specialised in crisis-specific services (participants D, E, I, J, O) such as security, disaster recovery, business continuity, crisis counselling, etc.", 'and last only for a short period of time when an issue is evolving into a crisis.', "Flanagan\n\nThe response that the crises described were predictable and that there were signals which should trigger preventive or earlier responsive action was not surprising, given the significant body of literature (Dekker, 2002; Fischoff &amp; Beyth, 1975; Woods, 2005 ) that talks about 'hindsight bias'.", 'Clearly, the distinction between predictable and non-predictable crisis is a difficult task since it largely depends on the availability of an adequate quantity and quality of pre-crisis signals.', 'The participants linked these signals with varying degrees of predictability, confirming the view that crisis events cannot simply be predictable or unpredictable but lie in a continuum of predictability (Tetlock, 2005) .', 'However, the participants conceded that it is not the mere existence of these signals that makes a crisis more or less predictable but the ability firstly of the detectors and, most importantly, of the decision makers to interpret these signals and trigger the responsive action.This pre-supposes first a critical mass of competent detectors that can capture a wide range of different signals (the radio metaphor of participant B) and of decision makers who share strong ideas about what is important and what not, something that is not always a norm in an organization.', 'In most situations, the interpretation of signals and, therefore, the definition of the unfolding crisis and its causes remain contested and requires much trial-and-error (especially in complex, multi-dimensional crises as reported by participants I and K), rearguard infighting and political U-turns.', "On the other hand, excessive homogeneity and conformity in detectors and decision makers leads to the phenomenon of groupthink hindering the 'out of the box' interpretation of signals, which is often necessary for newly emerging crises.A second factor one needs to consider, according to the responses, is that signal detection does not just happen by itself but it is rather a reflection of the crisis culture in the organization and of the organization's structure and priorities.", 'Participant L admission that they had all the warnings but concentrated in the "wrong priorities" reflects a not uncommon perception of some managers that it is preferable to avoid a cost (of responding to a series of warning signals) in the present when the benefits of this action may appear in the longer term or when the reward for responding is uncertain.With regards to where to look for and what types of signals, the participants\' responses were consistent with Alberts et al.', 'The ideas of leading and lagging indicators as warning signals for known crises are also consistent with the approaches proposed by the traditional crisis and disaster management literature (Berg &amp; Pattillo, 1999; Kaminsky et al., 1998; Sornette, 2004) .', "Collins (1997) argues that the intelligence of the people within an organization goes beyond databases and knowledge repositories and, apparently, very few organizations in this study tap on it (B and I with 'retreats' for scenario planning, situational awareness and exploration of perceptions of the future).As far as the detectors are concerned, the extant literature on signal detection (e.g., Adelman, 1998; Desouza et al., 2004; Finkelstein, 2003) underlined the importance of networks and the importance of connectivity and cooperation between them.", 'In the current study the participants used as criteria their specialism on crisis signal detection and the strength of relationship with the organization (formal/strong, informal/weak).An important aspect of signal capture by the detectors but also a point of reference for possible responsive action for</t>
-  </si>
-  <si>
-    <t>['\n\nThis work can serve as a tool to guide organizational actions in the control of rare infectious outbreaks in an advanced health care setting.', 'Strict implementation is mandatory regardless of the volume of work.• Boarding of patients in the emergency department should follow internationally accepted figures regardless of the number boarded.• Collective leadership is the management method of choice when dealing with a multidimensional leadership crisis.• A national-level crisis management media center and pre-existing media disaster plan are needed to reduce the anxiety of health care workers and improve trust.• Mental health support for health care workers is an important factor in increasing resilience and cooperation within the workforce.', "11 The outbreak resulted in 130 cases of infection (53% mortality rate), directly or indirectly involved 9000 HCWs at the site, and affected all major departments at the institution (table 1) .Little research on MERS-CoV exists to guide management of this major infection outbreak.While HCW's perceptions of risk 12 and psychological reactions, 13 to similarly serious respiratory viruses have been explored, this is the first study of stakeholder perspectives of \n\nMethods:\n\nQualitative case study using process evaluation 14, 15 was used to identify key stakeholder perceptions of the processes, lessons and insights arising from the successful management of the MERS-CoV outbreak.", 'Member checking enhanced credibility and transferability: the results were presented to thirteen of the participants to ensure the findings were comprehensible.', '16 Member checking enhanced credibility and transferability: the results were presented to thirteen of the participants to ensure the findings were comprehensible.', '16 Member checking of the qualitative data enhanced credibility and transferability: the results were presented to thirteen of the participants to ensure the findings were comprehensible and had resonance.', 'Frequent visits, communications and collaborations from external regulatory agencies (such as the SaudiMinistry of Health, the U.S. Center for Disease Control and Prevention "CDC" and the World Health Organization "WHO"), were perceived to be useful but also served to add stresses and responsibilities amidst the pressurized situation which led to near-closure of this large institution.The perceived seriousness of the crisis was reported to motivate staff to expend maximum effort to assist in its management.', "The serious impact of the crisis on patient care and on the organization's reputation encouraged all HCWs and decision-makers to exert their maximum effort and experience to assist in its management.", 'These factors are related to the high trust patients had for the NGHA, the relative lack of primary care services and problems associated with patient flows at the level of the city, communication and teamwork between the city hospitals, and the lack of a national plan that allows hospitals across different sectors to share the burden of the growing patient population.', 'Initial logistic barriers to promptly implement the escalation process outlined in the institution\'s Infectious Disease Epidemic Plan (IDEP) ( Anxiety increased among health professionals, due to the "lack of appropriate staff counseling and mental health support".', 'Consequently, some health 1  2  3  4  5  6  7  8  9  10  11  12  13  14  15  16  17  18  19  20  21  22  23  24  25  26  27  28  29  30  31  32  33  34  35  36  37  38  39  40  41  42  43  44  45  46  47  48  49  50  51  52  53  54  55  56  57  58  59 Learning from crises helps manage these better in future via identifying gaps and fostering comprehensive system improvements and effective management.', '17 However, learning from major events is challenging because each event is comparably rare and occurs in different contexts.', '18 Useful lessons gleaned from this study of MERS-CoV crisis management (Table 3) concur with other research.', 'It is not just the actions of staff, leaders and decision-makers that contributed to successful management, but also the mutual trust that accrues via the delegation of responsibilities, team management, coordination, tasks distribution, role clarification, and communication.', '21 This research corroborates others work which identifies that a number of different strands of management contribute to success, particularly, the benefits of centralized yet inclusive meetings during which senior decision-makers and frontline HCWs share knowledge and learning 22 from different parts of the organization.', '23 24 25 Other key lessons for crisis management arising from this study arose from the weaknesses around the media management during the outbreak which adversely affected reported staff morale and anxiety.', '27 Large health institutions managing major crises should have a dedicated media center or representative capable of implementing a well-designed and coordinated media crisis plan to aid communication, address questions and proactively act to protect the reputation of the organization and its staff.Factors perceived to inhibit management of the outbreak were mostly related to initial poor management practices and the negative and compounding effects of media reporting and high stress.', 'Discussion:\n\nLearning from crises helps identify gaps, expedites system improvements and aids in effective management.', '17 However, learning from rare events is challenging because each event is comparably rare and occurs in different contexts.', '18 Useful lessons gleaned from this study of MERS crisis management (table 3) concur with other research.', 'It is not just the actions of staff, leaders and decision-makers that contribute to successful management, but also the mutual trust that accrues via the delegation of responsibilities, team management, coordination, tasks distribution, role clarification, and communication.', '19, 20 As with other studies, this research showed that a number of different strands of management contributed to success, including: the knowledge exchange that occurred during the CCC meetings, where senior decision-makers, frontline HCWs, and different participants with a shared purpose, provided the working group a useful means to exchange learning experiences 21, 22 from different parts of the organization.', '25 The implementation of a collaborative decentralized management as the crisis progressed 23 Weaknesses in media management during the outbreak adversely affected staff morale and contributed to their anxiety.', '27 Large health institutions should have a media center or representative capable of implementing a well-designed, coordinated media crisis plan.Mental health support to frontline HCWs was a major missing element in managing the MERS outbreak.', '[28] [29] [30] InSingapore for example, the Ministry of Health funded a "comprehensive crisis response management system".', '29, 30 Research limitations and strengths: This research served to increase learning from an unusual and particularly serious infection outbreak.', '[28] [29] [30] In Singapore for example, the Ministry of Health funds a "comprehensive crisis response management system" for health professionals.', '29, 30 Research limitations and strengths: This research served to document learning from an unusual, burdensome and serious infection outbreak.', 'We addressed these limitations through different data collection sources, member checking and data triangulation.Learning from crises helps foster systems improvements.', '17 However, learning from major events is challenging because each event is comparably rare and occurs in a distinctive context.', '18 Useful lessons gleaned from this study of MERS-CoV crisis management (Table 3) concur with other research.', 'It is not just the actions of HCWs and decision-makers that contributed to successful management, but also the mutual trust that accrues via the delegation of responsibilities, team management, coordination, tasks distribution, role clarification, and communication.', '19, 20 This reflects the practice of collective leadership -defined as "a dynamic leadership process in which defined leaders, or set of leaders, selectively utilize skills and expertise within a network, effectively distributing elements of the leadership role as the situation 21 This research corroborates other work identifying that a number of different strands of management contribute to success, particularly, the benefits of centralized yet inclusive meetings during which senior decision-makers and frontline HCWs share knowledge and learning 22 from different parts of the organization.', '27 Large health institutions managing major crises should have a dedicated media center or representative capable of implementing a well-designed and coordinated media crisis plan to aid communication, address questions and proactively act to protect the reputation of the organization and its staff.Mental health support to frontline HCWs was a major missing element in managing the MERS-CoV outbreak.', '[28] [29] [30] In Singapore for example, the Ministry of Health funds a "comprehensive crisis response management system" for health professionals.', 'Conclusion:\n\nManagement of the MERS outbreak at KAMC-R is an example of collective leadership practice  F  o  r  p  e  e  r  r  e  v  i  e  w  o  n  l  y  1  2  3  4  5  6  7  8  9  10  11  12  13  14  15  16  17  18  19  20  21  22  23  24  25  26  27  28  29  30  31  32  33  34  35  36  37  38  39  40  41  42  43  44  45  46  47  48  49  50  51  52  53  54  55  56  57  58  59 1  2  3  4  5  6  7  8  9  10  11  12  13  14  15  16  17  18  19  20  21  22  23  24  25  26  27  28  29  30  31  32  33  34  35  36  37  38  39  40  41  42  43  44  45  46  47  48  49  50  51  52  53  54  55  56  57  58  59 In addition to the IDEP plan, which was established in 2013 with the detailed MERS flowcharts, a more strict and explicit triage process was established to ensure early identification of suspected MERS cases.', 'CMT, a medical team managing all admitted patients with respiratory illness and CPRT, an outreach team responsible to ensure proper location, testing, transfer, discharge and consultation for suspected and confirmed MERS cases.A two phase program aimed to train, assess and audit infection control practices of HCWs was implemented.', 'Full-time IPC observer(s) and trained DCNs were assigned for program monitoring.Management 1  2  3  4  5  6  7  8  9  10  11  12  13  14  15  16  17  18  19  20  21  22  23  24  25  26  27  28  29  30  31  32  33  34  35  36  37  38  39  40  41  42  43  44  45  46  47  48  49  50  51  52  53  54  55  56  57  58  59 In addition to the IDEP plan, which was established in 2013 with the detailed MERS-CoV flowcharts, a more strict and explicit triage process was established to ensure early identification of suspected MERS-CoV cases.', 'Two new teams were formed: CMT, a medical team managing all admitted patients with respiratory illness and CPRT, an outreach team responsible to ensure proper location, testing, transfer, discharge and consultation for suspected and confirmed MERS cases.A two phase program aimed to train, assess and audit infection control practices of HCWs was implemented.', 'Effective management was promoted by greater involvement of all staff in sharing learning and knowledge of the outbreak, developing trust and team work, and fostering collective leadership.', 'Future major infection control crises could be improved via measures to strengthen these areas, as well as better coordination of media management and pro-active staff counseling 1  2  3  4  5  6  7  8  9  10  11  12  13  14  15  16  17  18  19  20  21  22  23  24  25  26  27  28  29  30  31  32  33  34  35  36  37  38  39  40  41  42  43  44  45  46  47  48  49  50  51  52  53  54  55  56  57  58  59 1  2  3  4  5  6  7  8  9  10  11  12  13  14  15  16  17  18  19  20  21  22  23  24  25  26  27  28  29  30  31  32  33  34  35  36  37  38  39  40  41  42  43  44  45  46  47  48  49  50  51  52  53  54  55  56  57  58  59 1  2  3  4  5  6  7  8  9  10  11  12  13  14  15  16  17  18  19  20  21  22  23  24  25  26  27  28  29  30  31  32  33  34  35  36  37  38  39  40  41  42  43  44  45  46  47  48  49  50  51  52  53  54  55  56  57  58  59  60   F  o  r  p  e  e  r  r  e  v  i  e  w  o  n  l  y   18  1  2  3  4  5  6  7  8  9  10  11  12  13  14  15  16  17  18  19  20  21  22  23  24  25  26  27  28  29  30  31  32  33  34  35  36  37  38  39  40  41  42  43  44  45  46  47  48  49  50  51  52  53  54  55  56  57  58  59  60   F  o  r  p  e  e  r  r  e  v  i  e  w  o  n  l  y   19  1  2  3  4  5  6  7  8  9  10  11  12  13  14  15  16  17  18  19  20  21  22  23  24  25  26  27  28  29  30  31  32  33  34  35  36  37  38  39  40  41  42  43  44  45  46  47  48  49  50  51  52  53  54  55  56  57  58  59 1  2  3  4  5  6  7  8  9  10  11  12  13  14  15  16  17  18  19  20  21  22  23  24  25  26  27  28  29  30  31  32  33  34  35  36  37  38  39  40  41  42  43  44  45  46  47  48  49  50  51  52  53  54  55  56  57  58  59 In addition to the IDEP plan, which was established in 2013 with the detailed MERS-CoV flowcharts, a more strict and explicit triage process was established to ensure early identification of suspected MERS-CoV cases.', 'Two new teams were formed: CMT, a medical team managing all admitted patients with respiratory illness and CPRT, an outreach team responsible to ensure proper location, testing, transfer, discharge and consultation for suspected and confirmed MERS cases.', 'The MERS plan was implemented aiming to avoid any future occurrences of any infectious diseases.', 'The MERS-CoV plan was implemented aiming to avoid any future occurrences of any infectious diseases.', 'The MERS-CoV plan was implemented aiming to avoid any future occurrences of any infectious diseases.', "In national level crisis management, media center and a pre-existing media disaster plan are mandatory to reduce HCW anxiety and improve trust in the institution and its staff.Established in response to almost complete closure of the institution, this center has served to respond to calls from patients and their families, reschedule/direct patients' appointments at the ACC, reschedule/direct surgeries and admissions in all clinical departments.", 'Strict implementation and monitoring are mandatory regardless of the volume of work.2Patient boarding in ED should follow the internationally accepted figures regardless of the number boarded.3Collective leadership is the management method of choice when dealing with a multidimensional leadership crisis.', 'This work can serve as a tool to guide organizational actions for the control of rare infectious outbreaks in an advanced health care setting.', 'Strict implementation is mandatory regardless of the volume of work.• Boarding of patients in the emergency department should follow internationally accepted figures regardless of the number boarded.• Collective leadership is the management method of choice when dealing with a multidimensional leadership crisis.• A national-level crisis management media center and pre-existing media disaster plan are needed to reduce the anxiety of health care workers and improve trust.• Mental health support for health care workers is an important factor in increasing resilience and cooperation within the workforce.', '10 Symptom onset in the last infected patient was August 28, 2015; the end perceptions of risk 12 and psychological reactions, 13 to similar respiratory viruses have been explored, to our knowledge, this is the first study of stakeholder perspectives of the factors promoting and inhibiting effective emergency management of MERS-CoV.', 'Other factors seen to contribute to the outbreak included: high trust patients had for the NGHA, the relative lack of primary care services and problems associated with patient flow across the city, poor communication and teamwork between the city hospitals, and a lack of pre-emptive national planning to allows hospitals across different sectors to share the burden of the growing city population.', '(Frontline HCW) Transcript 1 (Decision-maker)\n\nTranscript 15 (Frontline HCW)\n\nFactors inhibiting outbreak control 1-Logistic barriers to promptly implement the escalation plan\n\n"We have implemented it (means the IDEP escalation plan) on time, but for example to close the ED it took us time to evacuate it ….', 'In national level crisis management, media center and a pre-existing media disaster plan are mandatory to reduce HCW anxiety and improve trust in the institution and its staff.', 'Other more upstream factors seen to contribute to the outbreak included: high trust patients had for the NGHA, the relative lack of primary care services, problems associated with patient flow across 1  2  3  4  5  6  7  8  9  10  11  12  13  14  15  16  17  18  19  20  21  22  23  24  25  26  27  28  29  30  31  32  33  34  35  36  37  38  39  40  41  42  43  44  45  46  47  48  49  50  51  52  53  54  55  56  57  58  59  60   F  o  r  p  e  e  r  r  e  v  i  e  w  o  n  l  y   11 the city, poor communication and teamwork between the city hospitals, and a lack of preemptive national planning to allow hospitals across different sectors to share the burden of the growing city population.', 'Research limitations and strengths:\n\nThis research documented learning from an unusual, burdensome and serious infection outbreak and used methods recognized to be well suited to Unlike this previous work, the rigor of this study was increased via comprehensive details of the sample, participants, and context.', '4\n\nIn national level crisis management, media center and a pre-existing media disaster plan are mandatory to reduce HCW anxiety and improve trust in the institution and its staff.']</t>
-  </si>
-  <si>
-    <t>["This form of risk is more difficult to anticipate so 'Crisis Management' is presented more as contingency planning, preparing for the worst in order to minimize its impact, especially on the loss of life.The weather had been classified as a high probability and consequence risk, because so many resorts are dependent on this feature yet it is something beyond their control.", "In this regard such risks are incorporated into the overall framework of 'Sustainable Management', where the evolving weather patterns are integrated into the long-term resource planning for a resort.", 'In the most popular recreational areas like swimming pools and play areas, there must be qualified supervision.', 'For example, the Jalousie Plantation Resort and Spa in the island of St Lucia would offer a tempting target according to the description offered by Pattullo (1996: \n\nSecurity planning\n\nA security system is only as good as its staff and cannot operate effectively in isolation from general staff and guests.', "A resort in which all employees are attuned to the safety and security concerns can create a safer environment for guests and employees and a more profitable operation in the long run' (Gee, 1996: 415) .There are several aspects to security planning:In major resorts it is now common to hire a professional security company to provide coverage for key areas and assets.", '■ Staff training.Even if a resort has a professional security arm it needs to include general staff in its security planning.', 'Adventure tourism\n\nGiven its importance as a major attraction for many resorts and as a prime source of risk and insurance claims, adventure tourism deserves special attention.', "Beedie (2003: 206) notes correctly that a paradox has been created, 'whereby the more detailed, planned and logistically smooth an adventure tourist itinerary becomes, the more removed the experience is from the notion of adventure'.", 'In many tropical resorts scuba diving is one of the key attractions, and although not physically demanding does require a reasonable level of health and fitness.', 'This was one accusation and explanation offered in relation to the canyoning tragedy in Switzerland that claimed 21 lives in 1999 (Head, 1999: 3) .', 'Risk management\n\nRisk Management is a way in which to prepare for the security risk and crisis issues outlined above.', 'Risk management should incorporate the following, which involves considerable overlap with the previous security planning.', "This transfer of risk responsibility to an activity operator, arising from the tourist's financial consideration (contract), raises a number of legal and ethical issues' (Morgan and Fluker, 2000: 3) .", 'Identifying areas of particular danger and hazard is an important first step, such as the buildup of under growth and leaf-litter in woodland areas; the presence of currents or steeply shelving beaches along the beach-front; the physical dangers associated with wastewater treatment plants and with electrical substations; and the ever present danger of fire when people are relaxed and having fun.Income risks are a major concern for resorts, which have a high dependence on external conditions often beyond their immediate control.', "Anderson (2006 Anderson ( : 1290 in the introduction to her article on crisis management in the Australian tourism industry lays out a catalogue of disasters that have befallen that country's tourism over the past 20 years: ■ 1989 -pilot's strike ■ 1991 -Gulf War ■ 1997 -Asian economic crisis ■ 2000 -dot com crash ■ 2001 -collapse of HIH Insurance Company (which was the major public liability insurer in Australia and with its demise there were major increases in insurance premiums for everyone).-World Trade Centre Attacks -demise of Ansett Airlines (which had a 35 per cent market share of the domestic airline business at the time).", 'One has been to recognize the potential loss of business that can occur through interruption or damage, and to prepare for it through contingency planning and market diversification.Legal liability risks are increasing as society becomes more litigious.', "Now liability insurance is a major cost factor that all businesses must consider, including resorts.Loss of key personnel risks are often under-appreciated until such a situation occurs and the resort discovers how much a certain individual contributed to the business' overall attraction.", 'These people should be identified and retained wherever possible, and if they are lost to illness or poaching then succession plans should be in place.', 'Most businesses, including resorts can absorb small and infrequent losses brought on by seasonal fluctuations or occasional accidents, but will need to transfer the risk of large business interruptions or liability claims to outside suppliers of such coverage, such as insurance companies or brokers.', 'Resort owners can also transfer risk to other parties via non-insurance responsibility.', 'In terms of major recreation equipment, like ski lifts or spas, the supplier can be encouraged to guarantee the safety of its equipment if it is properly installed and operated.', 'The business should develop a written emergency/evacuation plan for all areas and activities to be used.', "(this author's emphases)Such personal experiences are a guide as to how today's risk management is evolving into a legal discourse over duty of care, but when there is a major disruption to business through some form of disaster the emphasis changes from prevention to the rescue and recovery of crisis management.", "Crisis management\n\n'Crisis management is an extension of risk management' according to the Pacific Asia Travel Association (PATA, 2003: 3) .", 'Risk management can be viewed as management initiatives designed to minimize loss through poor decision-making; but it can also be viewed as an important proactive step in reducing the dangers of catastrophic business collapse due to crisis or disaster.', "The PATA booklet presents a 'four R' step process to crisis management:1.", 'Readiness -preparing plans and running exercises; 3.', 'Response -executing operational and communication plans in a crisis situation; 4.', 'Recovery -returning the organization to normal after a crisis;where risk management practices would dominate the first two steps.', 'Risk management procedures that help to identify safety and security weaknesses in an operation will not only help to minimize danger and loss, they will expose the weak points in case a crisis occurs.Crisis in a literate sense represents a moment of acute danger or difficulty, which in terms of the tourism industry has been defined as: an unwanted, unusual situation for an organization, which, due to the seriousness of the event, demands an immediate entrepreneurial response.', '(Glaesser, 2003: 8) This approach places the emphasis of crisis management on the response and recovery phases of a crisis and brings it into line with disaster planning which has its own four-stage process of: assessment-warningimpact-recovery (Foster, 1980) .', 'It is natural disasters which often trigger crisis within the tourism industry be they earthquakes (Kyoto -1995) , volcanic eruptions (Mount St Helens -1980), forest fires (Yellowstone National Park -1988), tsunami (Phuket -2004) or hurricanes (New Orleans -2005) .', 'This meant that the overall preparedness in 1987 was relatively good with provision to contact hotels across the country with advice on how to react (King and Berno, 2002: 49) Such an experience demonstrates strong synergistic links can exist between natural disaster and human crisis management.From past crisis experiences Ritchie (2004) sets out a strategic framework for the planning and management of crises by public or private organizations.', 'His model outlines three main stages in managing such incidents -prevention and planning, implementation, evaluation and feedback.', "Ritchie's three strategic management stages, along with Faulkner's earlier crisis stages and their ingredients, has been combined with more resort oriented issues and actions in Table 11 .2.", 'If the process is divided into the three phases of pre-, actual and post-crisis it is possible to determine a clear pattern of events and responsibilities for resorts.', 'Pre-crisis stage\n\nPre-crisis for most resorts will be some form of preparation for a future possible disaster.', "Whether that be an 'inevitable' physical disaster like an earthquake in certain regions or a possible negative political change, such major 'unthinkable' events need to be considered and prepared for.The recommended and common approach at this phase is to develop contingency plans -plans for actions that will mitigate the disaster's effects.", 'This involves recognizing the potential scale and frequency of the expected disaster, and planning accordingly.', 'In most cases there will be an obvious overlap with regular security measures such as fire drills, but in terms of major disaster preparation additional factors will need to be considered and plans prepared.For human created crises the degree of notice may be shorter than for natural disasters but there will usually be a warning period of political unrest.', 'Glaesser (2003: 131-132) provides an example of how one crisis, the Bali bombing of 12 October 2002, produced various levels of advisory notice in Europe, ranging from a low level general security advice to warnings against travel under any circumstances.', 'Actual crisis stage\n\nDuring the actual crisis there is going to be chaos and confusion and it is the prepared and cool-headed who will prevail.', 'Hence the key management task at this stage is to have staff able to implement the contingency plan and to be empowered to show initiative when conditions do not exactly follow the predicted pattern of events.', 'A major disaster or crisis is likely to affect more than one resort or destination, so collaboration with other tourism organizations and government agencies will be essential.', "Hopefully in the imminent stage all or most guests would have been evacuated with the help of public agencies and industry partners to safer areas, but generally a skeleton staff of key personnel will be required to stay on site as long as possible to ensure the safety of assets.One of the biggest challenges during this period will be media relations, for in today's global village a disaster or crisis attracts the attention of the world and a media frenzy erupts.", "Glaesser (2003: 223) in his discussion of communications policy with respect to a crisis states 'the principle (sic) task is to convey information with the aim of influencing and guiding consumer behaviour, opinions and expectations'.", 'Describe decisions and measures introduced to cope with the crisis.3.', 'The chaos and confusion of a crisis provides the opportunity for crime and lawlessness, so governments will need to bolster regular police forces with federal police and possibly troops.', "In the case of the New Orleans hurricane of 2005 such a government response was widely criticized for its slowness and inadequacy.Since much of the world's resort business occurs in the developing world when a major disaster or crisis occurs the host communities often need international assistance.", 'It is at such times that the international community has revealed its better nature, ignoring old differences to come to the aid of fellow humans suffering from the ravages of nature or the actions of a few.', 'Partly this is because many receiving nations have neither their own contingency plans for such disasters nor the organization and infrastructure to handle a major in-pouring of generosity; and partly because some of the recovering nations have been susceptible to pilfering and corruption, which results in funds and materials not reaching the designated destinations and sufferers.', 'Post-crisis stage\n\nThe post-crisis phase occurs when the actual crisis has abated and is out of the international news headlines, and represents the business and community efforts to return to pre-crisis conditions.', 'As many students of disaster/crisis management indicate this is not only the time to get back to business as quickly as possible, it is an opportunity to redevelop and learn from the mistakes of the past.An immediate concern is to take advantage of the media attention that will have placed the resort destination in the world headlines, by demonstrating that the crisis has passed and life is returning to normal.', 'There will be lessons learned from the disaster or crisis that can be incorporated into the design of the new resort which will make it more disaster-proof in the future.', 'One example of how a disaster can be turned into a positive for tourism occurred with the Mount St Helens eruption.Prior to the eruption Mount St Helens was a relatively quite tourist attraction, appealing mostly to outdoor recreationists and offering mainly basic facilities.', "Sustainability crisis management\n\nAs has been mentioned, life is a risk and as we modify the earth's environment we are creating new and uncharted conditions that will bring increased risk.", "As a result, state -backed insurance plans, meant to provide coverage as a last resort, are being inundated' (The Economist, 2006a: 74) .", "Crisis management, risk management, and emergency responses need to be supplemented with long term management for survival' (Winn and Kirchgeorg, 2005: 252) .To put such thoughts into practice will require guidelines that incorporate all the knowledge that has been accumulated to date on risk and crisis management to be supplemented by a broader and more collaborative \n\nDevelopment of natural catastrophes and economic losses (in US$ billion, 200values)\n\nDecade 1950 -1960 -1970 -1980 -1990 -Last 10 1959 1969 1979 1989 1999 approach to business survival and sustainability.", "Santana (2003: 304) considers that if decision-makers acknowledge that in these complex and unpredictable times in which we live and operate, anything is possible, including a major crisis that may prove devastating to their organizations, management will be in the 'right frame of mind' to accept the contention that forms the basic foundation of crisis management; proper advanced planning.As Santana points out, with the increasing impact of external forces on tourism operations, crisis should be looked upon as an evolving process in itself, one that develops its own logic and consequences, rather than be treated as an isolated event.", "'It is the degree to which management heeds the warning signals and prepares the organization (that) will determine how well it responds to the impending crisis' (Santana, 2003: 310) .", "'Security ideas now tend to stress more global and peoplecentered perspectives with greater emphasis on the multilateral frameworks of security management' (Hall et al., 2003: 12) .One of the few at this point to provide practical guidelines for sustainable crisis management in tourism is de Sausmarez (2004) .", 'Hence, the first step in the establishment of a national or regional crisis management policy is to determine and demonstrate the relative importance of the tourism and resort sectors.Until this has been done, it is impossible to prepare any sound strategy for the response to a crisis.', "This was well illustrated by SharpleyThe Business of Resort Management and Craven (2001) who show that even though tourism contributes substantially more to the British economy than agriculture does, the British government's response to the foot and mouth crisis in 2001 was to slaughter rather than vaccinated animals and to close the countryside to visitors, moves which favoured the agricultural sector rather than the tourism sector and cost the taxpayer substantially more than was necessary.", '(de Sausmarez, 2004: 4) It is only when tourism in general and the resort component in particular are shown to be significant local and regional socioeconomic activities that governments and planners will consider them seriously and integrate their needs into macro-crisis management planning.', 'If resorts and tourism are to integrate crisis management with their sustainable development philosophy they will need to identify the anticipated areas of greatest risk.', 'Although none of these supply and demand risks will fall under the direct control of resort management, knowledge of their existence and development will be essential for future strategic planning, and should be used to lobby government.', 'Managers and owners of resort properties need to know what this impending crisis means for them specifically.', "She notes that the World Tourism Organisation's (1999) recommendation after the Asian financial crisis of 1997 was that destinations should develop three categories of indicators, to warn of impending crises.i.", 'Long-term indicators, with a lead time of a year or more that include planned capacity developments, international currency valuations and trends in GDP, interest rates and inflation in key markets.To which Sustainability Crisis Management would add a fourth category: iv.', 'This means that responsibilities and coordination plans need to be drawn up at an early stage and should cover three essential areas: a speedy response, appropriate measures in terms of the local needs of impacted areas and communication and coordination between different levels of jurisdiction and different sectors.', 'The development of a crisis plan.The development of a national crisis management plan is itself an example of macro-level proactive crisis management (de Sausmarez, 2004: 9) , and a considerable achievement in itself.', 'Such plans need to be flexible as we can expect a series of different crises in the future, with varying local and regional impacts within national jurisdictions.', 'An important part of any large scale crisis management plan will be media relations, relying on the various forms of media to distribute the relevant information as quickly and effectively as possible and being transparent about the severity of the crisis and remedies being undertaken.In some countries there may already be plans in place to cope with anticipated natural crisis such as cyclones (Fiji) or earthquakes (Pacific North West of America) that can be extended to include other forms of possible crisis.', 'Such plans would need regular re-assessment by government departments and the private sector, but can build an invaluable data bank and procedural map.', "In an Asian context de Sausmarez (2004: 11) feels communication and inter-agency cooperation needs to overcome the perceptual association between a crisis and 'loss of face', as is claimed to have occurred with the SARS outbreak in East Asia in 2003.", 'In terms of global warming and its associated crisis no single country or person is to blame, we all need to take joint responsibility.', 'The potential for regional cooperation.Although de Sausmarez focusses on the creation of national crisis management she recognizes that global issues like climate change require an even larger operational scale.', 'She points out that the combined effort of the Association of Southeast Asian Nations (ASEAN) was able to effectively contain the SARS epidemic through regional preventative action in 2003, and that success has been repeated with the later outbreak of avian flu in East Asia.The six steps outlined by de Sausmarez do not follow a natural linear sequence, but should be viewed more as a continuous dynamic process which has been divided up to permit closer examination and appreciation of its component parts.', 'The whole process depends on continual learning and adjustment, so as to be responsive and flexible in the face of future crises.', 'For resorts which have survived as a separate form of tourism since the early days it becomes imperative to embrace risk and crisis management as a central part of their business strategy.', 'But what if we are experiencing major changes to the physical well-being of our planet and in human behaviour to one another?', 'The risk factors that we have calculated from the past and present may no longer work so well or even apply, and we will need to enlarge our risk management process to incorporate more fluid business and environmental situations (Part D).The purpose of this chapter and book is to encourage the reader to think about the wonderful legacy that has been provided by resorts; how we should strive to ensure resorts continue to delight our senses and educate us about our planet and its various cultures; and how we can achieve this through appropriate business management, even in this era of global change.', 'A risk management focus would not only assist with the general sustainability objectives of a resort business, it can help position resorts at the forefront of monitoring and adjusting to the predicted changes in our natural and human environments.The chapter and book closes with an examination of one recent global crisis, which had a direct impact on resorts throughout a large area of the world, and one resort which learned a great deal from one hurricane season.', 'If this terrible natural disaster is examined using the threefold strategic action template of Table 11 .2 certain key crisis management lessons emerge.At the pre-crisis stage little formal preparation had been undertaken at either government or resort levels of responsibility.', 'What was missing was both an early warning system of seismic buoys and a way to convey that information to potentially threatened areas, so they could instigate evacuation plans.', 'In this case there had been no regional forecasting or risk analysis and there was no internationally coordinated contingency plan to deal with such a situation.', "The result was that even if a coastal resort had its own evacuation plan there was nothing to trigger it until the arrival of the first wave, and by then it was too late.The actual crisis stage was viewed by millions of us around the globe, as we were able to view tourists' video camera images of this spectacular and unusual Sunday morning feature on our television screens.", 'This confirms the need for control over communications, to ensure reporting remains factual and in proportion, rather than sensational and exploitive.The post-crisis stage represents an opportunity to learn from the crisis and to rebuild.', 'The biggest weakness was the lack of information and warning, which prevented the implementation of effective contingency planning.', 'But this is just the start, for the information needs to get to the areas around the Indian Ocean that are likely to be affected and the people in those areas who need to know what actions to take.', 'Another example of crisis recovery is provided in the Maldives.', 'New resort regulations will require evacuation plans and emergency supplies.', 'Major tsunamis are fortunately rare events, but this case has demonstrated the need for some international warning system, so that regional and local contingency plans can be put into operation to minimize the impact.', "Hurricane season for Walt Disney World\n\nThis case is based on an article by Barbara Higgins (2005) who was Director of Operations Integration for Walt Disney World Resort when four hurricanes impacted the resort's operations in 2004, providing an invaluable learning opportunity for them and other resort operations.", "Plans\n\nWalt Disney World's hurricane plans, as part of its general emergency planning, had definite priorities and procedures.", 'Priorities included (Higgins, 2005: 41) : ■ keep guests safe; ■ keep employees safe; ■ have a thoughtful plan for tie-down, ride-out and recovery; and ■ provide the ability to get our parks open and operating as soon as possible after the storm.The procedures were designed to account for varying hurricane strengths, and whether the hurricane involved a direct hit or a near miss in terms of its path across central Florida.', '■ Phase 5 -Monitoring\n\nReviewing hurricane plans and verifying contact numbers for employees.', '■ Phase 4 -General readiness\n\nFurther review of plans and beginning of preparation for possible shutdown of long-lead-time operations.', '■ Phase 1 -Shut down all activities\n\nAll activities closed down, with only essential ride-out crews remaining in designated shelters.Despite these plans and the thoroughness of preparation the sequence of four very different hurricanes revealed some additional factors and priorities.', "'The first lesson we learned was that our rigorous plans were only guidelines that needed to be flexible enough to adjust to changes dictated by our circumstances' (Higgins, 2005: 42) .", "The most important elements in the general emergency plans turned out to be:■ maintaining guest and employee communication, letting them know about the impending storm and providing the relevant information regarding each phase's action plan;■ operating the food service, with the provision of hot meals being the biggest priority; ■ offering in-resort entertainment to guests who were room-bound for many hours; ■ preparing guests for confinement in their rooms over long periods,which is not what they came to the resort to do; ■ arranging for the ability to use news media to give (information on park closures and re-openings) and to get (weather details and various local government announcements regarding schools, police and emergency services).One 'important lesson to be learned in the face of a crisis is to show compassion for your employees and the toll the situation has had upon them, their families and their loved ones' (Higgins, 2005: 45) ."]</t>
-  </si>
-  <si>
-    <t>["Introduction\n\nSince the pilots' strike of 1989, the Australian tourism industry has faced a series of crises, which have included the Gulf War in 1991, the Asian economic crisis in 1997, the dotcom crash of 2000, the collapse of the HIH Insurance Company, the World Trade Centre attacks and the demise of Ansett Airlines in 2001, the Bali bombings in 2002 and the Iraq War and the outbreak of SARS (severe acute respiratory syndrome) epidemic in 2003.In 2002, a research project was carried out among a number of sectors of the Australian tourism industry to investigate a variety of issues associated with the collapse of the HIH Insurance Company, a major Australian insurance company, the World Trade Centre attacks and the demise of Ansett Airlines, Australia's second largest airline.", 'This paper, drawn from the broader study, focuses specifically on the preparedness of organisations to respond to these events, in terms of the role of policies in guiding their responses; the personnel or human resource (HR) strategies implemented, and the postscript, the extent of organisational learning which had occurred.', "Faulkner (2001, p. 138) has distilled the work of a number of authors and indicated that the key elements of crisis situations are: a triggering event, which is so significant that it challenges the existing structure, routine operations or survival of the organization, high threat, short decision time and an element of surprise and urgency, a perception of an inability to cope among those directly affected, a turning point, when decisive change, which may have both positive and negative connotation, is imminent, characterised by 'fluid, unstable, dynamic' situations.The attacks on the World Trade Centre clearly demonstrate the potential risk which terrorism poses for the tourism industry.", 'Furthermore, studies have shown that tourists substitute risky destinations with safer choices, demonstrate a delayed reaction to terrorism and exhibit cultural differences in their reactions to risk (Sonmez, 1998, pp.', 'For example, as a result of terrorist activity in 1985, 1.8 million Americans changed their foreign plans their following year (Sonmez &amp; Graefe, 1998, p. 121) .', "This event had a number of serious implications for the Australian tourism industry, which included the loss of tourists from New Zealand, disruption of services to rural Australia and customers of Star Alliance partner airlines were no longer able to use their frequent flyer points for travel to and within Australia (Prideaux, 2003) .In response to a crisis, invariably, urgent management decisions, which are not part of an organisation's normal operating procedures, will have to be made.", "Pearson and Mitroff (1993, p. 59) suggest that 'the purpose of crisis management is not to produce a set of plans; it is to prepare an organization to think creatively about the unthinkable so that the best possible decisions will be made in time of crisis'.", "Spillan and Hough (2003, p. 399) suggest that 'crisis management entails minimizing the impact of an unexpected event in the life of an organization'.Effective crisis management means that senior management must manage the impact of the crisis on various sections of the organisation, such as information systems, operations and human resources (Hickman &amp; Crandall, 1997) .", "Crisis-induced and post-crisis stress may increase under a number of circumstances, which include 'when informational certainty is low; y the size and scale of the event appears overwhelming; y executives, managers and even onsite team leaders show little support' (Heath, 1998, p. 400) .In response to these circumstances, Heath (1998, p. 400) recommends that managers ensure that as much reliable information is provided as possible and use a range of 'post-crisis stress reduction strategies', ranging from informal peer interaction to formal professionally conducted programs.", 'A study involving registered club managers in New South Wales indicated that the most important areas of flexibility were work-time, functional and numerical flexibility (Buultjens &amp; Howard, 2001, p. 68 ).Crises such as those which occurred in 2001 create critical periods of learning readiness in organisations.', 'This period of learning has three phases, namely, defensiveness, openness and forgetfulness.', 'When faced with a crisis, managers and employees involved may feel defensive and be moved to protect themselves.', "However, once the immediate threat or incident has passed, they may be open to understanding their organisation's vulnerabilities and assessing its performance in managing the crisis.", 'It is in this phase of openness when most learning can take place.', 'However, the extent to which organisational members are open to learning and the duration of this phase are largely dependent on the behaviour of the top management.', 'After the crisis, operations must be restored as soon as possible.', 'Hence, the sense of urgency which motivates a desire for change is lost and all the superficial learning is forgotten (Kovoor-Misra &amp; Nathan, 2000) .', "Roux-Dufort (2000, p. 26) suggests that 'the organization's priority is to come back and maintain the status quo as soon as possible rather than exploring the extent to which the crisis is a privileged moment during which to understand things differently.'", 'Confirming this view, Henderson (1999, p. 177) reports that the results of a survey of leading tourist attractions in Singapore investigating the consequences of the Asian financial crisis indicated that there was no crisis management planning and that there was a need for such planning in the light of the nature of the travel and tourism industry, with its exposure to risk and disaster.', '1) that many tourism organisations do not include the possibility of disasters in their strategic plans.', 'This absence of some form of crisis management planning perhaps reflects the fatal mistake made by many businesses that a crisis will not happen to them (Spillan &amp; Hough, 2003) .', 'They report the results of a survey of small businesses in Pennsylvania and New York, which indicated from the 162 responses, that little emphasis had been placed on crisis planning in these businesses, the majority of which had less than 25 employees.', "Queensland was the first state to have a tourism crisis management plan, which was formulated after the events of September 11 and Ansett's demise in 2001 (Tourism Queensland, 2004) .", 'Development of the national tourism incident response plan commenced after the Bali bombings, in October 2002, and was ready for activation in time for the start of the Iraq War in 2003.In summary, in view of the volatile environment in which the tourism industry is now operating, it is imperative that appropriate policies are in place, at governmental, sector and organisational level, to guide decision-making in key areas such as the management of human resources.', "It is also important to ensure that in the rush to return to the 'status quo', valuable lessons are not forgotten which would help guide responses to the next crisis which will inevitably occur.", "As it is not possible to report all the responses here, a range of quotations have been provided to illustrate the issues under consideration.and normally you would have crisis plans which you would pull out of the drawer every year or two and dust it off and say 'is it still relevant?'", "But the crisis plan didn't even address anything like this, so I don't think anybody could have planned what they were going to doy being honest, y we literally ran around for a couple of weeks wondering what the hell we were going to doy the normal business practices did not seem to apply.", "(Nigel, accommodation, C) While a number of organisations did not have any formal policies to guide their responses to the events of 2001, the organisational learning which had been acquired during other times of crisis was acknowledged as having guided their actions.yI can remember myself in 1988 or 89 y and the pilots went on strike, it was a similar sort of thing, so you called on your experience and did what the best you could and you relied on your experiencey (Mark, car hire, AS: 9) y2 examples, which would have provided a precedent for management, would have been the Gulf War and the Pilots' strike in 1988 y the boss has been in the game now for 30-40 years, I think that y in the background, these guys had some y sort of strategy in place so that, should something like that arise again, they would put into place.", 'Interview findings and discussion\n\nIn this section, the interview findings and discussion are presented under the following headings: preparedness, personnel: HR strategies and postscript: organisational learning.', "(Douglas, business tourism, A: 600) y one lesson out of those 2 events was that y we need to have that flexibility to be able to y make some changes with the direction of the companyy (Paul, accommodation and tours, S)The importance of the ability to be able to act quickly and change in response to such events being embedded in an organisation's culture was highlighted by one tour operator, who indicated that this had allowed her employees to cope better with the changes which had to be made in response to events of 2001: yI think if you make them [personnel] y comfortable with the idea that the company has to be quick on it's feet all the time, then when something happens, they won't be phasedy (Renata, tour operator, S) From the responses to a question regarding the role of organisational policies in guiding responses to these events, it became clear that the majority of organisations had not been prepared for such events by the development of appropriate policies, confirming numerous reports in the literature about the absence of this type of planning.We didn't have any plans in placey (David, car hire, A: 8) ypolicies, that presupposes we have a long-term vision and plan.", "No, no, we're a small business y (Lachlan, transportation, A: 300) However, one interviewee did acknowledge the need for plans in the following comment, 'I just think that businesses the size of ours have to have plans in place, because in fact, that [crises] happens everyday, all you're looking at is the magnitude', (Ray, entertainment, GC).", "The comment of another interviewee who had found that his organisation's crisis plans had not been of any value, highlighted the need for appropriate or relevant policies:\n\nPersonnel: HR strategies\n\nOrganisations, irrespective of size, sector and location, responded to these events by adopting a range of HR strategies.", 'I also made a commitment to them that y there would not be any kneejerk reactions to what was transpiring and that we would keep them informed as to what y the consequences of any, if any significant down-turn in business would occur.', 'Postscript: organisational learning\n\nWith respect to the organisational learning which had taken place as a result of the events of 2001, there were a variety of responses.', '(Lachlan, transportation, A: 300) One interviewee (Trevor, business tourism, M: 500) acknowledged that people in his organisation had been caught up in the emotion of the time, and that the next time such an event occurred, they would wait for reliable information before planning their response.', 'Indeed, confirming Heath (1998) , there was broad acknowledgement that any responses should be based on accurate information: first one was, to rapidly y increase our intelligencegathering information, so to ensure that the decisions we were making were based on fact, not on reaction.', "(Nigel, accommodation, C) In discussing the perceived benefits of the events of 2001 to the tourism industry, a number of interviewees again highlighted the value of organisational learning as a result of these events: I think the operators get a chance to sit down and really look at what their business is all about y it forces people to also explore other markets that they probably wouldn't have explored in the first place, had the business been just bopping along.", 'y so as to avoid it in the future, to be able to manage it more effectively in the future, but more importantly, to increase organisational capabilities to responding to events in the future, so everything is a learning experience, at a strategic and an organisational culture level.', 'Indeed, the value of the organisational learning which occurs at such times was acknowledged by some interviewees as a benefit of these events.', 'The lack of preparedness for such events was demonstrated by the widespread absence of policies to guide organisational responses, confirming the observations of Henderson (1999) , that while there was a need for crisis management planning, none had been done.', 'In contrast to the comments of Kovoor-Misra and Nathan (2000) and Roux-Dufort (2000) , there was evidence that organisational learning had taken place, which confirmed the observation of Faulkner (2001) that such events can have positive consequences.These findings have a number of implications for the Australian tourism industry.', 'Most importantly, it must be recognised that organisations are now operating in an increasingly volatile environment and it is imperative that good networks are developed and maintained so that accurate information can be gained on which appropriate responses to any crisis can be planned.', "Indeed, one interviewee suggested that the timing of another crisis would dictate his organisation's response:y I would say that it that happened within the next year and business dropped, we'd probably have to retrench staff-2 big hits like that, 2 years runningy in the short-term, it would be harder to hold staffy (Martin, coach company, S: 500)In addition, such a study would identify the extent of organisational learning which has taken place in that time."]</t>
-  </si>
-  <si>
-    <t>['Although some events were unprecedented, crisis and disaster have acquired greater prominence in recent years and the modern world appears to be one of heightened uncertainty and insecurity.', 'These themes are central to this book, which deals with causes of crises, their dynamics, consequences and approaches to management.This fi rst chapter provides an introduction to tourism crises and tourism crisis management.', 'It discusses the features of such crises, their origins and evolution and recommended responses within the context of the wider literature on crisis management.', 'Distinguishing characteristics of the tourism industry, comprising public and private actors, are outlined and shown to heighten its vulnerability to crisis, which assumes a variety of forms and is provoked by assorted catalysts.', 'The overview stresses the signifi cance of planning and management and sets the scene for the remainder of the book, which explores a multiplicity of tourism crises and the manner of their resolution.Individual chapters cover tourism crises related to economic, political, sociocultural, environmental and technological issues with additional separate chapters dedicated to questions of terrorism, health and commercial crises.', 'Tourism Crises, Causes and Consequences\n\nThere is no universally accepted defi nition of what constitutes a crisis and different writers present their own interpretations.', 'The latter are more amenable to control, but the two have qualities in common and are connected when catastrophes outside an organization provoke a crisis within it.', 'Emergency is another term sometimes employed interchangeably with crisis, but it refers to a less serious and therefore more easily managed event or threat.', 'Risk assessment is a key stage in planning for crisis, involving the anticipation of what might go wrong and identifi cation of the reasons for divergences from expectations (van Waldbeek, 2005) .Every crisis is unique, yet characteristics generally cited include unexpectedness, urgency and danger (Hermann, 1972) .', 'Crises also reach a crucial point when change, for the better or worse, is unavoidable and the experience may prove benefi cial for people and organizations .Tourism crises usually share these attributes, although certain crisis situations can be predicted and lack immediacy such as those facing destinations suffering from rising sea levels due to global warming.', 'Economic downturn and recession, fl uctuating exchange rates, loss of market confi dence and withdrawal of investment funds can all engender a tourism crisis.', 'Table 1 .2 contains a list of threats of crisis by domain and whether they are external or internal to the tourism industry.', 'A crisis beyond the industry could be a rigorous test of management competence and the fi nancial health of an organization, with corporate and industrial commercial crises ensuing if these are found to be defi cient.', 'The cause and source of a crisis will help to decide its consequences and severity can be assessed on a scale from major to minor, measured by items such as number of people implicated and costs incurred.', 'Duration is a dimension of magnitude which embraces a short to long-term continuum, from a temporary computer systems collapse to a slowly mutating crisis linked to environmental degradation.', 'The zone of crisis may be local, national, regional and international with regard to geographical area and corporate, industrial (domestic and overseas) and government (local, national and international) with regard to decision makers.An isolated case of food poisoning at a restaurant principally concerns the manager and staff and, if managed well, will be quickly forgotten with limited fi nancial damage.', 'This range in crisis scope and, by implication, gravity is depicted in Figure 1 .2.Crises are thus rooted in a multiplicity of intrinsic and extrinsic causes originating in various domains.', 'Such observations suggest a propensity to crisis in the tourism industry which is partly derived from its distinctive features, which are summarized below.', 'Tourists are unlikely to cease traveling in reaction to negative forces, but could shift their direction of travel and choice of destination.', 'Collectively, they form a network made up of inputs from a series of individual industries, rather than a discrete and homogenous industry, and some of the participants may have customers who are not tourists such as excursionists and local residents.Core industry sectors are tourism administration and development, passenger transportation, hospitality, attractions, tour operation and retail travel.', 'The tourism administration segment determines the environment within which the overall industry works while transport, hospitality and attractions sell the services essential to the tourist experience.', 'Intermediaries are being challenged by new channels of distribution and especially Internet technology, which facilitates direct communications and transactions between customers and suppliers.', 'Transport, hospitality and attractions sectors supply domestic and inbound tourists, and tour operators and travel agents deal mainly with residents going overseas, with some sales of domestic products.', 'Vulnerability of the Tourism Industry to Crisis\n\nThe above comments indicate why and how the tourism industry is prone to crisis.', 'Relationships of mutual dependence among components also mean that a crisis for one may spread to another.', 'Such contagion is evident in destination crises when a precipitating event leads to a sudden fall in arrivals which has repercussions for accommodation, attraction and transport providers as well as government agencies and tour operators and travel agents at home and abroad.There is fi erce competition among destinations and within sectors, with a trend toward concentration and consolidation.', 'It must also be remembered that the industry is not the preserve of large corporations and small businesses are very active; some of these are particularly vulnerable and may be ill equipped to handle crises (Cushnahan, 2004) .There are striking contrasts between tourist products and other consumer goods which elevate the probability of crisis.', "Destinations where there are doubts about safety and security are near to a crisis of a tarnished image, offi cial warnings against travel and a decline in visitors.Tourism has also expanded at a rapid rate to become one of the world's leading industries, but movement on such a scale and development at such a pace have had economic, socio-cultural and environmental impacts.", 'The question is not whether a crisis will have to be faced, but when and what the reaction should be.', 'Investment in planning and management are therefore vital and the next section outlines key tasks to be performed before and during the evolution of a crisis.', 'Managing Tourism Crises\n\nCrisis management is perhaps a self-explanatory term and there is, again, no standard defi nition.', 'Santana (2004, p. 308 ) did, however, capture its scope and intentions when he wrote of an "ongoing integrated and comprehensive effort that organizations effectively put into place in an attempt to fi rst and foremost understand and prevent crisis, and to effectively manage those that occur, taking into account in each and every step of their planning and training activities, the interests of their stakeholders."', 'Such an outline is applicable to tourism crisis management, which is described in the list of concept defi nitions at the end of the chapter as planning for and managing tourism crises in order to protect the interests of the industry, tourists and other stakeholders involved and contain any long-term damage.', 'It should be stressed that the industry incorporates public bodies with tourism planning, development and promotion functions as well as commercial operators.General theories postulate that crises advance in stages which have been labeled prodromal (warning), acute (at the height of the crisis), chronic (aftermath), and resolution (Fink, 1986) .', 'Essentially, these authors depicted three intervals of pre-crisis, crisis and post-crisis which are likely to be of varying lengths.', 'There may be no, or very little, time for action prior to crises which arrive without warning and duration will depend on the particular case, as will the speed of recovery.', 'Nevertheless, complete restoration of the status quo may be impossible because people and organizations are permanently altered by crisis and sometimes do not survive.The evolution of a crisis can also be viewed as a set of tasks for managers who must detect signals, prepare and try to prevent, contain, limit damage and pursue recovery (Pauchant and Mitroff, 1992) .', 'These tasks imply the assumption of either a reactive or proactive stance while interactivity permits learning, knowledge gained helping to ensure that organizations are better placed to withstand or avert future crises (Burling and Hyle, 1997) .', 'Practical measures to reduce the chances of a similar crisis recurring or another emerging should also be seen to be taken in order to reassure and restore confi dence amongst tourists, industry partners and investors.', 'The main aims are therefore to reduce risks, get ready, respond and recover (Heath, 1998) .Documented and tested crisis plans, detailing actions and staff roles and responsibilities, occupy a central place in crisis management (Smith, 1990; Smith and Sipika, 1993) .', 'Plans should be informed by comprehensive research into, and understanding of, national and global trends of relevance to operations.', 'The plan does not end with publication and circulation and it should be monitored and revised in the light of new circumstances.', "It also cannot be relied on alone and organizations should strive to foster a suitable culture with competent staff able to rise to the most diffi cult and demanding of occasions.Specifi c studies of tourism organizations, industry sectors and destinations in crisis echo these conclusions about crisis evolution and management while acknowledging tourism's distinctiveness as a human, administrative and commercial activity (Atkas and Gunlu, 2005; Brewton, 1987; Doeg, 1995; Evans and Elphick, 2005; Henderson, 1999; Pottorff and Neal, 1994) .", 'Tourists may have to be repatriated or moved from destinations struck by crisis and arrangements made for those whose departure is imminent, with logistical and resource implications to be planned for.', 'The emergency period is a time for action to protect life and property and is followed by intermediate and long-term recovery before ultimate resolution.', 'A list of responses to match each phase is presented, alongside management strategies founded on thorough and continuously reviewed and updated risk assessment and contingency plans.', 'Overall, prerequisites of success in managing a tourism crisis are maximum preparedness, a willingness to accept responsibility, rapid action, transparency and good communications.', 'Realizing these objectives is facilitated by a plan setting the direction for all personnel; some examples are discussed in the fi nal chapter.', 'There is perhaps an emphasis on extrinsic causes of crisis rather than intrinsic organizational weaknesses and on destination perspectives.', 'Tourism crises are shown to generate widespread, and potentially very damaging, publicity (Gonzalez-Herrero and Pratt, 1998; Lehrman, 1986) .Findings reveal some evidence of reluctance on the part of the tourism industry in the past to accept the possibility of crisis and prepare for it.', 'For example, a Pacifi c Asia Travel Association (PATA) survey undertaken in 1991 disclosed that only a minority of members included crisis management in strategic planning, despite the 40% chance of them facing a crisis (Cassedy, 1991) .', 'The formulation and execution of crisis management strategies do not seem to have become universal in the intervening years (Prideaux, 2003) and plans that do exist have their limitations (de Sausmarez, 2003; Drabek, 1995) .However, the major tourism crises experienced recently and described in this book are leading to a re-assessment of attitudes toward crisis management planning and the topic is now taken more seriously within the tourism industry.', 'It is being allocated a much higher priority with a search for fl exible plans which strike a balance between being too precise and overly generic and are capable of accommodating envisaged scenarios.', 'Patterns of evolution differ in terms of speed and the duration of each crisis stage and consequences are felt at multiple levels of industry and geographical area, with corresponding contrasts in gravity.', 'It appears that the tourism industry is susceptible to crisis, with defi ning qualities which set it apart from other industries, and that the incidence of crisis will intensify.Knowledge about crises and preparing for them is advancing and those responsible have perhaps more information at their disposal than ever before to assist in decision and policy making.', 'However, despite the enlarged body of literature devoted to theoretical and more practical themes, there is still a lack of quantitative and qualitative data about the extent, composition and effectiveness of formal crisis management planning within the tourism industry.Opportunities for research are likely to grow as both crises and crisis management activity increase.', 'Avenues for further study are discussed in the fi nal chapter of this book, which also returns to questions of the effi cacy of tourism crisis management plans.', 'Nevertheless, it is hoped that the following chapters on the separate domains of crisis will contribute to an improved understanding of the reasons underlying tourism crises, the ensuing results and processes of resolution.Tourism crisis: Circumstances in which tourists and members of the tourism industry individually or collectively, including destinations, are faced with change which is potentially destructive for every, or certain, parties.', 'Tourism crisis management: Planning for and managing tourism crises in order to protect the interests of the industry, tourists and other stakeholders involved and contain any long-term damage.', 'The tourism industry: The public and private organizations which provide tourist products and services, market them and deal with development and planning.']</t>
-  </si>
-  <si>
-    <t>['Introduction\n\nAn event that suddenly transpires into an unfavourable situation is known as a crisis (Laws &amp; Prideaux, 2005) .', 'Furthermore, the majority of these studies focused on crisis in developed countries.', "Despite no reported cases, tourism receipts more than halved for the 2014/2015 season (International Monetary Fund, 2015; Gambia Tourism Board, 2015) , leading to what is referred to as the 'Ebola-induced tourism crisis' (EITC).Tourist decisions and destination choices are influenced by personal and physical security perceptions (Lepp &amp; Gibson, 2003; Taylor &amp; Toohey, 2007) , which are often fuelled by media imagery of destinations (Kozak, Crotts, &amp; Law, 2007) .", "Furthermore, destinations may be unaffected directly by a crisis, but the consequence of being within its physical proximity (Henderson, 2007) , can create a 'spill over effect' with damaging consequences (Cavlek, 2002; Ritchie, Crotts, Zehrer, &amp; Volsky, 2013) .It is important to study tourism crisis management in developing countries for two main reasons.", 'As travel and tourism can facilitate the spread of epidemics, global bodies such as the World Health Organisation (WHO) and the UN World Tourism Organisation (UNWTO) are increasingly interested in understanding the cause, evolution and risk of an infection (Joffe &amp; Haarhoff, 2002; Mason, Grabowski, &amp; Du, 2005; Page, Yeoman, Munro, Connell, &amp; Walker, 2006) ; and advocating swift precautionary actions to reduce a health risk, often at the expense of complete scientific understanding (Sunstein, 2005) .The SARS outbreak exemplified the link between travel, tourism and an infectious disease (Henderson &amp; Ng, 2004; McKercher &amp; Chon, 2004; Washer, 2004) , that spread globally through international tourists returning home after visiting affected areas (Mason et al., 2005) .', 'While generally the media affects risk perception, an opposite reaction may occur as a result of a social process known as normalisation (Ananian-Welsh &amp; Williams, 2014) .', 'Regardless of type, all crises need appropriate management so that the destination and tourism businesses can respond, recover, learn lessons, improve future planning and implement effective strategies.', 'Tourism crisis management\n\nHandling the negative impact of crises can be achieved through crisis management; the process by which the impact of a crisis may be reduced and recovery supported (Armstrong, 2008; Glaesser, 2006) .', 'Crisis management can be defined as: "An ongoing integrated and comprehensive effort that organisations effectively put into place in an attempt to first and foremost understand and prevent crisis, and to effectively manage those that occur, taking into account in each and every step of their planning and training activities, the interest of their stakeholders" (Santana, 2004, p.308) .', 'Devising and implementing successful crisis management policies and strategies are complex, due to the fragmented nature of the tourism sector, political and social context of the crisis location, as well as the unique characteristics and duration of each crisis (Henderson, 2007; Prideaux, Laws, &amp; Faulkner, 2003) .', 'McKercher (1999) argued that while many general crisis models provide management guidance for a particular crisis, these remain linear and fail to acknowledge complexity in responding specifically to health crises.Crisis management must address the immediate challenge, ensuring the safety of tourists and the community, and sustaining and/ or rebuilding the tourism sector (Burnett, 1998; Prideaux, 2004; Speakman &amp; Sharpley, 2012) .', 'Destinations need to engage with immediate and long-term planning, recognising how tourists typically react to a crisis situation (Ritchie, 2004) .', 'As a crisis unfolds, the perspective towards the situation will differ based on the context and in turn, be influenced by culture, organisation and politics (Pforr, 2006) .', 'However, the decisions made during a crisis can be crucial to the overall long-term recovery of the destination and is especially important for engagement and management of the media (Armstrong, 2008; Beirman, 2003) .', 'Most tourism recovery strategies are reactive and generally include government aid packages; which (re)focus on domestic tourism and development of new niche tourism products, as well as cost-cutting measures by the sector as a result of a crisis (Tse et al., 2006; Enz &amp; Taylor, 2002) .', 'Finally, destination recovery is highly dependent on the perception of risk, a field that is crucial to understanding what is important for tourists in relation to personal safety and security (Lepp &amp; Gibson, 2003; Reisinger &amp; Mavondo, 2005; Taylor &amp; Toohey, 2007; Williams &amp; Baláz, 2013; Yang &amp; Nair, 2014) .General crisis and disaster management theory, models and frameworks have been established to understand crisis and disaster management.', 'Prescriptive models outline how a crisis should be handled based on pre-set standards, while descriptive models indicate how an event was actually handled (Burnett, 1998) .', 'Furthermore, such management strategies are devised and implemented within a political, cultural and social context, and process (Prideaux et al., 2003 )such as a developing country.A number of conceptual frameworks have been developed for the tourism sector, with the overall purpose of assisting destinations and businesses in managing a crisis at various stages.', "Ritchie's (2004) prescriptive framework incorporates the lifecycle of a crisis or disaster alongside a strategic management framework.", '1 ) covers three main stages: (1) pre-crisis planning, (2) crisis response and recovery, and (3) resolution and future learning.', "While there are many parallels to Faulkner's TDMF, Ritchie's framework provides flexibility and feedback loops, recognising that diverse approaches are needed to manage crises; as each crisis differs in terms of impact, strategy and recovery period (Armstrong, 2008) .", "Ritchie's (2004) model is used in this paper as a framework to understand the response to the EITC in The Gambia across the crisis lifecycle, as well as what strategies were used and how this compares with suggested approaches.However, limited research has been used to test this prospective model in a developing country context.", "Further, the longitudinal nature of this research provides an opportunity to understand long-term recovery, and identify changes in crisis planning and preparedness for future crises in The Gambia and beyondthus all three phases of Ritchie's (2004) CDMF.", 'The complete framework is specifically used to evaluate management responses within a health crisis and in a developing country context, addressing the gaps by examining the response of the Gambian government and the tourism sector to EITC.', 'Research context and methodology\n\nOne of the criticisms of tourism crisis management literature is that it does not provide enough detail on the background context of case studies (Ritchie, 2009 ).', 'It can help understand the underlying vulnerabilities of the sector or country, the impact of a crisis and explain why certain strategies were implemented.', 'It is the second largest foreign-exchange earner, employer and exporter, "accounting for more than US$80 million in earnings on average in the three years before the crisis" (IMF, 2015a; IMF, 2015b).The Gambia\'s tourism sector was launched fifty years ago as a package winter-sun destination and still caters to a mass market wanting to escape Europe\'s winter season (Bakker, 2011; Williams, 2015) .', 'This insinuated significant future growth to the public and private sectors resulting in increased investment in hotel facilities and bed spaces.The EITC resulted in a rapid decrease in tourist arrivals, −60% in 2014 (Hussain, 2014) which was a significant shock to the sector, evidenced by a tourism direct GDP contraction from 9% to 5.1% and an estimated drop of −40% in direct employment from 49,500 to 29,000 jobs (WTTC, 2014; WTTC 2015) .', 'This also highlighted broader national socio-economic challenges, which would hinder any pre-and post-Ebola crisis planning and management actions.The Ministry of Tourism and Culture (Ministry of Tourism &amp; The Gambia, 2015) is responsible for tourism policy and planning, overseeing the Gambia Tourism Board (GTB), the National Council for Arts and Culture and The Gambia Tourism and Hotel Institute, and works in collaboration with several private and public stakeholders (i.e.', "Thus, both within • WHO declares the outbreak a public health emergency of international concern • Nigeria bans entry of Gambia Bird • Sales/marketing activities by the destination increases with press trips and planned e-marketing campaigns with key tour operators • IMF reports that in addition to Ebola, delayed summer rains in 2014 led to a 15% decline of crops serious implications for food security • 100% effective Ebola-jab in preliminary trials in West Africa • Sierra Leone's last Ebola patient ends treatment in mid-August; now it has to wait for 42 days to be declared Ebola-free.", 'Most charter carriers halted their service to The Gambia and Brussels Airlines remained the only link from Europe throughout the crisis (Telegraph, 2014) .', 'Typically, the analysis of those on the ground allows for a more in-depth and defined understanding of the crisis and opportunities in relation to destination recovery and tourism development.', "As the aim of this study is to understand how people construct reality as they engage with their world (Ritchie, Burns, Palmer, &amp; NetLibrary (Eds), 2005; Robson, 2011); the social interpretation of recovery and repositioning of The Gambia following the crisis lends itself to a holistic inductive RSA approach, focusing on the entirety of destination recovery, as a series of complex inter-related pieces, rather than assessing individual parts (Armstrong, 2008) .Identified research partners were approached by email for a phone, Skype or Facetime interview with twenty questions grouped according to Ritchie's framework (Fig.", "The analysis of the findings emerging from the RSA are discussed using the three thematic areas in line with Ritchie's (2004) CDMF stages: Crisis/Disaster Prevention and Planning; Strategic Implementation; and Resolution, Evaluation and Feedback.This enables reflection on the literature in relation to what occurred in The Gambia and the usefulness of the model for other developing countries.", 'Crisis disaster prevention and planning\n\nThere was no environmental scanning or issues analysis and although some tour operators "raised the issue in spring 2014" (Gov5), both the public and private sector did not recognise the urgency as \'no apparent proactive planning or strategy formulation\' (TRP2) was in place.', 'The lack of contingency and emergency planning, risk analysis or crisis preparedness was evidenced by "the inexistence of a crisis team even at the start of the crisis" (IC1).', 'The increase in "the levy fee imposed in October 2014, despite the tourism crisis" (TRP1) was symptomatic of the local authorities underestimating the gravity of the EITC.While every crisis is different, Ritchie (2004) and Henderson (2007) , advocate that destinations should proactively plan and formulate strategies, in order to facilitate rapid and effective decisions making; a crucial factor during the emergency stage.', 'The lack of preparation and proactive planning evidenced in this study, ultimately resulted in The Gambia not recognising the crisis signals sufficiently early, and delaying the recovery process (Paraskevas &amp; Altinay, 2013) .A significant criterion for effective crisis management is being swiftly alerted to the possibility of such an occurrence, but while there was some awareness of a possible problem, the alert was raised by a few, but ignored by most (Gov5).', 'This highlights the importance of having a clear two-way communication plan in place, whereby all stakeholders can be made aware of a possible crisis and, subsequently swiftly act upon such information with responsibility and authority.', 'The over reliance on international tour operators compounded the issue of crisis identification, as they did not always share all information.', 'Strategic implementation\n\nThe strategic implementation phase consists of formulating and evaluating strategic options in order to mitigate and manage the crisis (Armstrong, 2008; Ritchie, 2004; Sharpley, 2005) .', 'Gambia\'s Ministry of Health (MOH) initiated timely action through "Surveillance at border areas to screen nationals from affected countries entering the Gambia" (PR1).', 'To further secure the country from possible spread of the outbreak, the "banning of airline travel from Guinea, Sierra Leone, and Liberia to The Gambia in May 2014" (PR1) was noted as a positive preventive measure.With the imminent possibility of Ebola having a significant impact on the country, a National Task force comprising members from the United Nations (UN), MOH, MOTC, Ministry of Defence (MOD), non-governmental organisations (NGOs), and other stakeholders was set up to address the crisis.', 'Local tourism stakeholders (specifically hotels) started engaging in cost-cutting strategies to reduce the impact of the crisis on their businesses (Gov1).', 'The crisis was having an impact on the wider supply chain, with new hotel constructions being delayed or cancelled.', "Addressing tourist perceptions of the destination's real and alleged risk is crucial in a crisis, which is partly achieved through communication and media management (Armstrong, 2008; Beirman, 1998; Fuchs &amp; Reichel, 2011; Glaesser, 2006; Henderson, 2007; Kozak et al., 2007; Sönmez &amp; Graefe, 1998) .", 'There were many issues that the crisis communication strategy needed to consider.', 'The crisis communication literature advocates a proactive approach to countering sensationalist media (Ritchie, 2004; Hystad and Keller, 2006; Glaesser, 2006; Henderson, 2007) and was endorsed by this comment: "The first thing in such a crisis is to communicate the right message in a convincing way" (IDO1).', 'Collaborations amongst the Economic Community of West African States (ECOWAS) members resulted in the launch of UNITEDWESTAFRICA (PR1); promoting the region with a unified voice to counteract the stereotypical sensationalist, and hysterical narrative about West Africa perpetrated by the global press, which has been widely acknowledged as an issue (Avraham &amp; Ketter, 2016) .Resource management and (re)allocation was focused on stopping a wave of cancellations by tourists, created by a lack of confidence in the destination by tour operators, who were concerned that they would be unable to fill their charter planes.', 'Although good collaboration emerged "once everyone agreed there was a crisis, this took a while" (Gov4).', 'Reflecting the idea that a centralised leadership by an established authority would be beneficial (Henderson, 2007) , there was an expectation that the GTB would take the lead in emergency planning (RPP10).', "However, the disconnect between private and public sectors' understanding of the severity of the crisis resulted in disjointed recovery actions producing mixed results (Beirman, 2003; Ritchie, 2004) .", 'The UK PR Agency team resumed its media visitation programme, intensified media liaison and increased visibility in more travel features (Gov1, Gov2, PR1); whilst "conducting several roadshows to share information about the destination" with the intention to re-instil confidence in the destination (Gov2).Evidence emerged of a steep learning curve, and the numerous challenges posed by the crisis provided positive opportunities to seek change.', '"We have learned our lesson during the Ebola crisis and realised that tourism is a very fragile business.', 'A crisis could emanate from other sources too… [and] working together rather than individually was more important than ever" (PR1).', 'To achieve this there is a "need to educate stakeholders on risk/reputation management" (LSA2), whilst also giving consideration to "the cultural context of the destination when looking at risk, decision-making and change" (IDO1).As a result of this crisis, for which the destination was not at all ready, an emergency fund was created, to better prepare for future crisis.', 'While funds may be limited to engage in extensive and comprehensive crisis prevention and planning, one of "the real value of the crisis is when a crisis happens a second time, stakeholder may be better prepared to deal with the situation" (Gov4).', 'Evidence of the latter was demonstrated during the transition of leadership between December 2016 and January 2017, where it appeared that The Gambia was able to communicate more effectively with the public, manage the political crisis, and negotiate the swift return of tour operators to full operations in just over a month.', 'Conclusions\n\nWhilst most literature on African tourism crisis analyses terrorism, political instability and violence (Aziz, 1995; Fletcher &amp; Morakabati, 2008; Pizam &amp; Smith, 2000) , this study contributes to the limited knowledge on health and epidemic related crises.', "The longitudinal study, using RSA, enables a holistic examination of the planning, response and resolution phases of Richie's (2004) framework.", 'It might be some time before The Gambia is able to make these vital changes to reduce its vulnerability to future crises.The Gambia did not have a tourism crisis management plan in place or method of alerting it to possible crises, such as the EITC.', "At the start of the crisis, The Gambia's Ministry of Health implemented a series of initiatives to prevent Ebola from entering the country.", "Ritchie's (2004) CDMF provided a valuable framework to evaluate each phase of the EITC and to understand what occurred over the three main phases of the crisis.", 'The benefits are the adaptability of the framework to reflect the specifics of each destination and crisis.', "This is especially important when considering the different issues faced by tourism stakeholders in developing countries, with related changes of emphasis to the framework suggested below.The study supports the proposition that tourism destinations' crisis and disaster preparation and planning are essential.", 'The GTB was the organisation responsible to take the lead in emergency planning, but did not have the resources or competency to do so.', "This was symptomatic of limited funds for risk assessment or crisis planning and, indeed, lack of awareness about the potential impacts of the epidemic led to ignoring the concerns voiced by some sector's stakeholders.Crises may be located in neighbouring countries, over which the host destination has limited influence and no direct control.", 'A regional and cross boarder approach to tourism crisis planning may be beneficial to help prevent spill over effects from future crises, and to improve the capabilities of governments and the tourism sector to respond in a coherent and co-ordinated manner to any crises.', 'In this case, the private sector took a key leadership role in altering and managing the crisis.', 'Whereas in developed countries, tourism crisis management is often led by the government, thus suggesting the CDMF could be altered for developing countries, to ensure relevancy, engagement and commitment, crisis plans should also be prepared involving multiple stakeholders within a country.', 'A well-structured plan and task force committee can assist in earlier detection, which generally results in better response and faster recovery.', 'Once completed, the crisis plan should be reviewed regularly, with training provided to key stakeholders.In order to enable the sector to respond quickly and effectively in any future crisis, processes and financial resources need to be in place.', "Given the high taxation, business operational costs, limited resources available and dependency on donors' funding, any further contribution by the private sector would need to be carefully considered, as this may possibly reduce their competitiveness.It is recommended that destinations should communicate promptly and openly about any crisis, and should ensure that accurate and regular information is disseminated.", 'Although the GTB opted not to be openly vocal about Ebola, respondents felt that acknowledging concerns would have improved confidence to potential visitors during the crisis.', 'Firstly, this study suggests that a crisis affects investment and may cause further economic problems for tourism, especially in developing countries where capital may be scarce.', 'Past research on tourism crisis management has not explored the impact of crises on investment choices and future research should examine this.', "Secondly, the communication message of 'open for business' may not be appropriate if the crisis is continuing in neighbouring countries (Walters &amp; Mair, 2013) and the credibility of such a message would need to be assessed alongside the development of possible ad hoc strategies.", "Hence, further research is required on lessons learnt and more broadly issue of fragile destinations' resilience at times of crisis."]</t>
-  </si>
-  <si>
-    <t>['Introduction\n\nRestaurants in Hong Kong have already been put under great pressure to survive in the harsh market environment resulting from the Asian financial crisis of 1997, but the Severe Acute Respiratory Syndrome (SARS) outbreak in March 2003 was a death sentence to the industry.', "This reveals vulnerability in the catering industry's ability to respond to crisis, especially epidemics like SARS that spread panic and disrupt the everyday activities of the people.", 'By studying the crisis response of these restaurants, we can formulate a crisis response and recovery plan to serve as a future reference for other restaurants facing similar disasters.Following Stafford et al.', '(2002) , we propose in this paper a four-step crisis management procedure to deal with crises like SARS.', '1 shows the four steps in the process.Step one is categorization of crises in which restaurant managers should classify the crisis they are dealing with into one of the seven categories outlined in Table 1 below.', 'Identification of the crisis type is important because it helps managers find the appropriate measures to keep the crisis under control.', 'Next, the extent and type of damage is assessed, and then tactics are formulated and implemented to combat the crisis.', 'The last step of the crisis management process is to evaluate the effectiveness of the recovery strategies using a feedback loop that enables managers to refine the tactics until the crisis is brought under control.', 'Categorization of crises\n\nCrisis is defined as a low-probability, high-impact event that threatens the viability of the organization, and is characterized by ambiguity of cause, effect, and means of resolution, as well as by a belief that decisions must be made swiftly (Pearson and Clair, 1998) .', 'Fearn-Banks (1996) views a crisis as a major occurrence with a potentially negative outcome affecting an organization, company, or industry, as well as its publics, products, services, or good name.', 'Pauchant and Mitroff (1992) regard a crisis as a disruption that physically affects a system as a whole and threatens its basic assumptions, its subjective sense of self, and its existential core.', 'Barton (1993) suggests a crisis is a major, unpredictable event that has potentially negative results.', "In the business context, an event that damages a firm's reputation or drastically harms the long-term goals of profitability, growth or survival is called a crisis (Lerbinger, 1997) .The various crises that a business organization may encounter warrant different solutions and crisis-management methods.", "Using Lerbinger's (1997) typology of crisis, and following Stafford et al.", "'s (2002) approach of categorizing the September 11 terrorist attacks, we classify the potential crisis faced by restaurants into seven categories based on whether the crisis is caused by external factors or originate within the restaurant itself.", 'The seven types of crisis are shown in Table 1 .The seven categories can be grouped together with respect to the environment in which each crisis arises.', 'The most prominent example is that of the Chernobyl nuclear power plant explosion in 1986, resulting in many European countries destroying crops in fear of contamination.The SARS outbreak in Hong Kong fits naturally into the physical environment category of crises.', 'The usefulness of a crisis typology on crisis management\n\nThe crisis typology we outlined in the previous section is useful to restaurant managers in two ways.', 'First, the appropriate management and recovery strategies are dependent on the type of crisis in question (Lerbinger, 1997) .', 'For example, in the case of a crisis that belongs to the technological failure type, the possible remedial actions may include a public relations campaign to convince the public that the failed system has been adequately fixed, or a better new system is in place.', 'Second, the typology can alert managers to subsequent crises that may follow the original one when the wrong approach has been used to deal with the original crisis.', "In the SARS outbreak, for example, restaurant managers' attempt to lay off staff without proper compensation to improve their cash flow position may lead to confrontation with the labour, which may subsequently cause a crisis of the social environment type.", 'Damage assessment\n\nBefore a recovery plan is devised to rebuild the business, restaurants should assess the type and extent of damage caused by the crisis.', 'Meanwhile, revenue enhancement plans need to be devised to generate more cash inflow to the restaurant.', 'Tactics formulation\n\nTo draw out the appropriate recovery strategies to save their business, restaurant managers must consider each process in the business operation, and find out how each step in the service management cycle could be modified and improved to bring the crisis under control.', 'The strategies that restaurant managers have devised to deal with the circumstance are:\n\nCost reduction\n\nDuring the SARS crisis, restaurant managers sought various ways to minimize their running expenses so that it had a better chance of surviving the outbreak.', 'Another possible means of cutting costs is to reduce factor input costs, achievable through negotiation with suppliers to lower the cost of foodstuffs, with landlords to reduce rent, and with staff for pay cut or no-pay leave.A time of crisis also warrants the step of lobbying for government financial support.', "To deal with this problem, each dish was accompanied with a ''common'' pair of chopsticks that everyone used to transfer food to his/her own bowl instead of using the pair for eating.Karaoke restaurants advertized that all microphones we re cleaned by ultraviolet rays and disinfectant spray to prevent the spread of the virus.", 'Assessment of crisis management tactics\n\nThe tactics devised for fighting the crisis must be closely monitored and refined depending on their effectiveness.', 'That is, contingency measures must remain flexible and adapt to changing conditions of the crisis.', 'Discussion\n\nWhilst the SARS crisis is a natural disaster, the methods employed by local restaurant managers to deal with the challenge serves as a good reference for other restaurants who may be inflicted with similar crises in future.', 'In this outbreak, local restaurants have been adept in responding to the crisis.', 'Through a combination of the cost reduction and revenue enhancement strategies outlined above, alongside a variety of additional measures, several restaurants have even succeeded in turning a profit under the adverse influence of the outbreak.One important issue uncovered from the SARS outbreak is that nearly all Hong Kong restaurants do not have a crisis plan.', 'The literature on crisis management has stressed the importance of a plan for crisis management (see, for example, Fearn-Banks, 1996; Coombs, 1999; Barton, 2001) .', 'To survive a crisis, a restaurant must have formal guidelines and procedures for communicating to employees, as well as the general public about various reactive measures a restaurant plans to undertake in the event of a crisis.', "A restaurant's contingency plan should not cover epidemics like SARS only, but should also look into recovery measures for all the other six types of crises we described in Table 1 .", 'In formulating a crisis management plan, a restaurant must look at its needs and goals, establish a risk management policy and communicate it to all staff.', 'The crisis management plan should establish clear accountabilities and responsibilities for identifying, managing and monitoring risks.', 'In the planning process, restaurant managers must trade-off the risk involved and the costs of the measures to be undertaken, and should encourage openness and participation from all staff.', 'Finally, the plan should also incorporate a review process to enable a restaurant to learn from each crisis for more effective crisis management in future.Finally, restaurants that prepare for a crisis should use a team approach.']</t>
-  </si>
-  <si>
-    <t>['Three other cases were reported thereafter.The Ebola crisis has attracted research attention from public health experts and communication scholars who bemoan the challenges of conveying comprehensive information that enables the public to take informed protective actions [19, 24, 39] in the face of uncertainty.', 'However, less attention has been received from public administration and crisis management scholars.', 'Despite this attention there appears to be no research published to date on how emergency managers in the USA responded to this perceived transboundary health crisis and the adaptive learning and improvised decision making that resulted following the "communication crisis chaos" [20] .According to Boin [6] a transboundary crisis is one in which "the functioning of multiple, life-sustaining systems, functions, or infrastructures is acutely threatened and the causes of failure or courses of redress remain unclear."', 'He further enumerated three characteristics of a transboundary crisis.', 'the Ebola crisis affected not only health systems but safety and security systems, and the travel and tourism industry globally.', '"A transboundary crisis has no, or at least not one, Ground Zero" ( [6] , p.368), and its characteristics have far reaching consequences for crisis response management.', 'Primarily, because of the spread across geographical boundaries and functions, there is no clear direction about who owns the crisis and who is in charge of responding to it.', 'It can also cause reputational damage as the public starts questioning the legitimacy of response agencies if they fail to act expeditiously.From an adaptive governance perspective, activities of emergency response are regarded as by-products of collective action where, given the limited cognitive ability of individuals and organizations to interpret the event immediately for appropriate actions, actors are assumed to be intentionally rational but bounded by institutional constraints [1] .', 'The response system (formal or informal) shapes individuals and organizations strategic actions to the extent that they adapt to the unintended consequences of actions that are performed by other agencies.', 'Examining adaptive learning of first responders is important in explaining the value of emergency planning and standard operating procedures (SOPs) as well as improvised decision making and changes in governing procedures for crisis response.Thus the broad objectives of this research are to understand the immediate response (i.e.', 'within the first month) to the perceived Ebola crisis by emergency response personnel from city government agencies/ county government agencies, public/ private hospitals, and universities in the DFW metropolitan region of the USA following the notification of the first Ebola case in Dallas and subsequent death of the patient, and to understand communication management and use of Standard Operating Procedures (SOPs) for infectious disease management.', 'The questions specifically examined and discussed in this paper, relate to:• Major sources of crisis information and preferred channels of communication • Use of planned SOPs and subsequent changes proposed as an improvement • Factors that enabled flexibility or improvised decision making This line of questioning helps to not only describe elements of organizational failures, which by their very nature are visible, measurable and newsworthy but also to explicate the success of Ebola crisis management decisions in the DFW region, which receive less attention from the press and the public at large.', 'It is important to investigate both failures and successes to help inform organizational learning for better preparedness to future health crises.The following sections begin with a brief review of extant literature related to planning and improvisation, crisis communication for communicable diseases and the crisis management process model (Section 2).', 'The article concludes with implications for practice, including the benefits of improvised decision-making with suggestions to log, store and use such institutional and shared learning for future crisis planning.', 'Preplanning and Improvisation\n\nOftentimes, the standard approach to emergency planning is to assess the characteristics of the hazard agent and write emergency response plans with well-defined SOPs, as evidence of jurisdictional preparedness [33] .', 'However, in the case of a transboundary crisis where the very nature of the hazard agent is unknown and response needs change dynamically, SOPs and a hierarchical response structure may prove to be inadequate.', "Causes of poor response are often because of a disconnect between bureaucratic standards, i.e., what government agencies have planned for prior to the disaster and the new norms and expectations of those affected, that emerge following a disaster [35, 40] .Waugh and Streib [47] reviewed the emergency management system in the USA since its inception in the 70's to the creation of the Department of Homeland Security following the 9/11 attacks.", 'They underscored the limitations of imposing a command and control system for crisis response on emergency management organizations, which by their very nature, are collaborative in nature.', 'On the one hand, emergency response requires meticulous organization and planning, but on the other hand, it is spontaneous, emergency managers have to innovate, adapt, and improvise because plans, regardless of how well done, seldom fit circumstances" (p.132).This sentiment towards encouraging flexibility and improvisation resonates with other eminent disaster scholars as well [43, 49] .', 'They suggested encouraging improvisation and learning from it by using a computer based system to log all improvised decision-making in dealing with contingencies and using this to understand cognitive processes and mental models of team members to support training for better preparedness [27, 28, 29] .', 'Crisis communication challenges\n\nEffective crisis response also depends on the availability of real-time accurate information exchange for dynamic decision making.', 'Smith [42] observed that public agencies typically adopt one of two crisis communication approaches for infectious diseases.', 'Firstly, they issue warnings about what protective actions to take to reduce possible contact with the disease through regular screening, washing hands, wearing a mask, maintaining hygiene and disinfection.', 'Instituting these control measures and proper dissemination of such information is important to gain public trust and minimize fear, helplessness, and anxiety among the general public ( [7] , p.1488).However, most high profile communicable diseases affecting individuals at the global scale are low probability events with high impact to human life and economies [34] , [43] , making crisis communication challenging and confounding to emergency management agencies.', 'This puts demands on crisis management authorities in high stress situations to demonstrate their trustworthiness in taking appropriate safety and preventive measures to control the spread of the disease [7] .', 'Sharing this knowledge with the public through effective communication strategies will make them safer (Sandman 2003 ) and less likely influenced by biased media frames.During crisis response the demands placed on responders to gather, process, and disseminate information promptly can overwhelm the existing flow of information [14] .', 'Ebola crisis timeline --DFW metropolitan region\n\nAccording to the WHO (n.d.) factsheets the Ebola virus disease (EVD), formerly known as Ebola hemorrhagic fever first appeared in 1976 in two simultaneous outbreaks, one in South Sudan, and the other in the Democratic Republic of Congo.', 'When both nurses, Nina Pham and Amber Joy Vinson tested positive for Ebola on October 11th and October 14th respectively, the State Medical Operations Center (SMOC) was reactivated and both nurses transferred to other facilities for treatment on October15-16th.By this point claims by the CDC that the Presbyterian Hospital staff were to blame for the spread because the "nurses wore too much protective clothing while treating Ebola \'patient zero\' Thomas Eric Duncan" and CDC chief, Dr. Thomas Frieden, explaining that "removing multiple layers of gloves and overalls is so difficult that it increases the risk of contamination", garnered widespread criticism from the national and international media [9] .', 'With the infected nurses having travelled outside the state of Texas, it became clear that such mixed messages could likely have caused the spread of the virus to other States.The CDC later admitted that they were wrong in their earlier statement of having enough capacity to contain the crisis ([10] October 16).', 'By this time Dallas County Judge Jenkins who had taken over the management of the crisis made the decision to have the two nurses treated out of state when he realized that Dallas and especially the doctors and nurses at Presbyterian "were just spent" ( [8] , January 8).', 'Research design\n\nAs a first step to understanding the Ebola crisis unfolding in close [38] although the risk of contracting the virus in the US was small, the Ebola scare received extensive and continuous media coverage.', 'The objective was to inform us of the major players charged with crisis response, the challenges faced by city officials and first responders in crisis communication and management and gauging public perceptions.', 'A combination of search terms used included "Ebola," "Dallas-Fort Worth," and "Crisis Response."', '43 officials who had played a key role during the Ebola crisis response in the metropolis were initially contacted by phone.', 'Survey Instrument\n\nTo identify the major sources of crisis information and preferred channels of communication, respondents were asked:• RQ1a: To what extent did you depend on the agency/ media sources [listed] in the first month, for information and updates?', '(Rate them by extent of use ranging from 1 =not at all to 5 =very great extent)• RQ1b: During the first month of the Ebola crisis, which of the channels [listed] did your organization use, to update and inform the public about the unfolding crisis and protective actions to take?To examine the value of emergency response planning documents, articulated as SOPs, the respondents were asked:• RQ2: Did you have a Standard Operating Procedure for infectious diseases and did you use it?', "If 'YES' how did using the SOP help crisis response?", 'Finally, to investigate the ad hoc measures devised by organizations to meet emergent response needs and characterizing flexibility and improvisational decision-making, the respondents were asked:• RQ3a: Did you create a new SOP or an addendum to your older plan specifically in response to this crisis?• RQ3b: Given these experiences, how have you changed your organizational practices?Printed materials including pamphlets, after action reports, professional presentations, and other publications used or created for public distribution during the crisis were also collected from the respondents after their interview.', 'The aim was to gather a richer explanation related to the firsthand experiences of first responders during the Ebola Crisis, while providing a balanced picture on controversial issues related to information dissemination, communication and response procedures adopted, and perceptions of intergovernmental coordination.', 'Information sources and communication management\n\nThe respondents (face-to-face and e-surveys combined) noted all their sources of information in the first month of the crisis and ranked the top three in order of preference as the CDC (i.e., Mean=4.36), the Texas Department of State Health Services (Mean = 4.29), and the North Central Texas Trauma Regional Advisory Council (i.e., Mean=3.50).While much of the information appeared to flow down from government agencies at a higher level, the respondents also reported that, during the first month of the Ebola crisis, they utilized additional channels to update and inform the public about Ebola including, City Websites (Mean = 3.76), Face-to-Face communication (Mean=3.17), and Schools (Mean=3.60).Data gathered from the online survey suggested that most respondents working in municipalities and county governments utilized information provided by the higher level government agencies.', 'Documents, news articles and after-action reports reviewed also suggest the important role played by CDC during the crisis.', 'A respondent who was a high ranking official stated that, "CDC and DSHS have done reasonably well at distributing guidance documents throughout the Ebola crisis.', 'Major challenges reported by local agencies during the crisis were related to conflicting information linked to regulations and procedures from the CDC [5, 15] , non-credible information from state and federal agencies, and misleading scientific evidence.', 'During the first days of the Ebola crisis, the CDC did not provide adequate guidance, which caused emergency managers to lose trust in CDC procedures and guidelines [15] .', 'Standard Operating Procedures (SOPs)\n\nOf the 36 respondents (face-to-face and online surveys combined) about two thirds (75%) reported their jurisdiction had a SOP for emergency response to health threats, but it fell short of meeting the ineffable needs of the Ebola crisis.', '• Use of SOPs\n\nRespondents who acknowledged the use of SOPs were further prompted to explain how these helped with crisis response.', '1 The psychological benefits of SOPs on the ability of their organizations to respond to the crisis may also be regarded as a noteworthy accomplishment of crisis planning practices.', 'Statements favoring SOPs included, "the [SOPS] were a basis for us to develop our response plan from" and "we followed standard practices for infection control.', '"The element of trust and perception of professionalism were also underscored in comments like, "we were able to gain trust because we could show that we had thought about this and had a plan.', '• Did not use SOPsAmong the 16.7% respondents who said their organization did not use SOPs related to infectious diseases, there was a general agreement that the response plan or SOPs were not tailored to an infectious disease such as Ebola and they preferred to rely on the federal or state government for up to date directives.', 'Unable to receive information from the City of Dallas, local agencies contacted colleagues and friends at other county and state organizations such as the North Texas Central Council of Governments to receive information updates.The selected transcripts discussed in the preceding sections, highlight the value of generic infectious disease management SOPs in serving as a starting point for response actions in the first days of the crisis.', 'However, they also underscore the inadequacies of SOPs as the complexities of the unfolding crisis increased, forcing ad hoc, improvisational measures to be devised by local government agencies.', 'Response to the Ebola crisis also reflects political and administrative tensions among public agencies at local, regional, and state levels.', "These tensions can be explained by bureaucratic norms Table 2 Selected Statements Related to the Merits of Using SOPs.If 'Yes' then how did having these SOPs help crisis response?If 'No' then why did you not use the SOPs?", 'E-Survey Responses:\n\nThey were a bases for us to develop our response plan from.', 'We were able to gain trust because we could show that we had thought about this and had a plan.', 'If they have a fever, put your PPE and go in Chief Epidemiologist, went into the room with the patient and did things there They have a pandemic influenza response plan and Health and Medical Annex for EOP.Just plans no SOPs.', 'According to [26] , much of the failure in emergency response is related to "the failure of risk communication initiatives" in particular the reaction of the public to the content of messages as well as the sources of these messages.', 'If local agencies are to preserve their reputation and legitimacy among their constituents, they have to acknowledge that although command and control structures are important, there is value in "flexibility and nimble processes to ensure adjusting to changing situations" as demonstrated by the early days of the Ebola crisis response.', 'Such "adaptive management -the process that encourages sharing of information and collaboration would foster organizational learning and facilitate adaptation and improvisation ( [50] , p.136).', 'However, this is not unusual for research studies collecting ephemeral data immediately following the occurrence of a crisis.', 'Despite these limitations, we believe that this research makes a significant contribution to health crisis response planning and management in the USA.', 'This research highlighted that the Ebola crisis management response in the DFW metropolitan region resulted in both failed and successful outcomes including a breakdown in communication between small city governments/ municipalities and higher levels of government at the State and Federal levels and timely improvised decision-making instrumental in preventing the spread of the disease to other parts of the country.', 'The findings of this research present at least three implications for practice:\n\nPlanning in continuum\n\nThere is value in SOPs being established and tested to maintain a state of readiness, build multisector collaboration and trust, and increase procedural memory of response personnel.', 'In transboundary crises which are infrequent events that cut across multiple sovereign states and political boundaries, flexibility in decision making will be called for and improvised response the new norm.However, finding a balance between flexibility and planning is a dilemma for response organizations [46] .', 'Simultaneously, working on conducting threat assessments and writing emergency plans for known threats should continue.For this an understanding of what makes SOPs work or fail is vital.', "Scholars have underlined the concept of 'fantasy documents' [5, 12] in disaster preparedness planning as written plans that are just words and do not take into account emergent situations and fail during execution.", 'Regular training to test the plans [12] , although resource intensive is essential.', 'Hence, further study is required to understand how more effective plans can be created by organizations to respond to health crises.', 'Crisis learning, a window of opportunity\n\nThe field of crisis management is in its infancy and as such each crisis will serve as a window of opportunity for effecting new institutional practices or industrial regulations to improve the crisis management process.', 'Specifically in the State of Texas, many Ebola crisis response agencies have created or amended existing SOPs in preparation for future infectious disease threats.', "New addenda include protocols for donning and doffing PPEs, sharing of information with first responder agencies, fitting ambulance for transportation of infected patients and plans for regular drills and exercises to test their plans.The State of Texas's statutory framework on information sharing related to communicable diseases has also been changed.", 'In the months following the crisis, the Governor of Texas instituted the HB2646 Bill amending the Texas Health and Safety Code (Dallas County Health and Human Services 2015).', 'Learning from successes and failures\n\nCrises call into question the confidence of response organizations as members experience fear and reprimand from the media and public.', 'There is a need to ensure that as a crisis unfolds, not only failures but successes are noted and praised.', 'Furthermore, as noted by Rolison and Hanoch [38] in their study of US residents perceptions of the Ebola virus, those with greater knowledge of the virus perceived less risk of contracting the virus and were more serious about taking protective actions compared to those with lesser knowledge.', 'traditional media, the internet, general practitioners, friends and family members or others) to enhance residents knowledge as the crisis unfolds will be crucial [16, 37] .', 'Future research directions\n\nThe Ebola crisis response suggests a need for further research in the areas of leadership as there was a variation in the perceived success of response by agencies at different levels of government.', 'It would also be worthwhile to understand what styles of leadership are effective in transboundary crisis response with ever changing needs, calling for improvised decision making.', 'This will likely help inform responding agencies on how to manage their organizational reputation and performance in future crisis.']</t>
-  </si>
-  <si>
-    <t>['Furthermore, the current review of the International Health Regulations and the Global Action Plan to combat antimicrobial resistance (AMR) [5] [6] [7] [8] [9] called for strengthening IPC across nations.', 'The recommendations were elaborated according to the best available scientific evidence and expert consensus with the ultimate aim to ensure a high quality of health service delivery for every person accessing health care, as well as to protect the health workforce delivering those services.The intended audience on a national level is primarily policy-makers responsible for establishing and monitoring national IPC programmes and delivering AMR National Action Plans.', 'In addition, an inventory of national and regional IPC action plans and strategic documents was undertaken as part of the background to these guidelines.', 'In addition, our inventory of IPC national strategies or action plans showed that while the vast majority of documents (85%) across all regions addressed IPC programme structure and goals, only 60% specified the importance of having qualified and dedicated staff to support the programme, and only 44% highlighted the need for an adequate budget and WASH infrastructure.', "This decision was based on the large effect of HAI reduction reported in the two studies and on the panel's conviction that the existence of an IPC programme is the necessary premise for any IPC action.The panel recommends that IPC education should be in place for all health care workers by utilizing team-and task-based strategies that are participatory and include bedside and simulation training to reduce the risk of HAI and AMR.", 'Despite this, experts and country representatives brought very clear examples where an active and sustained national IPC programme with effectively implemented plans has led to improvement of national HAI rates and/or the reduction of infections due to multidrug-resistant organisms.', "In addition, the International Health Regulations (2005) [8] and the WHO Global Action Plan on AMR (2015) [9] support national level action on IPC as a central part of health systems' capacity building and preparedness.", 'This includes the development of national plans for preventing HAI, the development or strengthening of national policies and standards of practice regarding IPC activities in health care facilities, and the associated monitoring of the implementation of and adherence to these national policies and standards.', "Minimum objectives should include:▪ goals to be achieved for endemic and epidemic infections ▪ development of recommendations for IPC processes and practices that are known to be effective in preventing HAI and the spread of AMR• The IHR (2005) and the WHO Global Action Plan on AMR (2015) support national level action on IPC as a central part of health systems' capacity building and preparedness.", 'This includes the development of national plans for preventing HAI, the development or strengthening of national policies and standards of practice regarding IPC activities in health facilities, and the associated monitoring of the implementation of and adherence to these national policies and standards.• The organization of the programme should include (but not be limited to) at least the following components:▪ appointed technical team of trained infection preventionists, including medical and nursing professionals ▪ the technical teams should have formal IPC training and allocated time according to tasks ▪ the team should have the authority to make decisions and to influence field implementation ▪ the team should have a protected and dedicated budget according to planned IPC activity and support by national authorities and leaders• The linkages between the national IPC programme and other related programmes are key and should be established and maintained.• An official multidisciplinary group, committee or an equivalent structure should be established to interact with the IPC technical team.Good practice statement Table 1 Summary of IPC core components and key remarks (Continued)\n\nIPC guidelines\n\nThe panel recommends that evidence-based guidelines should be developed and implemented for the purpose of reducing HAI and AMR.', '▪ existence and functioning of WASH infrastructures, such as a water supply, toilets and health care waste disposal.▪ early detection of clusters and outbreaks (that is, early warning system).▪ Evaluation of the impact of interventions.• Quality microbiology and laboratory capacity is essential to enable reliable HAI surveillance.• The responsibility for planning and conducting surveillance and analysing, interpreting and disseminating the collected data remains usually with the IPC committee and the IPC team.• Methods for detecting infections should be active.', 'The studies also emphasized that the timely feedback of results is influential in the implementation of effective IPC actions.', 'Our inventory of IPC national strategies or action plans revealed that the vast majority of documents (81%) across all regions highlighted the importance of building basic IPC knowledge among all health care workers.', 'In our inventory of IPC national strategy or action plan documents, most (79%) contained guidance relating to the establishment of priorities for surveillance, despite some regional variations.']</t>
-  </si>
-  <si>
-    <t>['crisis', 'plan', 'creation', 'plan', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'plan', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'crisis', 'plan', 'plan', 'crisis', 'plan', 'crisis', 'crisis', 'action', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'action', 'crisis', 'plan', 'action', 'plan', 'action', 'crisis', 'plan', 'plan', 'crisis', 'plan', 'plan', 'crisis', 'plan', 'plan', 'crisis', 'plan', 'plan', 'plan', 'crisis', 'plan', 'plan', 'plan', 'crisis', 'plan', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'crisis', 'creation', 'crisis', 'crisis', 'action', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'action', 'crisis', 'plan', 'crisis', 'transfer', 'transfer', 'action']</t>
-  </si>
-  <si>
-    <t>['crisis', 'action', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'learning', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'action', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'learning', 'crisis', 'learning', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'action', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'creation', 'crisis', 'crisis', 'crisis', 'action', 'crisis', 'crisis', 'crisis', 'action', 'crisis', 'creation', 'action', 'action', 'transfer', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'creation', 'crisis', 'action', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'action', 'crisis', 'crisis', 'crisis', 'transfer', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'transfer', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'action', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'crisis', 'action', 'crisis', 'crisis', 'action', 'crisis', 'crisis', 'crisis', 'action', 'crisis', 'plan', 'action', 'crisis', 'learning', 'crisis', 'learning', 'crisis', 'plan', 'action', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'learning', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'action', 'learning', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'plan']</t>
-  </si>
-  <si>
-    <t>['action', 'crisis', 'plan', 'action', 'transfer', 'transfer', 'transfer', 'crisis', 'crisis', 'plan', 'plan', 'learning', 'learning', 'crisis', 'action', 'learning', 'crisis', 'crisis', 'plan', 'learning', 'learning', 'crisis', 'action', 'learning', 'crisis', 'crisis', 'plan', 'crisis', 'learning', 'crisis', 'learning', 'learning', 'learning', 'crisis', 'action', 'learning', 'crisis', 'plan', 'crisis', 'plan', 'transfer', 'plan', 'transfer', 'learning', 'plan', 'transfer', 'plan', 'plan', 'plan', 'crisis', 'plan', 'crisis', 'action', 'crisis', 'plan', 'action', 'plan', 'plan', 'crisis', 'plan', 'plan', 'learning', 'crisis', 'plan']</t>
-  </si>
-  <si>
-    <t>['crisis', 'plan', 'plan', 'creation', 'plan', 'plan', 'plan', 'action', 'plan', 'action', 'plan', 'crisis', 'plan', 'transfer', 'plan', 'crisis', 'plan', 'action', 'plan', 'transfer', 'transfer', 'creation', 'plan', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'plan', 'plan', 'action', 'crisis', 'crisis', 'crisis', 'action', 'plan', 'plan', 'plan', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'action', 'plan', 'crisis', 'crisis', 'crisis', 'action', 'creation', 'crisis', 'plan', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'plan', 'plan', 'crisis', 'plan', 'plan', 'crisis', 'plan', 'plan', 'crisis', 'crisis', 'creation', 'crisis', 'action', 'learning', 'crisis', 'plan', 'plan', 'crisis', 'action', 'crisis', 'plan', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'action', 'crisis', 'plan', 'plan', 'learning', 'plan', 'plan', 'plan', 'plan', 'plan', 'plan', 'action', 'crisis', 'plan']</t>
-  </si>
-  <si>
-    <t>['crisis', 'learning', 'crisis', 'action', 'plan', 'crisis', 'crisis', 'plan', 'crisis', 'action', 'crisis', 'learning', 'learning', 'crisis', 'crisis', 'learning', 'learning', 'crisis', 'learning', 'crisis', 'action', 'crisis', 'plan', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'plan', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'action', 'learning', 'crisis', 'learning', 'plan', 'plan', 'crisis', 'plan', 'action', 'learning', 'plan', 'action', 'learning', 'learning', 'learning', 'crisis', 'plan', 'learning', 'crisis', 'plan', 'learning', 'crisis']</t>
-  </si>
-  <si>
-    <t>['crisis', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'action', 'action', 'action', 'action', 'action', 'crisis', 'crisis', 'action', 'crisis', 'crisis', 'action', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'action', 'crisis', 'learning', 'crisis', 'action', 'crisis', 'plan', 'plan', 'plan', 'crisis', 'crisis', 'plan', 'action', 'plan', 'action', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'plan', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'crisis', 'plan', 'plan']</t>
-  </si>
-  <si>
-    <t>['crisis', 'crisis', 'crisis', 'crisis', 'action', 'action', 'plan', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'learning', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'crisis', 'action', 'action', 'crisis', 'plan', 'plan', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'crisis', 'action', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'action', 'crisis', 'learning', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'crisis', 'plan', 'plan', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis']</t>
-  </si>
-  <si>
-    <t>['crisis', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'crisis', 'action', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'plan', 'crisis', 'crisis', 'crisis', 'transfer', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'plan', 'crisis', 'plan', 'crisis', 'plan', 'plan', 'crisis', 'plan']</t>
-  </si>
-  <si>
-    <t>['action', 'crisis', 'crisis', 'learning', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'action', 'action', 'learning', 'crisis', 'plan', 'crisis', 'crisis', 'plan', 'learning', 'crisis', 'plan', 'learning', 'crisis', 'plan', 'plan', 'crisis', 'creation', 'plan', 'crisis', 'plan', 'learning', 'crisis', 'crisis', 'action', 'crisis', 'crisis', 'crisis', 'crisis', 'transfer', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'action', 'crisis', 'plan', 'crisis', 'action', 'crisis', 'plan', 'crisis', 'plan', 'crisis', 'action', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'plan', 'plan', 'plan', 'action', 'crisis', 'crisis', 'crisis', 'crisis', 'plan', 'plan', 'plan', 'action', 'crisis', 'learning', 'crisis', 'crisis', 'plan', 'crisis', 'plan', 'plan', 'plan', 'plan', 'plan', 'plan', 'learning', 'crisis', 'crisis', 'plan', 'crisis', 'learning', 'crisis', 'action', 'crisis', 'crisis', 'crisis', 'crisis']</t>
-  </si>
-  <si>
-    <t>['action', 'plan', 'action', 'plan', 'action', 'plan', 'action', 'plan', 'action', 'plan', 'action', 'plan', 'plan', 'action', 'plan', 'plan', 'plan', 'action', 'action', 'plan', 'action', 'plan']</t>
+    <t>['How will country-based mitigation measures influence the course of the COVID-19 epidemic?', 'In our view, COVID-19 has developed into a pandemic, with small chains of transmission in many countries and large chains resulting in extensive spread in a few countries, such as Italy, Iran, South Korea, and Japan.', '1 Most countries are likely to have spread of COVID-19, at least in the early stages, before any mitigation measures have an impact.What has happened in China shows that quarantine, social distancing, and isolation of infected populations can contain the epidemic.', '1 This impact of the COVID-19 response in China is encouraging for the many countries where COVID-19 is beginning to spread.', 'In both places, COVID-19 has been managed well to date, despite early cases, by early government action and through social distancing measures taken by individuals.The course of an epidemic is defined by a series of key factors, some of which are poorly understood at present for COVID-19.', 'A simple calculation gives the fraction likely to be infected without mitigation.', 'This fraction is roughly 1-1/R 0 .', 'With R 0 values for COVID-19 in China around 2·5 in the early stages of the epidemic, 2 we calculate that approximately 60% of the population would become infected.', '3 By contrast, for COVID-19, the serial interval is estimated at 4·4-7·5 days, which is more similar to SARS.', '4 First among the important unknowns about COVID-19 is the case fatality rate (CFR), which requires information on the denominator that defines the number infected.', 'We are unaware of any completed large-scale serology surveys to detect specific antibodies to COVID-19.', 'Best estimates suggest a CFR for COVID-19 of about 0·3-1%, 4 which is higher than the order of 0·1% CFR for a moderate influenza A season.', 'The incubation period for COVID-19 is about 5-6 days.', '7 There have been few clinical studies to measure COVID-19 viraemia and how it changes over time in individuals.', 'In one study of 17 patients with COVID-19, peak viraemia seems to be at the end of the incubation period, 8 pointing to the possibility that viraemia might be high enough to trigger transmission for 1-2 days before onset of symptoms.', 'If these patterns are verified by more extensive clinical virological studies, COVID-19 would be expected to be more like influenza A than SARS.', 'For SARS, peak infectiousness took place many days after first symptoms, hence the success of quarantine of patients with SARS soon after symptoms started 7 and the lack of success for this measure for influenza A and possibly for COVID-19.The third uncertainty is whether there are a large number of asymptomatic cases of COVID-19.', 'Estimates suggest that about 80% of people with COVID-19 have mild or asymptomatic disease, 14% have severe disease, and 6% are critically ill, 9 implying that symptom-based control is unlikely to be sufficient unless these cases are only lightly infectious.The fourth uncertainty is the duration of the infectious period for COVID-19.', 'The infectious period is typically short for influenza A, but it seems long for COVID-19 on the basis of the few available clinical virological studies, perhaps lasting for 10 days or more after the incubation period.', '10 What do these comparisons with influenza A and SARS imply for the COVID-19 epidemic and its control?', 'COVID-19 had a doubling time in China of about 4-5 days in the early phases.', '3 Second, the COVID-19 epidemic could be more drawn out than seasonal influenza A, which has relevance for its potential economic impact.', 'Third, the effect of seasons on transmission of COVID-19 is unknown; 11 however, with an R 0 of 2-3, the warm months of summer in the northern hemisphere might not necessarily reduce transmission below the value of unity as they do for influenza A, which typically has an R 0 of around 1·1-1·5.', '12 Closely linked to these factors and their epidemiological determinants is the impact of different mitigation policies on the course of the COVID-19 epidemic.A key issue for epidemiologists is helping policy makers decide the main objectives of mitigation-eg, minimising morbidity and associated mortality, avoiding an epidemic peak that overwhelms health-care services, keeping the effects on the economy within manageable levels, and flattening the epidemic curve to wait for vaccine development and manufacture on scale and antiviral drug therapies.', '13 For COVID-19, the potential economic impact of self-isolation or mandated quarantine could be substantial, as occurred in China .No vaccine or effective antiviral drug is likely to be available soon.', 'The number of cases of COVID-19 are falling quickly in China, 4 but a site for phase 3 vaccine trials needs to be in a location where there is ongoing transmission of the disease.', 'Some of the lessons from analyses of influenza A apply for COVID-19, but there are also differences.', 'The greater the reduction in transmission, the longer and flatter the epidemic curve (figure), with the risk of resurgence when interventions are lifted perhaps to mitigate economic impact.The key epidemiological issues that determine the impact of social distancing measures are what proportion of infected individuals have mild symptoms and whether these individuals will self-isolate and to what effectiveness; how quickly symptomatic individuals take to isolate themselves after the onset of symptoms; and the duration of any non-symptomatic infectious period before clear symptoms occur with the linked issue of how transmissible COVID-19 is during this phase.Individual behaviour will be crucial to control the spread of COVID-19.', 'Personal, rather than government action, in western democracies might be the most important issue.', 'Government actions to ban mass gatherings are important, as are good diagnostic facilities and remotely accessed health advice, together with specialised treatment for people with severe disease.', 'Isolating towns or even cities is not yet part of the UK Government action plan.', '15 This plan is light on detail, given the early stages of the COVID-19 epidemic and the many uncertainties, but it outlines four phases of action entitled contain, delay, research, and mitigate.', 'Italy, South Korea, Japan, and Iran are at the mitigate phase and trying to provide the best care possible for a rapidly growing number of people with COVID-19.The known epidemiological characteristics of COVID-19 point to urgent priorities.', 'Peak demand for health services could still be high and the extent and duration of presymptomatic or asymptomatic transmission-if this turns out to be a feature of COVID-19 infection-will determine the success of this strategy.', '17 Super-spreading events are inevitable, and could overwhelm the contact tracing system, leading to the need for broader-scale social distancing interventions.Data from China, South Korea, Italy, and Iran suggest that the CFR increases sharply with age and is higher in people with COVID-19 and underlying comorbidities.', '11 \n\nFigure: Illustrative simulations of a transmission model of COVID-19\n\nA baseline simulation with case isolation only (red); a simulation with social distancing in place throughout the epidemic, flattening the curve (green), and a simulation with more effective social distancing in place for a limited period only, typically followed by a resurgent epidemic when social distancing is halted (blue).', 'These are not quantitative predictions but robust qualitative illustrations for a range of model choices.See Online for appendices 2, 3 R 0 of 2·5 or higher, reductions in transmission by social distancing would have to be large; and much of the changes in transmission of pandemic influenza in the summer of 2009 within Europe were thought to be due to school closures, but children are not thought to be driving transmission of COVID-19.', 'Data from the southern hemisphere will assist in evaluating how much seasonality will influence COVID-19 transmission.Model-based predictions can help policy makers make the right decisions in a timely way, even with the uncertainties about COVID-19.', 'However, it is easy to suggest a 60% reduction in transmission will do it or quarantining within 1 day from symptom onset will control transmission, but it is unclear what communication strategies or social distancing actions individuals and governments must put in place to achieve these desired outcomes.', 'Ongoing data collection and epidemiological analysis are therefore essential parts of assessing the impacts of mitigation strategies, alongside clinical research on how to best manage seriously ill patients with COVID-19.There are difficult decisions ahead for governments.', 'How individuals respond to advice on how best to prevent transmission will be as important as government actions, if not more important.']</t>
+  </si>
+  <si>
+    <t>['Introduction\n\nThe epidemic of COVID-19 is caused by a novel virus first detected in Wuhan, China.', 'Outbreak of the COVID-19 started with the report of a first suspected case on December 8, 2019 in Wuhan.', 'Data in this study showed that detected and confirmed cases with COVID-19 infection declined from the peak of 44 on January 8 to only 2 on January 19, 2020, suggesting that the epidemic was likely under control.China officially declared the epidemic as an outbreak on January 20 when obvious human-to-human transmissions were ascertained with reagent probes and primers distributed to local agencies on that day.', 'Immediately following the declaration, massive actions were taken the next day to curb the epidemic at Wuhan, and soon spread to the whole country from central to local government, including all sectors from business to factories and to schools.', 'An Anti-COVID-19 Group headed by Premier Li Keqiang was established to lead the massive national efforts.', 'The highly emotional responses of the public were fueled by (1) sudden increases in the number of detected new cases after the massive intervention measures to identify the infected;(2) massive growing needs for masks; (3) a large number of suspected patients waiting to confirm their diagnose; (4) a large number of diagnosed COVID-19 patients for treatment; and (5) a growing number of deaths, despite national efforts to improve therapy, including the decision to build two large hospitals within a period of days.', 'This is particularly true for the COVID-19.', 'Therefore, there is no so-called rational responses, no standardoperating-procedure (SOP) to follow, no measures to take without negative consequences [2] .However, defining the COVID-19 as nonlinear and chaotic does not mean that we cannot do anything after we knew it was an outbreak, but simply waiting.', 'On the contrary, defining it as nonlinear and chaotic will better inform us to make right decisions and to take appropriate actions.', '(1) During the early stage of an infection, which we cannot tell whether it will be growing into an outbreak, we must closely monitor it using limited data and to find the early signs of change and to predict if and when it will become an outbreak; (2) After it is declared as an outbreak, it is better to take actions as soon as possible since infectious diseases can be controlled even without knowledge of the biology [10] ; and evaluate if the control measures work.The ultimate goal of this study is to attempt to provide some solutions to this paradox by providing early messages to inform control measures, to be optimistic and not panic, to ask right questions, and to take right actions.', 'Daily detected and confirmed cases\n\nData for this study were daily cumulative cases with COVID-19 infection for the first two months (63 days) of the epidemic from December 8, 2019 to February 8, 2020.', 'These data were used together with the data from the first source to monitor the dynamic of COVID-19 on a daily basis to 1) assess whether the COVID-19 epidemic was nonlinear and chaotic, 2) evaluate the responsiveness of the epidemic to the massive measures against it, and 3) inform the future trend of the epidemic.', 'Understanding of the detected cases on a daily basis\n\nIn theory, the true number of persons with COVID-19 infection can never be known no matter how we try to detect it.', 'Model daily change in the epidemic\n\nWe started our modeling analysis with data of cumulative number of diagnosed COVID-19 infections per day.', 'As a reference to assess the level of severity of the COVID-19 epidemic, the natural mortality rate of Wuhan population was obtained from the 2018 Statistical Report of Wuhan National Economy and Social Development.', 'Cumulative number of detected and diagnosed cases\n\nThe COVID-19 epidemic was initiated in Wuhan, the Provincial Capital of Hubei Province with a total population of 14.2 million, including 5.1 million mobile population.', 'Assuming all diagnosed cases in China were infected in Wuhan (an exaggerated scenarios for illustration purpose), the two-month incidence rate of COVID-19 was 2.6/1000 among Wuhan residents.', 'Based on reported case mortality of 2.3%, the population-based mortality of COVID-19 was 0.6/1000, or 1/9th of the mortality of Wuhan residents.', 'These findings suggest the nonlinear and chaotic character of the COVID-19 outbreak.After declaring the outbreak on January 20, information revealed by F ′ ′ (x) differed much from F ′ (x).', 'In other words, we have to wait for at least 14 days after the massive anti-COVID-19 epidemic without using information derived from F ′ ′ (x).', 'Quite different from F ′ (x), F ′′ (x) removed the time trend of F ′ (x) to show the acceleration/deceleration of diagnosed COVID-19.', 'Consequently, F ′ ′ (x) was much more sensitive than F ′ (x) to gauge the intrinsic dynamics of the epidemic in response to the massive anti-COVID-19 action.', 'Since January 21, 2020 after the massive anti-COVID actions, the F ′ ′ (x) suddenly became very active, as indicated by the alternative accelerations and decelerations.', "F ′ ′ (x) reached the peak on January 27 after the distribution of large number of test kits on January 26, which was an action based on the decision at the central government level in a meeting held by Chinese President Xi Jinping on January 24 and 25, the Chinese New Year's Eve and New Year's Day.In addition, the estimated F ′′ (x) captured three significant decelerations on January 28, February 5 and 6 (two days in a row), and 8, 2020 respectively; corresponding to the intensified massive actions in locating and treating the infected, locking down more communities, plus mask use and massive pathogen sterilization in neighborhood environment.", 'In addition to informing whether the epidemic was responsive to the massive interventions, information from F ′′ (x) signaled an overall downturn of the epidemic since the beginning of the massive anti-COVID-19 action on January 21, 2020.', 'Using this estimated growth rate, it takes only 4 days for the diagnosed COVID-19 to double.', '1 and 2, we divided the COVID-19 epidemic during the first two months of the epidemic into five phases.', 'Unfortunately, the COVID-19 as an outbreak was silently stepping in during this period.Phase 4 was from January 20 to 27, 2020 with the estimated P i increased from 1% on January 20, 2020 to surpass 100%, and reached the peak of 170% on January 27, 2020.', 'Different from the previous four phases, reductions in the estimated P i during this phase were not an indication of underdetection but an indication of declines in the epidemic reflected by the detected and confirmed cases of COVID-19.', '2 and 3 (Phase 4 and 5), three pieces of information can be derived: (1) The epidemic was highly sensitive to external interventions, supporting the nonlinear and chaotic characters revealed by the long latent period in the first three phases; (2) the massive national efforts were highly effective in detecting the detectable COVID-19; (3) signal for the COVID-19 in China to decline appeared on January 21 in 2020, 14 days before the start of eventual declines on February 4, as indicated by F ′ ′ (x) and F ′ (x) in Fig.', 'Disscussion\n\nIn this study, we used a novel approach to distill information from the cumulative number of diagnosed cases of COVID-19 infection.', 'Findings from this study provided useful information in a real time manner to monitor, evaluate and forecast the COVID-19 epidemic in China.', 'Nonlinear and chaotic nature of the COVID-19 outbreak\n\nAlthough an analytical demonstration of the COVID-19 outbreak as nonlinear, chaotic and catastrophic requires more time to wait till the epidemic ends, evidence in the first 2 months suggests that the COVID-19 outbreak in China is nonlinear and chaotic.', 'The significance of nonlinear and chaotic nature of COVID-19 means that no methods are available to predict exactly at what point in time the epidemic will emerge as an outbreak, just like volcanoes and earthquakes.', 'Therefore, practically there is no so-called a best time or missed the best time to take actions.', 'Therefore, knowing the nonlinear and chaotic nature of an epidemic outbreak, like COVID-19, for all stockholders will be essential to the mobilization of resources, working together, taking all actions possible to control the epidemic, and minimizing the negative consequences.Specifically, what we can do to deal with an outbreak like COVID-19 would be to (1) collect information as early as possible, (2) monitor the epidemic as close as possible just like we do for an earthquake and make preparations for a hurricane and (3) communicate with the society and use confirmed data appropriately reframed not causing or exacerbating fear and panic in the public, stress and distress among medical and public health professionals, as well as administrators to make right decisions and take the right strategies at the right time in the right places for the right people.Knowing the nonlinear and chaotic nature is also essential for taking actions to control the outbreak of an epidemic like the COVID-19 infection.', 'Answering these questions takes time, but there is no need to wait till all these questions are resolved before taking actions.', 'We can take actions to prevent COVID-19 immediately while waiting for answers to these questions.', 'More importantly, most of these actions are initiated, mobilized, coordinated and supported by the government from central to local, and enhanced by volunteers and international support.', 'For example, from the second derivative, we observed increases in the infected through the action on January 22, 2020, the next day after the massive intervention started on January 21, 2020.', 'From day one on January 21, 2020 when the massive intervention measures activated to February 4, 2020 is the latent period of COVID-19 infection.', 'Based on the findings from our analysis, the COVID-19 in China may end up soon.', 'Despite a delay of 43 days from the first confirmed cases on December 8, 2019 to January 20, 2020, the COVID-19 epidemic was highly responsive to massive interventions, supporting the effectiveness of these interventions.', 'It is our prediction that the outbreak of the COVID-19 infection will be brought under control by the end of February 2020, given the effective control measures known to everyone, increases in immune level in the total population due to latent infections, and most widely spread of knowledge and skills for infectious disease control and prevention among the 1.4 billion people in China.', 'By inclusion of the mortality rate as a reference, results from our approach will be (1) comprehensive to inform the public to be prepared, not scared and not to blame others; (2) useful for administrators to make decisions; (3) valuable for medical and health professionals to take actions.Second, we conceptually separated (1) the true number of infections, which will never be practically detected, from (2) the infections that are practically detectable if services are available and accessible and detection technologies are sensitive and reliable, and (3) the actually detected cases of infections.', 'Limitations and future plan\n\nThere are limitations.', 'We will follow the epidemic closely and prepare for further research on the topic when more data become available.Despite the limitations, this study provided new data to encourage those who are infected to better fight against the infections; to inform and encourage the general public, the medical and health professionals and the government to continue their current measures and to think of more measures that are innovative and effective to end the COVID-19 epidemic.', 'Of the diagnosed COVID-19 cases, less than 20% are severe.', 'Although the total cases COVID-19 reached to big numbers, but the 2-month incidence rate was about a half of the natural death rate for Wuhan residents.']</t>
+  </si>
+  <si>
+    <t>['Looming threat of COVID-19 infection in Africa: act collectively, and fast\n\nBecause of the high volume of air traffic and trade between China and Africa, 1 Africa is at a high risk for the introduction and spread of the novel coronavirus disease 2019 (COVID-19); although only Egypt has reported the first case, from a non-national.', '2 The greatest concern for public health experts is whether COVID-19 will become a pandemic, with sustained year-round transmission, similar to influenza, as is now being observed in several countries.', 'With neither treatment nor vaccines, and without pre-existing immunity, the effect might be devastating because of the multiple health challenges the continent already faces: rapid population growth and increased movement of people; existing endemic diseases, such as human immunodeficiency virus, tuberculosis, and malaria; remerging and emerging infectious pathogens such as Ebola virus disease, Lassa haemorrhagic fever, and others; and increasing incidence of non-communicable diseases.Models that enable the continent to better allocate scarce resources to better prepare and respond to the COVID-19 epidemic are crucial.', "The modelling study by Marius Gilbert and colleagues in The Lancet 4 identifies each African country's risk of importation of COVID-19 from China, using data on the volume of air travel from three airports in provinces in China to African countries.", 'The study provides a valuable tool that can help countries in Africa prioritise and allocate resources as they prepare to respond to the potential introduction and spread of COVID-19.The study should also be interpreted in light of the fast-evolving nature of the COVID-19 outbreak.', 'Although these measures might delay, but not stop, 5 the importation risk of COVID-19 into Africa, their implementation is still worthwhile.', 'Second, although Beijing, Shanghai, and Fujian do not report the highest number of cases of COVID-19 in China, the volume of travel from these cities to Africa is high, which might increase the risk of exporting cases to Africa.', 'Lastly, almost half of the flights from Africa to China are operated by Ethiopian Airlines, so it is possible that cases might pass through Ethiopia and affect destination countries.The report by Gilbert and colleagues 4 provides an important tool to map out the continental risk for the spread of COVID-19 in Africa, which should be used to inform a framework of action to prepare the continent for any potential importation and spread of COVID-19.', 'The strategy must be comprehensive, and member states, donors, and partners should immediately commit to releasing financial resources to support country-customised implementation plans derived from the strategy.', 'The partnership has six work streams: laboratory diagnosis and subtyping; surveillance, including screening at points of entry and cross-border activities; infection prevention and control in healthcare facilities; clinical management of people with severe COVID-19; risk communication; and supply-chain management and stockpiles.', 'Because mitigating the potential spread of COVID-19 in Africa will require rapid detection and containment, the laboratory work streams of AFTCOR, Africa CDC, and WHO are working closely to expeditiously scale up diagnostic testing capacity linked to enhanced surveillance and monitoring-eg, at the beginning of February, only two countries in Africa had the diagnostic capacity to test for COVID-19.', 'However, as of Feb 25, 2020, more than 40 countries would have been capacitated to accurately diagnose COVID-19 infection, thanks to the coordination efforts of AFTCOR.', 'Second, any effective preparedness and response strategy for COVID-19 requires a committed political will; as such, the African Union Commission, Africa CDC, and WHO convened, on Feb 22, 2020, in Addis Ababa, Ethiopia, an emergency meeting of all ministers of health of 55 member states to commit to acting fast and collectively to develop and implement a coordinated continent-wide strategy.', 'To prevent the occurrence of a social, health security, and economic tragedy, actions agreed at the emergency ministerial meeting will need to be acted on quickly, before any additional COVID-19 cases are introduced to the continent, and result in sustained human-tohuman transmission.', 'The potential social, economic, and security devastation that COVID-19 could cause in Africa should be enough of an incentive for African governments to invest immediately in preparedness for the worst-case scenario.', 'Third, commitment and release of financial resources from partners and donors before a crisis hits Africa will help anticipate demand and address supply chain management, mapping, and stockpiling of COVID-19 response needs, such as large quantities of personal protective equipment, gloves, surgical masks, coveralls, and hoods, and medical countermeasures like antiviral agents.', 'Medical staff at major hospitals must be trained in the proper protocols of quarantining individuals who are at-risk of COVID-19 infection, as well as isolation and safe treatment of patients who test positive.', 'Africa needs to be supported to act now, and needs to act fast.JNN is the director of the Africa CDC and a WHO special envoy on COVID-19.']</t>
+  </si>
+  <si>
+    <t>['The COVID-19 Response Team assessed the clinical condition of screened individuals to determine the need for hospital admission or for home testing for SARS-CoV-2 and subsequent isolation.', '4 The COVID-19 Response Team handles patient flow to local hospitals and addresses specific issues about bed resources, emergency department overcrowding, and the need for patient transfer to other specialised facilities.', "5 In this context, the EMS is inevitably\n\nThe response of Milan's Emergency Medical System to the COVID-19 outbreak in Italy\n\nThe number of people infected with severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2), the virus causing coronavirus disease 2019 (COVID-19), is dramatically increasing worldwide.", '1 The first person-to-person transmission in Italy was reported on Feb 21, 2020, and led to an infection chain that represents the largest COVID-19 outbreak outside Asia to date.', 'Here we document the response of the Emergency Medical System (EMS) of the metropolitan area of Milan, Italy, to the COVID-19 outbreak.On Jan 30, 2020, WHO declared the COVID-19 outbreak a public health emergency of international concern.', 'Local medical authorities adopted specific WHO recommendations to identify and isolate suspected cases of COVID-19.', 'Suspected cases were transferred to preselected hospital facilities where the SARS-CoV-2 test was available and infectious disease units were ready for isolation of confirmed cases.Since the first case of SARS-CoV-2 local transmission was confirmed, the EMS in the Lombardy region (reached by dialling 112, the European emergency number) represented the first response to handling suspected symptomatic patients, to adopting containment measures, and to addressing population concerns.', 'The EMS of the metropolitan area of Milan instituted a COVID-19 Response Team of dedicated and highly qualified personnel, with the ultimate goal of tackling the viral outbreak without burdening ordinary EMS activity (figure).', 'The team is active at all times and consists of ten health-care professionals supported by two technicians.The COVID-19 Response Team collaborated with regional medical authorities to design a procedural algorithm for the detection of suspected cases of COVID-19 (figure).', 'Patients were screened for: (1) domicile or prolonged stay in the hot zone (ie, where COVID-19 cases first appeared), or both; (2) \n\nFigure: EMS organisation and procedural algorithm of the COVID-19 Response Team\n\nThe activities of the EMS and the specifically instituted COVID-19 response team (A).', 'On the basis of caller needs, the receiver operators of the primary PSAP dispatch calls to either the ordinary EMS for primary medical assistance or to the COVID-19 response team for the assessment of risk factors for SARS-CoV-2 infection.', 'To address hospital needs and to receive medical directives, the COVID-19 response team maintains direct contacts with local hospitals and regional public health authorities.', 'The COVID-19 response team algorithm to detect and manage suspected cases of COVID-19 (B).', 'On the basis of risk factors for SARS-CoV-2 contagion and the clinical conditions of the screened individuals, the COVID-19 response team determines the need for hospital admission, home isolation, or SARS-Cov-2 testing.', 'The COVID-19 response team also provides counselling (ie, hygiene recommendations and preventive actions to limit respiratory diseases spread) for non-suspected cases and for patients isolated at home, including their cohabitants.', 'COVID-19=coronavirus disease 2019.', 'Specific algorithms, detailed protocols, and specialised teams must be fostered within each EMS department to allocate the right resources to the right individuals when cases of COVID-19 present.']</t>
+  </si>
+  <si>
+    <t>['Why Long-Term Care Preparedness for COVID-19 is Important\n\nSeveral epidemiological variables make long-term care facilities a priority area for near term public health planning.', 'Most significantly, long-term care residents are among those at highest risk for COVID-19 morbidity and mortality.', '4 Initial estimates from the Chinese Centers for Disease Control indicate an overall fatality rate from COVID-19 of 2.3%.', 'For patients under the age of 50, the case fatality rate for COVID-19 has not exceeded 0.4% (5) .', '5 Even as the overall case fatality rate drops, the risk of death among older adults may be 10-fold higher than for younger individuals.Residents of long-term care facilities often have medical conditions associated with an increased risk of morbidity and mortality to COVID-19.', 'Based on analyses of deaths related to COVID-19 through February 11, 2020, the odds of dying from the virus were greater in those with heart (OR ¼ 12.', '10 These elements offer a critical framework for the long-term care community and the public at large as it prepares for COVID-19.', 'AMDA, The Society for Post-Acute and Long-Term Care Medicine, has recently published interim recommendations (https://paltc.org/COVID-19) for health care providers in Long-Term Care Facilities.', 'The documents offer guidance and address frequently asked questions on how Post-Acute and Long-Term Care Facilities should prepare for and manage individuals with suspected COVID-19.', 'Symptoms of COVID-19 include fever, cough, and shortness of breath, but initial symptoms are milder and frail older adults often present atypically.', 'While studies underway to assess antiviral medications for COVID-19 have begun, supportive care is the best available therapeutic option.Absent vaccination and antiviral prophylaxis, and stringent and proactive infection prevention and control measures remain the best way to reduce the risk of staff and residents becoming ill (Table 1 ).', 'This includes steps to actively reduce both the risk of introducing COVID-19 into nursing homes and for transmission within the nursing home, particularly from asymptomatic staff members who may unwittingly shed viruses to surfaces that can infect their residents or by direct contact with them.', 'Airborne disease protocols should be activated and put into action.', 'Plans previously developed for pandemic influenza can be re-purposed for COVID-19, including the respiratory outbreak preparedness checklist previously developed by the CDC (https:// www.cdc.gov/coronavirus/2019-ncov/php/pandemic-preparednessresources.html).Once COVID-19 has begun to spread within a community, additional efforts to reduce the introduction of the virus into the building can include limiting visitors to the long-term care building.', 'where residents congregate, and frequently touched surfaces.Currently, the types of precautions recommended for people with suspected COVID-19 are still evolving.', 'In addition to Standard and Contact Precautions, the CDC recommends Droplet and Airborne Precautions during the care of individuals with suspected COVID-19 while the World Health Organization recommends Droplet Precautions; presently we have a concurrent influenza epidemic, so precautions for respiratory disease need to protect against both diseases.', 'Maintain Health Care Infrastructure\n\nA key practical consideration for the long-term care environment will be to determine if or when to admit a resident who has been previously diagnosed with COVID-19.', 'According to data acquired from 4 Chinese patients who contracted COVID-19 and recovered, positive reverse transcriptaseepolymerase chain testing was still present at 5 to 13 days post infection and then on subsequent testing.', '11 It is unclear whether this meant that they were continuously infectious or re-infected, but should give pause as to when recovering COVID-19 patients are safe to bring into a facility where rapid transmission of the virus to a susceptible population could occur.', 'As ALs are not routinely regulated by the federal government, state regulators will need to consider how to encourage ALs to have the staffing and infrastructure in place to meet the care delivery needs for this potentially vulnerable population when COVID-19 enters the community.', 'It will also be important for state regulators to ensure that AL facilities have a plan in place to prepare for cases of COVID-19.', 'Quite clearly, mortality within long-term care environments related to COVID-19 will be significantly higher than among the general population as a function of resident advanced age and comorbidity rather than substandard care.', 'We do not yet know how this epidemic will unfold, and how effective infection prevention and control measures will be at staving off the spread of COVID-19 into long-term care facilities.', 'We cannot yet predict whether the spread of COVID-19 follows the 1918 Spanish Flu pandemic with mortality rates akin to those calculated so far, or more like the 2009 A/H1N1 pandemic where the mortality rates more closely mirrored those of seasonal influenza.', 'Executing a communication strategy that keeps residents, family members, and the public informed will also be critical during this rapidly evolving crisis.']</t>
+  </si>
+  <si>
+    <t>['Introduction\n\nhuge amount of efforts for radiologists, which is not acceptable when COVID-19 is spreading fastly and there are great shortages for radiologists.', 'Thus, performing COVID-19 detection in a weakly-supervised manner is of great importance.', 'One of the simplest labels for COVID-19 detection is the patient-level, i.e., indicating the patient is COVID-19 positive or negative.', 'Therefore, aim of current study was to investigate the potential of a deep learning-based model for automatic COVID-19 detection on chest CT volumes using the weak patient-level label, for the sake of rapid diagnosis of COVID-19 at this critical situation to help to counter this outbreak, especially within Wuhan, Hubei province, China.', 'Material and methods\n\nPatients This retrospective study was approved by Huazhong University of Science and Technology ethics committee, patient consent was waived due to the retrospective nature of this study.Between Dec. 13, 2019 to Feb. 6, 2020, we searched unenhanced chest CT scans of patients with suspected COVID-19 from the picture archiving and communication system (PACS) of radiology department (Union Hospital, Tongji Medical College, Huazhong University of Science and Technology).', 'Finally, 540 patients (mean age, 42.5±16.1 years; range, 3-81 years, male 226, female 314) were enrolled into this study, including 313 patients (mean age, 50.7±14.7 years; range, 8-81 years; male 138, female 175) with clinical diagnosed COVID-19 (COVID-positive group) and 229 patients (mean age, 31.2±10.0 years; range, 3-69 years; male 88, female 141) without COVID-19 (COVID-negative group).', 'There was no significant difference in sex between the two groups (χ 2 =1.744; P=0.187), age in COVIDpositive group significantly higher than that of COVID-negative group (t=17.09; P&lt;0.001).', 'The first case (female, year 66) was diagnosed as COVID-19 negative on Jan 24, 2020, then changed into COVID-positive on Feb 6, 2020; the second case (female, year 23) was diagnosed as COVID-19 positive on Jan 24, 2020, then changed into COVID-negative on Feb 3, 2020.', 'All the CT volumes scanned on and before Jan 23, 2020, were assigned for deep learning training, and all the CT volumes scanned after Jan 23, 2020, were assigned for deep learning testing.', 'CC-BY-NC-ND 4.0 International license It is made available under a author/funder, who has granted medRxiv a license to display the preprint in perpetuity.is the (which was not peer-reviewed) The copyright holder for this preprint .COVID-19 has been regarded as current standard for clinical diagnostic cases in severely affected areas only in Hubei Province, indicating that chest CT is fundamental for COVID-19 identification of clinically diagnosed cases.Typical CT findings for COVID-19 are also listed: multifocal small patchy shadowing and interstitial abnormalities in the early stage, especially for the peripheral area of the bilateral lungs.', 'In severe cases, pulmonary diffuse consolidation may occur and pleural effusion is rarely shown.The combination of epidemiologic features (travel or contact history), clinical signs and symptoms, chest CT, laboratory findings and real-time RT-PCR (if available) for SARS-CoV-2 nucleic acid testing is used for the final identification of COVID-19.', 'According to the CT reports, if a CT scan was COVID-positive, its ground-truth label was 1; otherwise, the label was 0.', 'The network took a CT volume with its 3D lung mask as input and directly output the probabilities of COVID-positive and COVID-negative.The Proposed DeCoVNet We proposed a 3D deep convolutional neural Network to Detect COVID-19 (DeCoVNet) from CT volumes.', 'ProClf progressively abstracts the information in the CT volumes by 3D max-pooling and finally directly output the probabilities of being COVID-positive and COVID-negative.', 'The 3D lung mask of an input chest CT volume helped to reduce background information and better detect COVID-19.', 'The input size is 2 × T × 192 × 288. segmented the lung regions using an unsupervised learning method [20] , removed the failure cases manually, and the rest segmentation results were taken as ground-truth masks.', 'The overall training and testing procedures of UNet and DeCoVNet for COVID-19 detection were illustrated in Fig.', 'The network was trained for 100 epochs using Adam optimizer [22] with a constant learning rate of 1e-5.', 'The trained DeCoV-Net took the preprocessed CT-Mask volume of each patient and output the COVID-positive probability as well as COVID-negative probability.', 'Then the predicted probabilities of all patients and their corresponding ground-truth labels were collected for statistical analysis.The cohort for studying the COVID-19 detection contained 630 CT scans collected from Dec 13, 2019 to Feb 6, 2020.', 'Of the training volumes, 15% were randomly selected for hyperparameter tuning during the training stage.Statistical Analysis COVID-19 detection results were reported and analyzed using receiver operating characteristic (ROC) and precision-recall (PR) curves.', 'ROC AUC, PR AUC, and some key operating points were used to assess the deep learning algorithm.', 'The software for COVID-19 detection with the pre-trained model as well as the results was available at https://github.com/sydney0zq/covid-19-detection, which will be made publicly available on the publication of this paper.', 'For every testing CT scan, we used the trained DeCoVNet to predict its probability of COVID-19.', 'On the PR curve, our model obtained a PR AUC of 0.975.When using the threshold of 0.5 to make COVID-19 detection prediction (i.e., if the probability of COVID-19 was larger than 0.5, the patient was classified as COVID-positive, and vice versa), the algorithm obtained an accuracy of 0.901 with a positive predictive value (PPV) of 0.840 and a negative predictive value (NPV) of 0.982.', 'By varying the probability threshold, we obtained a series of COVID-19 detection accuracy, PPV and NPV in Table 2 .', 'Our data showed that the COVID-19 prediction accuracy obtained by the DeCoVNet algorithm was higher than 0.9 when the threshold ranged from 0.2 to 0.5.', 'In images corresponding to the true positive and the false negative, the lesions of COVID-19 were annotated by red arrows.', '5 (F) showed the only false positive prediction, in which the respiratory artifact had been mistaken as a COVID-19 lesion by the DeCoVNet algorithm.', 'Discussion\n\nTo our knowledge, this is the first study to perform weakly-supervised computer-aided COVID-19 detection with a large number of CT volumes from the frontline hospital at the present epidemic period.', 'By designing an effective weakly-supervised deep learning-based algorithm and training it on CT volumes collected before Jan 23, 2020 with only patient-level labels, the testing results on 131 CT scans collected from Jan 24, 2020, to Feb 6, 2020, were very impressive, e.g., the PR AUC value was 0.975.', 'Though there were many effective applications of medical AI in previous studies [13, 23] , developing AI for automatic COVID-19 detection was still a challenging task.', 'Firstly, in the current emergency situation, the number of enrolled patients is relatively smaller compared with that used in previous studies [13, 23] ; and patients enrolled in our study were clinically diagnosed cases with COVID-19, because the majority of them did not undergo the nucleic acid testing due to the sudden outbreak and limited medical resource in such a short time period.', 'Secondly, the lesions of COVID-19 in CT volumes were not labeled by radiologists and only patientlevel labels (i.e., COVID-positive or COVID-negative) were utilized for training the AI algorithm in our study.', 'Thirdly, some small infected areas of COVID-19 have the potential to be missed even by professional radiologists, and whether it is feasible to be detected by deep learning-based 3D DCNN model remains unclear.', 'The second problem was solved by regarding the COVID-19 detection problem as a weakly-supervised learning problem [24] , i.e., detecting COVID-19 without annotating the regions of COVID-19 lesions.', 'In the designed DeCoVNet, we used the spatially global pooling layer and the temporally global pooling layer to technically handle the weakly-supervised COVID-19 detection problem.', 'The third problem was addressed by taking the advantages of deep learning and utilizing a pre-trained UNet for providing the lung masks to guide the learning of DeCoVNet.The deep learning-based COVID-19 diagnostic algorithm used in our study is effective compared to recent deep learning-based computer-aided diagnosis methods.', 'On the task of predicting the risk of lung cancer [13] , the deep learning model was trained on 42290 CT cases from 14851 patients and obtained 0.944 ROC AUC.', 'On the task of critical findings from head CT [23] , the deep learning model was trained on 310055 head CT scans and obtained ROC AUC of 0.920.', 'By comparing the data between them, it was able to find that the task of COVID-19 detection may be easier and the proposed deep learning algorithm was very powerful.', 'As for the erroneous 12 false negative predictions in our results, the most possible explanations after we rechecked the original CT images were listed as follows: those lesions were slightly increased in CT densities, and images of those ground-glass opacities were very faint without consolidation.Our study provided a typical and successful solution for developing medical AI for emerging diseases, such as COVID-19.', 'While we were developing this AI, doctors in Wuhan were still extremely busy with treating a huge number of COVID-19 patients and it may be impossible for them to annotate the lesions in CT volumes in the current austere fight against this epidemic.', 'In the future, the burden of AI experts could be lifted significantly by automatic machine learning (AutoML) [25] .Limitations of this study There are still several limitations in this study.', 'Third, when diagnosing COVID-19, the algorithm worked in a black-box manner, since the algorithm was based on deep learning and its explainability was still at an early stage.', 'Conclusion\n\nIn conclusion, without the need for annotating the COVID-19 lesions in CT volumes for training, our weakly-supervised deep learning algorithm obtained strong COVID-19 detection performance.', 'Therefore, our algorithm has great potential to be applied in clinical application for accurate and rapid COVID-19 diagnosis, which is of great help for the frontline medical staff and is also vital to control this epidemic worldwide.']</t>
+  </si>
+  <si>
+    <t>['\n\nSarbecovirus strains, the hypothesis that COVID-19 originated from bats is deemed very 56 likely [12, 34, 36, 39, [42] [43] [44] [45] .', 'Comparative genomics beyond 65 alignment-based approaches have benefited from the computational power of machine 66 learning.', 'Machine learning-based alignment-free methods have also been used 67 successfully for a variety of problems including virus classification [50] [51] [52] .', 'In this study, we use MLDSP [51] and MLDSP-GUI [52] with CGR as a 82 numerical representation of DNA sequences to assess the classification of COVID-19 83 from the perspective of machine learning-based alignment-free whole genome 84 comparison of genomic signatures.', 'Using MLDSP and MLDSP-GUI, we confirm that 85 the COVID-19 belongs to the Betacoronavirus, while its genomic similarity to the 86 sub-genus Sarbecovirus supports a possible bat origin.', '87 This paper shows how machine learning using intrinsic genomic signatures can 88 provide rapid alignment-free taxonomic classification of novel pathogens.', 'Our method 89 delivers accurate classifications of COVID-19 without a priori biological knowledge, by 90 a simultaneous processing of the geometric space of all relevant viral genomes.', 'The 91 main contributions are: 92 • Identifying intrinsic viral genomic signatures, and utilizing them for a real-time 93 and highly accurate machine learning-based classification of novel pathogen 94 sequences, such as COVID-19;\n\n95\n\n• A general-purpose bare-bones approach, which uses raw DNA sequences alone and 96 does not have any requirements for gene or genome annotation;\n\n97\n\n• The use of a "decision tree" approach to supervised machine learning (paralleling 98 taxonomic ranks), for successive refinements of taxonomic classification.', '116\n\nML-DSP [51] and MLDSP-GUI [52] were used as the machine learning-based 117 alignment-free methods for complete genome analyses.', 'All six classification models trained on 171 3273 sequences were used to classify (predict the label of) the 29 COVID-19 sequences.', '172 All of our machine learning-based models correctly predicted and confirmed the label as 173 Riboviria for all 29 sequences ( respective MoDMap3D is shown in Figure 1 (b).', 'All six classification models trained on 184 2779 sequences were used to classify (predict the label of) the 29 COVID-19 sequences.', '185 All of our machine learning-based models predicted the label as Coronaviridae for all 29 186 sequences ( All classifiers trained on Test-1, Test-2, Test-3a, and Test-3b datasets were used to predict the labels of 29 COVID-19 viral sequences.', 'The third test (Test-3a) is designed to classify the COVID-19 sequences at the genus 190 level.', 'All six classification models trained on 208 sequences were used to 196 classify (predict the label of) the 29 COVID-19 sequences.', 'All of our machine 197 learning-based models predicted the label as Betacoronavirus for all 29 sequences (Table 198 2).', 'All six classification models trained on 60 sequences 203 were used to classify the 29 COVID-19 sequences.', 'All of our machine learning-based 204 models predicted the label as Betacoronavirus for all 29 sequences (Table 2) .', 'In the MoDMap3D plot from Test-5, 220 COVID-19 sequences are placed in a single distinct cluster, see Figure 2 (b).', 'The COVID-19 was then compared to all sub-genera within the 251 Betacoronavirus genus: Embecovirus, Merbecovirus, Nobecovirs and Sarbecovirus seen in 252 Figure 6 .', 'Still, the early COVID-19 262 genomes that have been sequenced and uploaded are over 99% similar, suggesting these 263 infections result from a recent cross-species event [12, 31, 41] .', '264\n\nThese prior analyses relied upon alignment-based methods to identify relationships 265 between COVID-19 and other coronaviruses with nucleotide and amino acid sequence 266 similarities.', 'When analyzing the conserved replicase domains of ORF1ab for 267 coronavirus species classification, nearly 94% of amino acid residues were identical to 268 SARS-CoV, yet overall genome similarity was only around 70%, confirming that 269 COVID-19 was genetically different [63] .', 'Within the RdRp region, it was found that 270 another bat coronavirus, RaTG13, was the closest relative to COVID-19 and formed a 271 distinct lineage from other bat SARS-like coronaviruses [39, 41] .', 'Other groups found 272 that two bat SARS-like coronaviruses, bat-SL-CoVZC45 and bat-SL-CoVZXC21, were 273 also closely related to COVID-19 [12, [34] [35] [36] [37] [38] .', 'There is a consensus that these three bat 274 viruses are most similar to COVID-19, however, whether or not COVID-19 arose from a 275 recombination event is still unknown [39] [40] [41] .', '276 Regardless of the stance on recombination, current consensus holds that the 277 hypothesis of COVID-19 originating from bats is highly likely.', 'Whether or not COVID-19 was transmitted directly from 286 bats, or from intermediary hosts, is still unknown, and will require identification of 287 COVID-19 in species other than humans, notably from the wet market and surrounding 288 area it is thought to have originated from [30] .', 'China CDC released information about environmental sampling in 294 the market and indicated that 33 of 585 samples had evidence of COVID-19, with 31 of 295 these positive samples taken from the location where wildlife booths were concentrated, 296 suggesting possible wildlife origin [79, 80] .', '301 Viral outbreaks like COVID-19 demand timely analysis of genomic sequences to machine learning-based alignment-free method successfully used in the past for sequence 315 comparisons and analyses [51] .', 'In this study we confirm the taxonomy 317 of COVID-19 and, more generally, propose a method to efficiently analyze and classify a 318 novel unclassified DNA sequence against the background of a large dataset.', 'The objective is to train the classification models with the 329 known viral genomes and then predict the labels of the COVID-19 virus sequences.', 'The trained models are then used to predict the labels of 29 COVID-19 333 sequences.', 'As expected, all classification models correctly predict that the COVID-19 334 sequences belong to the Riboviria realm, see Table 2 .', 'When COVID-19 sequences are tested using the models trained on Test-2, all of 342 the models correctly predict the COVID-19 sequences as Coronaviridae (Table 2) .', 'All trained classification models correctly predict the COVID-19 as 349 Betacoronavirus, see Table 2 .', 'MLDSP-GUI obtains 100% classification accuracy for 354 this additional test and still predicts all of the COVID-19 sequences as Betacoronavirus.', '355 These tests confirm that the COVID-19 are from the genus Betacoronavirus.', 'This suggests substantial similarity between COVID-19 and 364 the Sarbecovirus sequences.', 'Test-5 and Test-6 (see Table 3 ) are designed to verify that 365 COVID-19 sequences can be differentiated from the known species in the 366 Betacoronavirus genus.', 'This 368 shows that although COVID-19 and Sarbecovirus are closer on the basis of genomic 369 similarity (Test-4), they are still distinguishable from known species.', 'Therefore, these 370 results suggest that COVID-19 may represent a genetically distinct species of 371 Sarbecovirus.', 'All COVID-19 virues are visually seen in MoDMap3D generated from 372 Test-5 (see Figure 2 (b)) as a closely packed cluster and it supports a fact that there is 373 99% similarity among these sequences [12, 31] .', 'The MoDMap3D generated from the 374 Test-5 (Figure 2(b) ) visually suggests and the average distances from COVID-19 375 sequences to all other sequences confirm that the COVID-19 sequences are most 376 proximal to the RaTG13 (distance: 0.0203), followed by the bat-SL-CoVZC45 (0.0418), 377 and bat-SL-CoVZX21 (0.0428).', 'The phylogenetic tree placed the RaTG13 sequence closest to the COVID-19 380 sequences, followed by the bat-SL-CoVZC45 and bat-SL-CoVZX21 sequences.', '383 We further confirm our results regarding the closeness of COVID dinucleotides in their genomes, otherwise known as CG suppression [81, 82] .', '423\n\nAdditional mammalian mechanisms for inhibiting viral RNA have been highlighted for 424 retroviruses with the actions of zinc-finger antiviral protein (ZAP) [81] .', "The 432 Spearman's rank correlation data and the patterns observed in the CGR images from 433 Figure 4 , of the coronavirus genomes, including COVID-19 identify patterns such as CG 434 underepresentation, also present in vertebrate and, importantly, bat host genomes.", 'Due to the high amino acid similarities between 438 COVID-19 and SARS-CoV main protease essential for viral replication and processing, 439 anticoronaviral drugs targeting this protein and other potential drugs have been 440 identified using virtual docking to the protease for treatment of 441 COVID-19 [29, 44, 45, [91] [92] [93] [94] .', 'The human ACE2 receptor has also been identified as the 442 potential receptor for COVID-19 and represents a potential target for treatment [42, 43] .']</t>
+  </si>
+  <si>
+    <t>['\n\nThe newly identified coronavirus, COVID-19, was first reported in Wuhan, China on December 31, 2019.', 'Herein, we briefly discuss key cultural, policy and epidemiological aspects that might have contributed to this scenario.The COVID-19 belongs to the same family as SARS and the Middle East Respiratory Syndrome Coronavirus (MERS-CoV), and all are zoonotic infections.', 'The SARS-CoV 2002À03 epidemic originated from civet cats, sold in live wild animal markets À similar to the one in Wuhan, where COVID-19 has been linked to snakes, bats and pangolins [2] .', "In addition, their hygienic practices tend to be sub-optimal, contributing to transmission of a broad range of infections, including COVID-19.Another aspect that may have influenced COVID-19 rapid spread is China's highly centralized, hierarchical and bureaucratic surveillance and health response system.", "Almost two decades after the SARS-CoV epidemic, China's political system and pattern of crisis management may have jeopardized the country's initial response to COVID-19.Rapid spread of COVID-19 is also influenced by high population density and mobility.", "In response to COVID-19, the Chinese government restricted 'unnecessary or non-essential large-scale public gatherings' in late January, 2020, in anticipation of domestic and international travel of millions of people for the Chinese New Year celebration.", 'Thousands cruise ship passengers where COVID-19 cases were confirmed are been quarantined.', 'While these measures may have curtailed transmission, by February 19, 2020, COVID-19 was reported in roughly 30 countries, with almost 75,000 confirmed cases.', 'A recent mathematical modeling estimated that, by the end of January 2020, more than 75,000 people were infected with COVID-19 only in Wuhan [1] .', 'The World Health Organization (WHO) declared COVID-19 a Public Health Emergency of International Concern (PHEIC) on January 30, 2020 [5] .Substandard implementation of appropriate infection prevention and control measures could influence COVID-19 global spread.', 'These include early recognition, source control and additional precautions at point-of-care for persons under investigation or with confirmed COVID-19.', 'Healthcare workers are at increased risk; Dr. Li Wenliang, a Chinese ophthalmologist at Wuhan Central Hospital who was one of the first to warn the public about COVID-19 on 30 December 2019 (and was later detained for doing so), died from the virus at aged 33 on February 7, 2020.', 'More than 1,700 health care workers have been infected so far, with 6 fatalities.The myriad factors influencing the COVID-19 pandemic are not unique.', 'However, Ebola differs in mode of transmission (direct contact) and has a much higher case fatality rate (CFR; 50%À80%) [7] .The CFR and basic reproductive rate (Ro) of COVID-19 is still unknown.', 'Similarly, one patient with MERS-CoV transferred from Saudi Arabia to South Korea was linked to 186 additional MERS-CoV cases [8] .', 'COVID-19 could foster a similar scenario.', 'Inappropriate prevention and treatment strategies such as herbal remedies and exaggerated numbers of persons affected by COVID-19 cases have circulated on social media.', 'The COVID-19 pandemic, rapid spread and magnitude unleashed panic and episodes of racism against people of Asian descent.', 'Efforts to address this scenario in the COVID-19 and future epidemics need to consider traditional and social media communication, among other sources of information to curtail misinformation and prejudice.', 'To avoid a global pandemic, timely surveillance, epidemiologic information about the pathogenicity and transmissibility of COVID-19 are needed.', "Unfortunately, as of February 6, 2020, the COVID-19 scale constitutes a pandemic and China's delayed response influenced this scenario.", 'If strict control measures had been taken earlier, the result would have been better than now" [9] During the first reports from the Chinese government, COVID-19 was referred as "preventable and controllable".']</t>
+  </si>
+  <si>
+    <t>['The disease was named COVID-19 by the World Health Organization (WHO) [2] .To date, most SARS-CoV-2 infected patients have developed mild symptoms such as dry cough, sore throat, and fever.', 'WHO global health emergency\n\nOn 30th January 2020, the WHO declared the Chinese outbreak of COVID-19 to be a Public Health Emergency of International Concern posing a high risk to countries with vulnerable health systems.', 'The emergency committee have stated that the spread of COVID-19 may be interrupted by early detection, isolation, prompt treatment, and the implementation of a robust system to trace contacts [5] .', 'In light of this, various bodies have committed to making articles pertaining to COVID-19 immediately available via open access to support a unified global response [6] .https://doi.org/10.1016/j.ijsu.2020.02.034 Received 3 February 2020; Received in revised form 17 February 2020; Accepted 24 February 2020\n\nGlobal response\n\nEfforts aimed at deciphering the pathophysiology of COVID-19 have led to the EU mobilising a €10,000,000 research fund to "contribute to more efficient clinical management of patients infected with the virus, as well as public health preparedness and response" [7] .', "Regarding diagnostic testing, US-based companies such as Co-Diagnostics and the Novacyt's molecular diagnostics division Primerdesign have launched COVID-2019 testing kits for use in the research setting [8, 9] .", 'The United Kingdom (UK) government have also invested £20,000,000 to help develop a COVID-19 vaccine [10] .', 'Strikers are demanding that the border to mainland China be closed completely to prevent further COVID-19 transmission.', 'Confirmed UK cases and British response\n\nAs of 4th March 2020, a total of 16,659 tests for COVID-19 have been conducted across the UK.', 'Any detected cases of COVID-19 should be transferred to an Airborne High Consequence Infectious Diseases (HCID) centre, including the two principal centres in England (the Royal Free Hospital in London and the Newcastle Royal Victoria Infirmary).The DoH and UK Chief Medical Officers have also advised individuals having visited Wuhan and the Hubei Province in the last 14 days to remain indoors and to call NHS 111.', 'Viral transmission and spread\n\nThere are currently few studies that define the pathophysiological characteristics of COVID-19, and there is great uncertainty regarding its mechanism of spread.', 'However, there is an increasing body of evidence to suggest that human-to-human transmission may be occurring during the asymptomatic incubation period of COVID-19, which has been estimated to be between 2 and 10 days [20] [21] [22] .As of 3rd March 2020, 90,870 cases of COVID-19 have been confirmed, 80,304 of which are confined to China.', 'Prevention\n\nVarious bodies including the WHO and US Centers for Disease Control and Prevention (CDC) have issued advice on preventing further spread of COVID-19 [20, 24] .', 'They recommend avoiding travel to highrisk areas, contact with individuals who are symptomatic, and the consumption of meat from regions with known COVID-19 outbreak.', 'Diagnosis\n\nClinical features of COVID-19 include dry cough, fever, diarrhoea, vomiting, and myalgia.', 'The WHO and CDC have both issued guidance on key clinical and epidemiological findings suggestive of a COVID-19 infection (Table 1 ) [27] .', 'Patients may present with an elevated C-reactive protein, erythrocyte sedimentation rate, lactate dehydrogenase, creatinine, and a prolonged prothrombin time [4] .Full genome sequencing and phylogenetic analysis on fluid from bronchoalveolar lavage can confirm COVID-2019 infection [29] .', 'Treatment\n\nAt present, no effective antiviral treatment or vaccine is available for COVID-19.', 'However, a randomized multicentre controlled clinical trial is currently underway to assess the efficacy and safety of abidole in patients with COVID-19 (ChiCTR2000029573).', 'Oseltamivir, a neurominidase inhibitor, is currently being used by medical staff in China for suspected infections despite the lack of any conclusive evidence regarding its effectiveness on COVID-19.', 'Glucocorticoids may also be considered for patients with severe immune reactions.', 'The current reported mortality for COVID-19 is approximately 3.4% compared with 9.6% for SARS [37] and 34.4% for Middle East respiratory syndrome (MERS) [38] .', 'The clinical features of COVID-19 versus its distance relative SARS are summarised in Table 2 .', 'To date, COVID-19 has been shown to have a mean incubation period of 5.2 days and a median duration from the onset of symptoms to death of 14 days [22, 39] , which is comparable to that of MERS [40] .', 'COVID-19 pathophysiology\n\nCOVID-19 is caused by SARS-CoV-2, a betacoronavirus.', 'The wider consequences of COVID-19\n\nChina is integral to nearly every sector of the global economy.', 'The recent outbreak of the COVID-19 has already challenged an economy strained by trade wars with the US; national growth hit a 30year low in 2019 [58] .', 'The key difference between COVID-19 and SARS however is the complexity of supply chains that China is now enmeshed in.', 'Lessons learned from the COVID-19 outbreak\n\nThe international response to COVID-19 has been more transparent and efficient when compared to the SARS outbreak.', 'However, several learning points should be taken away from COVID-19 in the event of future outbreaks (Table 3) .', 'Conclusion\n\nThe recent COVID-19 outbreak has been deemed a global health emergency.', 'It is perhaps clear that quarantine alone may not be sufficient to prevent the spread of COVID-19, and the global impact of this viral infection is one of heightening concern.', 'Evidently, the pandemic potential of COVID-19 demands rigorous surveillance and on-going monitoring to accurately track and potentially predict its future host adaptation, evolution, transmissibility, and pathogenicity.', 'However, the rapidly evolving nature of the COVID-2019 epidemic, ever changing statistics, and constant unravelling of new research findings represents a major limitation to the present review.']</t>
+  </si>
+  <si>
+    <t>['The outbreak of COVID-19 was first reported in Wuhan, Hubei province, China on December 2019, has now rapidly spread over 50 countries.', 'Fever (88%), cough (67%), and fatigue (34%)were the most common symptoms presented by COVID-19 patients 3 which were similar to those with infections caused by other respiratory viruses, such as Influenza A/B, respiratory syncytial virus, and rhinovirus.', '4, 5 For the prevention and control of COVID-19, Taiwan Centers for Disease Control (CDC) initiated testing of SARS-CoV-2 on January 24 th 2020 for persons who had a travel history to China and presented fever or any respiratory symptoms within 14 days.', 'Until February 28 th , 2105 cases were screened and 34 of them were diagnosed of COVID-19.', 'Through multiplex PCR analysis with FilmArray TM Respiratory Panel, the non-COVID-19 patients were later diagnosed of infections with other respiratory pathogens.', 'Undoubtedly, early screening and diagnosis is crucial for the treatment and control of COVID-19.', 'To establish the diagnostic protocol for this disease, in this report, we comparatively analyzed the clinical presentations, laboratory data, radiologic findings, and travel and exposure contact histories, of the COVID-19 patients with those with other respiratory infections.', 'During January 20 th to February 19 th 2020, a total of 43 patients who were admitted to China Medical University Hospital (CMUH) met the screening criteria of COVID-19 reported by Taiwan CDC.', 'For cases reporting of COVID-19 infection, blood tests were performed after their admission to the negative pressure isolation wards.', 'Results\n\nA total of 43 patients suspected with COVID-19 were admitted to CMUH during January 20 th to February 19 th 2020.', 'Of the 10 patients who had contact history, 4 had close contact with people who visited Guangdong or Hubei province, and 6 had connected to COVID-19 patients.', 'The two COVID-19 patients confirmed in this study had no travel or contact history with people who had been to China but had a family dinner on 27 th January with the patient who was the first COVID-19 mortality case (Taiwan NO.', 'About 44% of the non-COVID19 patients had at least one comorbidity; however, the two confirmed cases, COVID-19 patients A and B, presented no comorbid conditions.', 'Clinical course of COVID-19 patient A and B.', 'The first symptom of COVID-19\n\npatient A was sore throat, which developed on the day (28 th January, illness day 1; Figure   1A ) and had dry cough as the primary manifestation that persisted until illness day 19.During the third sampling on 24 th February, the loads of SARS-CoV-2 in the naso-oropharyngeal specimens from COVID-19 patients A and B were both at an undetectable level.', 'Clinical features and laboratory data of COVID-19 patients in comparison\n\nwith non-COVID-19 group.', 'The most common symptoms reported by both groups included fever (56%) and nonproductive cough (53%), followed by rhinorrhea (37%), sore throat (21%), productive cough (21%), and dyspnea (9%) ( Table 1) Both the COVID-19 patients had normal white blood cell (WBC) counts without lymphocytopenia and the neutrophil to lymphocyte ratio in the normal range (Table 2) .Of the non-COVID-19 patients, 83% had normal WBC counts and 29% had lymphocytopenia.', 'No statistically significant differences were found between the COVID-19 and non-COVID-19 groups in levels of creatinine, aspartate aminotransferase (AST), alanine aminotransferase (ALT), bilirubin, C-reactive protein (CRP), creatine kinase (CK), and lactate dehydrogenase (LDH) ( Table 2) .', 'Detection of respiratory pathogens for non-COVID-19 patients.', 'FilmArray TM Respiratory Panel, a multiplex PCR assay that comprehensively detects 20 respiratory viruses and bacteria 8 \n\nDiscussion\n\nIn comparison with non-COVID-19 patients, no specific symptoms or laboratory data were noted in the early phase of COVID-19 illness.', 'As demonstrated in this report, the development of mild COVID-19 illness was insidiously initiated and persisted for a long period.', 'The prolonged duration of SARS-CoV-2 detection in naso-oropharyngeal specimens of the COVID-19 patients with mild illness is of concern in epidemic areas.Clinical manifestations of viral respiratory infections range from asymptomatic or flu-like symptoms such as fever, nonproductive or productive cough, myalgia, rhinorrhea, and sore throat, to acute respiratory distress syndrome (ARDS) or multiple organs failure.', '10 COVID-19 is highly contagious.', '5 Although mild illness without lymphocytopenia was developed in both the COVID-19 patients A and B, who had no comorbid conditions, the loads of SARS-CoV-2 persisted for a long duration ( Figure   1B ).', 'Some COVID-19 patients who were considered recovered after symptoms resolved still carried detectable levels of SARS-CoV-2 for 5 to 13 days.', '19 The naso-oropharyngeal specimens, collected from the third sampling of COVID-19 patients A and B, showed negative for SARS-CoV-2.', 'Until 6 th March, the two COVID-19 patients are still in the isolation room, pending for the latest sputum rRT-PCR results.', 'Despite of mild upper and lower respiratory tract symptoms, COVID-19 patient A suffered from diarrhea throughout the illness course.', 'Consistent with the recent study that gastrointestinal symptoms, including diarrhea, vomiting, and abdominal pain, were developed in some COVID-19 patients.', 'Potential fecal-oral transmission in patients with COVID-19 is of concern.Seasonal viral respiratory pathogens prevalent in Taiwan']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'action', 'action', 'action', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'action', 'action', 'plan', 'covid', 'action', 'plan', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'action']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'action', 'covid', 'covid', 'covid', 'covid', 'action', 'action', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'action', 'action', 'covid', 'action', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'action', 'action', 'covid', 'action', 'action', 'action', 'covid', 'covid', 'covid', 'covid', 'action', 'plan', 'covid', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'plan', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'covid', 'crisis', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'transfer', 'covid', 'covid', 'covid', 'covid', 'transfer', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'plan', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'plan', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'plan', 'covid', 'covid', 'covid', 'crisis']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'learning', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'learning', 'covid', 'covid', 'learning', 'learning', 'learning', 'covid', 'learning', 'covid', 'plan', 'covid', 'learning', 'covid', 'learning', 'covid', 'learning', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'learning', 'learning', 'covid', 'learning', 'covid', 'learning', 'covid', 'covid', 'learning', 'learning', 'covid', 'learning', 'covid', 'covid', 'learning', 'covid', 'covid', 'learning', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'crisis', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'transfer', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'transfer', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'transfer', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
   </si>
 </sst>
 </file>
@@ -597,16 +576,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>26118</v>
+        <v>22700</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -617,19 +596,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>16318</v>
+        <v>5011</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -637,45 +619,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>11207</v>
+        <v>27534</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>23238</v>
+        <v>25855</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -683,42 +659,48 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>16411</v>
+        <v>25903</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>23481</v>
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -726,77 +708,62 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>17250</v>
+        <v>691</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>16376</v>
+        <v>10073</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>15295</v>
+        <v>18427</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -804,25 +771,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>1155</v>
+        <v>22433</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/EUvsVirus/output/Q4.xlsx
+++ b/EUvsVirus/output/Q4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Title</t>
   </si>
@@ -37,76 +37,84 @@
     <t>Search_words</t>
   </si>
   <si>
+    <t>Deep Learning-based Detection for COVID-19 from Chest CT using Weak Label</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
+    <t>Machine learning using intrinsic genomic signatures for rapid classification of novel pathogens: COVID-19 case study</t>
+  </si>
+  <si>
     <t>First two months of the 2019 Coronavirus Disease (COVID-19) epidemic in China: real- time surveillance and evaluation with a second derivative model</t>
   </si>
   <si>
-    <t>Long-Term Care Facilities and the Coronavirus Epidemic: Practical Guidelines for a Population at Highest Risk</t>
-  </si>
-  <si>
-    <t>Deep Learning-based Detection for COVID-19 from Chest CT using Weak Label</t>
-  </si>
-  <si>
-    <t>Machine learning using intrinsic genomic signatures for rapid classification of novel pathogens: COVID-19 case study</t>
-  </si>
-  <si>
-    <t>Journal Pre-proof Featuring COVID-19 cases via screening symptomatic patients with epidemiologic link during flu season in a medical center of central Taiwan</t>
+    <t>Clinical characteristics and intrauterine vertical transmission potential of COVID-19 infection in nine pregnant women: a retrospective review of medical records</t>
+  </si>
+  <si>
+    <t>Prevalence and clinical features of 2019 novel coronavirus disease (COVID-19) in the Fever Clinic of a teaching hospital in Beijing: a single-center, retrospective study</t>
+  </si>
+  <si>
+    <t>Novel Coronavirus (COVID-19) Knowledge and Perceptions: A Survey of Healthcare Workers</t>
+  </si>
+  <si>
+    <t>0e38333bff68345492526fd39b70d1b18969cb83</t>
+  </si>
+  <si>
+    <t>861f05718b673306c2044167d92bb31d68a0d9bb</t>
+  </si>
+  <si>
+    <t>abd14114f1b875b20ba10ea9a88d0dd7899e4c7e</t>
   </si>
   <si>
     <t>882219fd09765ece5b362415882397e78972373e</t>
   </si>
   <si>
+    <t>bb8e3d331bb2975e1c644c8729b842797da2d626</t>
+  </si>
+  <si>
     <t>469ed0f00c09e2637351c9735c306f27acf3aace</t>
   </si>
   <si>
+    <t>0f15655bda78c3a62a03a19d8028f8f5cf5a1ef5</t>
+  </si>
+  <si>
+    <t>0eee9760aee0ca2fdf8d1d215c3689d5f8d84df5</t>
+  </si>
+  <si>
+    <t>f734d47a423cbe54ec0cc9b2dee39470cf74fd9b</t>
+  </si>
+  <si>
     <t>b40159b406d4be046f9e60d3ed65d94ea46879fb</t>
   </si>
   <si>
-    <t>91334a1ca7778c46bc8a73aaed4e7051cf05738b</t>
-  </si>
-  <si>
-    <t>49391a17a2ab396eee878283e8a81d27c69f0ba0</t>
-  </si>
-  <si>
-    <t>0e38333bff68345492526fd39b70d1b18969cb83</t>
-  </si>
-  <si>
-    <t>bb8e3d331bb2975e1c644c8729b842797da2d626</t>
-  </si>
-  <si>
-    <t>995e8964959188fdd8a8c7b813717e1f3cf714d3</t>
-  </si>
-  <si>
-    <t>5cb5e6a2d2fb1eb4ab85598211846a7061b24e92</t>
-  </si>
-  <si>
-    <t>98b433f47b392ae93d124c96efa8df3385f72d5b</t>
+    <t>Chuangsheng Zheng, Xianbo Deng, Qiang Fu, Qiang Zhou, Jiapei Feng, Hui Ma, Wenyu Liu, Xinggang Wang</t>
+  </si>
+  <si>
+    <t>Laëtitia Atlani-Duault, Jeremy K Ward, Melissa Roy, Céline Morin, Andrew Wilson</t>
+  </si>
+  <si>
+    <t>Gurjit S Randhawa, P M Maximillian,  Soltysiak, Hadi El Roz, Camila P E De Souza, Kathleen A Hill, Lila Kari</t>
   </si>
   <si>
     <t>Xinguang Chen, Bin Yu</t>
   </si>
   <si>
+    <t>Huijun Chen, Juanjuan Guo, Chen Wang, Fan Luo, Xuechen Yu, Wei Zhang, Jiafu Li, Dongchi Zhao, Dan Xu, Qing Gong, Jing Liao, Huixia Yang, Wei Hou, Yuanzhen Zhang</t>
+  </si>
+  <si>
+    <t>Ying Liang, Jingjin Liang, Qingtao Zhou, Xiaoguang Li, Fei Lin, Zhonghua Deng, Biying Zhang, Lu Li, Xiaohua Wang, Hong Zhu, Qingbian Ma, Xiaomei Tong, Jie Xu, Yongchang Sun</t>
+  </si>
+  <si>
+    <t>Akshaya Srikanth Bhagavathula, Wafa Ali Aldhaleei, Jamal Rahmani, Mohammadjavad Ashrafi Mahabadi, Deepak Kumar Bandari, Mohmmadjavad Mahabadi, Deepak Bandari, Srikanth Akshaya,  Bhagavathula</t>
+  </si>
+  <si>
     <t>Luke Dray, / Stringer, / Getty, Images Comment</t>
   </si>
   <si>
-    <t>David Dosa, Robin L P Jump, Kerry Laplante,  Fidsa, Stefan Gravenstein</t>
-  </si>
-  <si>
-    <t>Chuangsheng Zheng, Xianbo Deng, Qiang Fu, Qiang Zhou, Jiapei Feng, Hui Ma, Wenyu Liu, Xinggang Wang</t>
-  </si>
-  <si>
-    <t>Gurjit S Randhawa, P M Maximillian,  Soltysiak, Hadi El Roz, Camila P E De Souza, Kathleen A Hill, Lila Kari</t>
-  </si>
-  <si>
-    <t>Monica Malta, Anne W Rimoin, Steffanie A Strathdee</t>
-  </si>
-  <si>
-    <t>Catrin Sohrabi, Zaid Alsafi, Niamh O&amp;apos;neill, Mehdi Khan, Ahmed Kerwan, Ahmed Al-Jabir, Christos Iosifidis, Riaz Agha</t>
-  </si>
-  <si>
-    <t>Wen-Hsin Hsih, Meng-Yu Cheng, Mao-Wang Ho, Chia-Huei Chou, Po-Chang Lin, Chih-Yu Chi, Wei-Chih Liao, Chih-Yu Chen, Lih-Ying Leong, Ni Tien, Huan-Cheng Lai, Yi-Chyi Lai, Min-Chi Lu</t>
+    <t xml:space="preserve">Abstract
+Accurate and rapid diagnosis of COVID-19 suspected cases plays a crucial role in timely quarantine and medical treatment. Developing a deep learning-based model for automatic COVID-19 detection on chest CT is helpful to counter the outbreak of SARS-CoV-2. A weakly-supervised deep learning-based software system was developed using 3D CT volumes to detect COVID-19. For each patient, the lung region was segmented using a pre-trained UNet; then the segmented 3D lung region was fed into a 3D deep neural network to predict the probability of COVID-19 infectious. 499 CT volumes collected from Dec. 13, 2019, to Jan. 23, 2020, were used for training and 131 CT volumes collected from Jan 24, 2020, to Feb 6, 2020, were used for testing. The deep learning algorithm obtained 0.959 ROC AUC and 0.976 PR AUC. There was an operating point with 0.907 sensitivity and 0.911 specificity in the ROC curve. When using a probability threshold of 0.5 to classify COVID-positive and COVID-negative, the algorithm obtained an accuracy of 0.901, a positive predictive value of 0.840 and a very high negative predictive value of 0.982. The algorithm took only 1.93 seconds to process a single patient's CT volume using a dedicated GPU. Our weaklysupervised deep learning model can accurately predict the COVID-19 infectious probability in chest CT volumes without the need for annotating the lesions for training. The easily-trained and highperformance deep learning algorithm provides a fast way to identify COVID-19 patients, which is beneficial to control the outbreak of SARS-CoV-2. The developed deep learning software is available at https://github.com/sydney0zq/covid-19-detection.
+</t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
@@ -115,73 +123,75 @@
   </si>
   <si>
     <t xml:space="preserve">Abstract
-Accurate and rapid diagnosis of COVID-19 suspected cases plays a crucial role in timely quarantine and medical treatment. Developing a deep learning-based model for automatic COVID-19 detection on chest CT is helpful to counter the outbreak of SARS-CoV-2. A weakly-supervised deep learning-based software system was developed using 3D CT volumes to detect COVID-19. For each patient, the lung region was segmented using a pre-trained UNet; then the segmented 3D lung region was fed into a 3D deep neural network to predict the probability of COVID-19 infectious. 499 CT volumes collected from Dec. 13, 2019, to Jan. 23, 2020, were used for training and 131 CT volumes collected from Jan 24, 2020, to Feb 6, 2020, were used for testing. The deep learning algorithm obtained 0.959 ROC AUC and 0.976 PR AUC. There was an operating point with 0.907 sensitivity and 0.911 specificity in the ROC curve. When using a probability threshold of 0.5 to classify COVID-positive and COVID-negative, the algorithm obtained an accuracy of 0.901, a positive predictive value of 0.840 and a very high negative predictive value of 0.982. The algorithm took only 1.93 seconds to process a single patient's CT volume using a dedicated GPU. Our weaklysupervised deep learning model can accurately predict the COVID-19 infectious probability in chest CT volumes without the need for annotating the lesions for training. The easily-trained and highperformance deep learning algorithm provides a fast way to identify COVID-19 patients, which is beneficial to control the outbreak of SARS-CoV-2. The developed deep learning software is available at https://github.com/sydney0zq/covid-19-detection.
+Background Previous studies on the pneumonia outbreak caused by the 2019 novel coronavirus disease (COVID-19) were based on information from the general population. Evidence of intrauterine vertical transmission was assessed by testing for the presence of SARS-CoV-2 in amniotic fluid, cord blood, and neonatal throat swab samples. Breastmilk samples were also collected and tested from patients after the first lactation., sore throat (in two), and malaise (in two), were also observed. Fetal distress was monitored in two cases. Five of nine patients had lymphopenia (&lt;1·0 × 10⁹ cells per L). Three patients had increased aminotransferase concentrations. None of the patients developed severe COVID-19 pneumonia or died, as of Feb 4, 2020. Nine livebirths were recorded. No neonatal asphyxia was observed in newborn babies. All nine livebirths had a 1-min Apgar score of 8-9 and a 5-min Apgar score of 9-10. Amniotic fluid, cord blood, neonatal throat swab, and breastmilk samples from six patients were tested for SARS-CoV-2, and all samples tested negative for the virus.Interpretation The clinical characteristics of COVID-19 pneumonia in pregnant women were similar to those reported for non-pregnant adult patients who developed COVID-19 pneumonia. Findings from this small group of cases suggest that there is currently no evidence for intrauterine infection caused by vertical transmission in women who develop COVID-19 pneumonia in late pregnancy.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
-Background. Coronavirus disease 2019 , caused by severe acute respiratory syndrome coronavirus 2 (SARS-CO-V-2), was first reported in Wuhan, Hubei province, China has now rapidly spread over 50 countries. For the prevention and control of infection, Taiwan Centers for Disease Control initiated testing of SARS-CoV-2 on January 24 th 2020 for persons suspected with this disease. Until February 28 th , 43 flu-like symptomatic patients were screened in China Medical University Hospital. Methods. Two patients were confirmed positive for SARS-CoV-2 infection by rRT-PCR as COVID-19 patients A and B. Causative pathogens for included patients were detected using FilmArray TM Respiratory Panel. We retrospectively analyzed the clinical presentations, laboratory data, radiologic findings, and travel and exposure contact histories, of the COVID-19 patients in comparison to those with other respiratory infections. Results. Through contact with Taiwan No. 19 case patient on 27 th January, COVID-19 patients A and B were infected. Both patients had no identified comorbidities and developed mild illness with temporal fever, persistent cough, and lung interstitial infiltrates. Owing to the persistence of positive SARS-CoV-2 in respiratory specimen, the two COVID-19 patients are still in the isolation rooms despite recovery until 10 th of March. The results of FilmArray TM Respiratory Panel revealed 22 of the 41 non-COVID-19 patients were infected by particular pathogens.In general, seasonal respiratory pathogens are more prevalent than SARS-CoV-2 in symptomatic patients in non-COVID-19 endemic area during the flu season. Since all patients shared similar clinical and laboratory findings, expanded surveillance of detailed exposure history for suspected patients and application of rapid detection tools are highly recommended.
+Background With the spread of COVID-19 from Wuhan, Hubei Province to other areas of the country, medical staff in Fever Clinics faced the challenge of identifying suspected cases among febrile patients with acute respiratory infections. We aimed to describe the prevalence and clinical features of COVID-19 as compared to pneumonias of other etiologies in a Fever Clinic in Beijing.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Abstract
+Background: During the first week of March, the surge of coronavirus disease 2019 cases reached over 100 countries with more than 100,000 cases. Healthcare authorities have already initiated awareness and preparedness activities beyond borders. A poor understanding of the disease among healthcare workers (HCWs) may result in delayed treatment and the rapid spread of infection. This study aimed to investigate the knowledge and perceptions of HCWs about COVID-19.A cross-sectional, web-based study was conducted among HCWs about COVID-19 during the first week of March 2020. A 23-item survey instrument was developed and distributed randomly to HCWs using social media; it required 5 minutes to complete. A chisquare test was used to investigate the level of association among variables at the significance level of p&lt;0.05.Of 529 participants, a total of 453 HCWs completed the survey (response rate: 85.6%); 51.6% were males, 32.1% were aged 25-34 years, and most were doctors (30.2%) and medical students (29.6%). Regarding COVID-19, most of the participants used social media to obtain information (61%), and a significant proportion of HCWs had poor knowledge of its transmission (61%) and symptom onset (63.6%) and showed positive perceptions of COVID-19 prevention and control. Factors such as age and profession were associated with inadequate knowledge and poor perception of COVID-19.As the global threat of COVID-19 continues to emerge, it is critical to improve the knowledge and perceptions of HCWs. Educational interventions are urgently needed to reach HCWs beyond borders, and further studies are warranted.
+</t>
+  </si>
+  <si>
+    <t>['Introduction\n\nhuge amount of efforts for radiologists, which is not acceptable when COVID-19 is spreading fastly and there are great shortages for radiologists.', 'Thus, performing COVID-19 detection in a weakly-supervised manner is of great importance.', 'One of the simplest labels for COVID-19 detection is the patient-level, i.e., indicating the patient is COVID-19 positive or negative.', 'Therefore, aim of current study was to investigate the potential of a deep learning-based model for automatic COVID-19 detection on chest CT volumes using the weak patient-level label, for the sake of rapid diagnosis of COVID-19 at this critical situation to help to counter this outbreak, especially within Wuhan, Hubei province, China.', 'Material and methods\n\nPatients This retrospective study was approved by Huazhong University of Science and Technology ethics committee, patient consent was waived due to the retrospective nature of this study.Between Dec. 13, 2019 to Feb. 6, 2020, we searched unenhanced chest CT scans of patients with suspected COVID-19 from the picture archiving and communication system (PACS) of radiology department (Union Hospital, Tongji Medical College, Huazhong University of Science and Technology).', 'Finally, 540 patients (mean age, 42.5±16.1 years; range, 3-81 years, male 226, female 314) were enrolled into this study, including 313 patients (mean age, 50.7±14.7 years; range, 8-81 years; male 138, female 175) with clinical diagnosed COVID-19 (COVID-positive group) and 229 patients (mean age, 31.2±10.0 years; range, 3-69 years; male 88, female 141) without COVID-19 (COVID-negative group).', 'There was no significant difference in sex between the two groups (χ 2 =1.744; P=0.187), age in COVIDpositive group significantly higher than that of COVID-negative group (t=17.09; P&lt;0.001).', 'The first case (female, year 66) was diagnosed as COVID-19 negative on Jan 24, 2020, then changed into COVID-positive on Feb 6, 2020; the second case (female, year 23) was diagnosed as COVID-19 positive on Jan 24, 2020, then changed into COVID-negative on Feb 3, 2020.', 'All the CT volumes scanned on and before Jan 23, 2020, were assigned for deep learning training, and all the CT volumes scanned after Jan 23, 2020, were assigned for deep learning testing.', 'CC-BY-NC-ND 4.0 International license It is made available under a author/funder, who has granted medRxiv a license to display the preprint in perpetuity.is the (which was not peer-reviewed) The copyright holder for this preprint .COVID-19 has been regarded as current standard for clinical diagnostic cases in severely affected areas only in Hubei Province, indicating that chest CT is fundamental for COVID-19 identification of clinically diagnosed cases.Typical CT findings for COVID-19 are also listed: multifocal small patchy shadowing and interstitial abnormalities in the early stage, especially for the peripheral area of the bilateral lungs.', 'In severe cases, pulmonary diffuse consolidation may occur and pleural effusion is rarely shown.The combination of epidemiologic features (travel or contact history), clinical signs and symptoms, chest CT, laboratory findings and real-time RT-PCR (if available) for SARS-CoV-2 nucleic acid testing is used for the final identification of COVID-19.', 'According to the CT reports, if a CT scan was COVID-positive, its ground-truth label was 1; otherwise, the label was 0.', 'The network took a CT volume with its 3D lung mask as input and directly output the probabilities of COVID-positive and COVID-negative.The Proposed DeCoVNet We proposed a 3D deep convolutional neural Network to Detect COVID-19 (DeCoVNet) from CT volumes.', 'ProClf progressively abstracts the information in the CT volumes by 3D max-pooling and finally directly output the probabilities of being COVID-positive and COVID-negative.', 'The 3D lung mask of an input chest CT volume helped to reduce background information and better detect COVID-19.', 'The input size is 2 × T × 192 × 288. segmented the lung regions using an unsupervised learning method [20] , removed the failure cases manually, and the rest segmentation results were taken as ground-truth masks.', 'The overall training and testing procedures of UNet and DeCoVNet for COVID-19 detection were illustrated in Fig.', 'The network was trained for 100 epochs using Adam optimizer [22] with a constant learning rate of 1e-5.', 'The trained DeCoV-Net took the preprocessed CT-Mask volume of each patient and output the COVID-positive probability as well as COVID-negative probability.', 'Then the predicted probabilities of all patients and their corresponding ground-truth labels were collected for statistical analysis.The cohort for studying the COVID-19 detection contained 630 CT scans collected from Dec 13, 2019 to Feb 6, 2020.', 'Of the training volumes, 15% were randomly selected for hyperparameter tuning during the training stage.Statistical Analysis COVID-19 detection results were reported and analyzed using receiver operating characteristic (ROC) and precision-recall (PR) curves.', 'ROC AUC, PR AUC, and some key operating points were used to assess the deep learning algorithm.', 'The software for COVID-19 detection with the pre-trained model as well as the results was available at https://github.com/sydney0zq/covid-19-detection, which will be made publicly available on the publication of this paper.', 'For every testing CT scan, we used the trained DeCoVNet to predict its probability of COVID-19.', 'On the PR curve, our model obtained a PR AUC of 0.975.When using the threshold of 0.5 to make COVID-19 detection prediction (i.e., if the probability of COVID-19 was larger than 0.5, the patient was classified as COVID-positive, and vice versa), the algorithm obtained an accuracy of 0.901 with a positive predictive value (PPV) of 0.840 and a negative predictive value (NPV) of 0.982.', 'By varying the probability threshold, we obtained a series of COVID-19 detection accuracy, PPV and NPV in Table 2 .', 'Our data showed that the COVID-19 prediction accuracy obtained by the DeCoVNet algorithm was higher than 0.9 when the threshold ranged from 0.2 to 0.5.', 'In images corresponding to the true positive and the false negative, the lesions of COVID-19 were annotated by red arrows.', '5 (F) showed the only false positive prediction, in which the respiratory artifact had been mistaken as a COVID-19 lesion by the DeCoVNet algorithm.', 'Discussion\n\nTo our knowledge, this is the first study to perform weakly-supervised computer-aided COVID-19 detection with a large number of CT volumes from the frontline hospital at the present epidemic period.', 'By designing an effective weakly-supervised deep learning-based algorithm and training it on CT volumes collected before Jan 23, 2020 with only patient-level labels, the testing results on 131 CT scans collected from Jan 24, 2020, to Feb 6, 2020, were very impressive, e.g., the PR AUC value was 0.975.', 'Though there were many effective applications of medical AI in previous studies [13, 23] , developing AI for automatic COVID-19 detection was still a challenging task.', 'Firstly, in the current emergency situation, the number of enrolled patients is relatively smaller compared with that used in previous studies [13, 23] ; and patients enrolled in our study were clinically diagnosed cases with COVID-19, because the majority of them did not undergo the nucleic acid testing due to the sudden outbreak and limited medical resource in such a short time period.', 'Secondly, the lesions of COVID-19 in CT volumes were not labeled by radiologists and only patientlevel labels (i.e., COVID-positive or COVID-negative) were utilized for training the AI algorithm in our study.', 'Thirdly, some small infected areas of COVID-19 have the potential to be missed even by professional radiologists, and whether it is feasible to be detected by deep learning-based 3D DCNN model remains unclear.', 'The second problem was solved by regarding the COVID-19 detection problem as a weakly-supervised learning problem [24] , i.e., detecting COVID-19 without annotating the regions of COVID-19 lesions.', 'In the designed DeCoVNet, we used the spatially global pooling layer and the temporally global pooling layer to technically handle the weakly-supervised COVID-19 detection problem.', 'The third problem was addressed by taking the advantages of deep learning and utilizing a pre-trained UNet for providing the lung masks to guide the learning of DeCoVNet.The deep learning-based COVID-19 diagnostic algorithm used in our study is effective compared to recent deep learning-based computer-aided diagnosis methods.', 'On the task of predicting the risk of lung cancer [13] , the deep learning model was trained on 42290 CT cases from 14851 patients and obtained 0.944 ROC AUC.', 'On the task of critical findings from head CT [23] , the deep learning model was trained on 310055 head CT scans and obtained ROC AUC of 0.920.', 'By comparing the data between them, it was able to find that the task of COVID-19 detection may be easier and the proposed deep learning algorithm was very powerful.', 'As for the erroneous 12 false negative predictions in our results, the most possible explanations after we rechecked the original CT images were listed as follows: those lesions were slightly increased in CT densities, and images of those ground-glass opacities were very faint without consolidation.Our study provided a typical and successful solution for developing medical AI for emerging diseases, such as COVID-19.', 'While we were developing this AI, doctors in Wuhan were still extremely busy with treating a huge number of COVID-19 patients and it may be impossible for them to annotate the lesions in CT volumes in the current austere fight against this epidemic.', 'In the future, the burden of AI experts could be lifted significantly by automatic machine learning (AutoML) [25] .Limitations of this study There are still several limitations in this study.', 'Third, when diagnosing COVID-19, the algorithm worked in a black-box manner, since the algorithm was based on deep learning and its explainability was still at an early stage.', 'Conclusion\n\nIn conclusion, without the need for annotating the COVID-19 lesions in CT volumes for training, our weakly-supervised deep learning algorithm obtained strong COVID-19 detection performance.', 'Therefore, our algorithm has great potential to be applied in clinical application for accurate and rapid COVID-19 diagnosis, which is of great help for the frontline medical staff and is also vital to control this epidemic worldwide.']</t>
+  </si>
+  <si>
+    <t>['Tracking online heroisation and blame in epidemics\n\nThe ongoing coronavirus disease 2019 (COVID-19) outbreak is giving rise to worldwide anxieties, rumours, and online misinformation.', 'Particularly fruitful paths to investigate, we believe, are the dynamics of heroisation and the creation of so-called figures of blame.Searching for someone to blame is part of the process of making sense of any disaster, akin to the phenomenon of moral panic.', '5 Conspiracy theories and misinformation are already circulating in traditional and social media about COVID-19.', 'What constitutes a hero during a time of crisis is nuanced and context-specific, however, and needs careful qualitative work to understand.', "All these figures can be seen emerging during the COVID-19 outbreak.Qualitative analysis can also identify issues in authorities' handling of crises, which crystallise around transparency.", '9, 10 In times of crisis, public authorities tend to focus their concern on avoiding panic and filtering the information they provide to the public.', 'It is during crises such as the COVID-19 outbreak that this trust is put to the test.Tracking heroisation and blame dynamics in realtime, as epidemics unfold, can help health authorities to understand public attitudes both to the threats posed by epidemics and the hope offered by health interventions, to fine-tune targeted health communication strategies accordingly, to identify and amplify local and international heroes, to identify and counter attempts to blame, scapegoat, and spread misinformation, and to improve crisis management practices for the future.', 'Such an approach can bring to the surface what we propose to call complex geographies of hope and blame, which public health authorities need to be aware of while planning responses to the epidemic.']</t>
+  </si>
+  <si>
+    <t>['Comment\n\nwww.thelancet.com/public-health Vol 5 March 2020 e137\n\nTracking online heroisation and blame in epidemics\n\nThe ongoing coronavirus disease 2019 (COVID-19) outbreak is giving rise to worldwide anxieties, rumours, and online misinformation.', 'Particularly fruitful paths to investigate, we believe, are the dynamics of heroisation and the creation of so-called figures of blame.Searching for someone to blame is part of the process of making sense of any disaster, akin to the phenomenon of moral panic.', '5 Conspiracy theories and misinformation are already circulating in traditional and social media about COVID-19.', 'What constitutes a hero during a time of crisis is nuanced and context-specific, however, and needs careful qualitative work to understand.', "All these figures can be seen emerging during the COVID-19 outbreak.Qualitative analysis can also identify issues in authorities' handling of crises, which crystallise around transparency.", '9, 10 In times of crisis, public authorities tend to focus their concern on avoiding panic and filtering the information they provide to the public.', 'It is during crises such as the COVID-19 outbreak that this trust is put to the test.Tracking heroisation and blame dynamics in realtime, as epidemics unfold, can help health authorities to understand public attitudes both to the threats posed by epidemics and the hope offered by health interventions, to fine-tune targeted health communication strategies accordingly, to identify and amplify local and international heroes, to identify and counter attempts to blame, scapegoat, and spread misinformation, and to improve crisis management practices for the future.', 'Such an approach can bring to the surface what we propose to call complex geographies of hope and blame, which public health authorities need to be aware of while planning responses to the epidemic.']</t>
+  </si>
+  <si>
     <t>['How will country-based mitigation measures influence the course of the COVID-19 epidemic?', 'In our view, COVID-19 has developed into a pandemic, with small chains of transmission in many countries and large chains resulting in extensive spread in a few countries, such as Italy, Iran, South Korea, and Japan.', '1 Most countries are likely to have spread of COVID-19, at least in the early stages, before any mitigation measures have an impact.What has happened in China shows that quarantine, social distancing, and isolation of infected populations can contain the epidemic.', '1 This impact of the COVID-19 response in China is encouraging for the many countries where COVID-19 is beginning to spread.', 'In both places, COVID-19 has been managed well to date, despite early cases, by early government action and through social distancing measures taken by individuals.The course of an epidemic is defined by a series of key factors, some of which are poorly understood at present for COVID-19.', 'A simple calculation gives the fraction likely to be infected without mitigation.', 'This fraction is roughly 1-1/R 0 .', 'With R 0 values for COVID-19 in China around 2·5 in the early stages of the epidemic, 2 we calculate that approximately 60% of the population would become infected.', '3 By contrast, for COVID-19, the serial interval is estimated at 4·4-7·5 days, which is more similar to SARS.', '4 First among the important unknowns about COVID-19 is the case fatality rate (CFR), which requires information on the denominator that defines the number infected.', 'We are unaware of any completed large-scale serology surveys to detect specific antibodies to COVID-19.', 'Best estimates suggest a CFR for COVID-19 of about 0·3-1%, 4 which is higher than the order of 0·1% CFR for a moderate influenza A season.', 'The incubation period for COVID-19 is about 5-6 days.', '7 There have been few clinical studies to measure COVID-19 viraemia and how it changes over time in individuals.', 'In one study of 17 patients with COVID-19, peak viraemia seems to be at the end of the incubation period, 8 pointing to the possibility that viraemia might be high enough to trigger transmission for 1-2 days before onset of symptoms.', 'If these patterns are verified by more extensive clinical virological studies, COVID-19 would be expected to be more like influenza A than SARS.', 'For SARS, peak infectiousness took place many days after first symptoms, hence the success of quarantine of patients with SARS soon after symptoms started 7 and the lack of success for this measure for influenza A and possibly for COVID-19.The third uncertainty is whether there are a large number of asymptomatic cases of COVID-19.', 'Estimates suggest that about 80% of people with COVID-19 have mild or asymptomatic disease, 14% have severe disease, and 6% are critically ill, 9 implying that symptom-based control is unlikely to be sufficient unless these cases are only lightly infectious.The fourth uncertainty is the duration of the infectious period for COVID-19.', 'The infectious period is typically short for influenza A, but it seems long for COVID-19 on the basis of the few available clinical virological studies, perhaps lasting for 10 days or more after the incubation period.', '10 What do these comparisons with influenza A and SARS imply for the COVID-19 epidemic and its control?', 'COVID-19 had a doubling time in China of about 4-5 days in the early phases.', '3 Second, the COVID-19 epidemic could be more drawn out than seasonal influenza A, which has relevance for its potential economic impact.', 'Third, the effect of seasons on transmission of COVID-19 is unknown; 11 however, with an R 0 of 2-3, the warm months of summer in the northern hemisphere might not necessarily reduce transmission below the value of unity as they do for influenza A, which typically has an R 0 of around 1·1-1·5.', '12 Closely linked to these factors and their epidemiological determinants is the impact of different mitigation policies on the course of the COVID-19 epidemic.A key issue for epidemiologists is helping policy makers decide the main objectives of mitigation-eg, minimising morbidity and associated mortality, avoiding an epidemic peak that overwhelms health-care services, keeping the effects on the economy within manageable levels, and flattening the epidemic curve to wait for vaccine development and manufacture on scale and antiviral drug therapies.', '13 For COVID-19, the potential economic impact of self-isolation or mandated quarantine could be substantial, as occurred in China .No vaccine or effective antiviral drug is likely to be available soon.', 'The number of cases of COVID-19 are falling quickly in China, 4 but a site for phase 3 vaccine trials needs to be in a location where there is ongoing transmission of the disease.', 'Some of the lessons from analyses of influenza A apply for COVID-19, but there are also differences.', 'The greater the reduction in transmission, the longer and flatter the epidemic curve (figure), with the risk of resurgence when interventions are lifted perhaps to mitigate economic impact.The key epidemiological issues that determine the impact of social distancing measures are what proportion of infected individuals have mild symptoms and whether these individuals will self-isolate and to what effectiveness; how quickly symptomatic individuals take to isolate themselves after the onset of symptoms; and the duration of any non-symptomatic infectious period before clear symptoms occur with the linked issue of how transmissible COVID-19 is during this phase.Individual behaviour will be crucial to control the spread of COVID-19.', 'Personal, rather than government action, in western democracies might be the most important issue.', 'Government actions to ban mass gatherings are important, as are good diagnostic facilities and remotely accessed health advice, together with specialised treatment for people with severe disease.', 'Isolating towns or even cities is not yet part of the UK Government action plan.', '15 This plan is light on detail, given the early stages of the COVID-19 epidemic and the many uncertainties, but it outlines four phases of action entitled contain, delay, research, and mitigate.', 'Italy, South Korea, Japan, and Iran are at the mitigate phase and trying to provide the best care possible for a rapidly growing number of people with COVID-19.The known epidemiological characteristics of COVID-19 point to urgent priorities.', 'Peak demand for health services could still be high and the extent and duration of presymptomatic or asymptomatic transmission-if this turns out to be a feature of COVID-19 infection-will determine the success of this strategy.', '17 Super-spreading events are inevitable, and could overwhelm the contact tracing system, leading to the need for broader-scale social distancing interventions.Data from China, South Korea, Italy, and Iran suggest that the CFR increases sharply with age and is higher in people with COVID-19 and underlying comorbidities.', '11 \n\nFigure: Illustrative simulations of a transmission model of COVID-19\n\nA baseline simulation with case isolation only (red); a simulation with social distancing in place throughout the epidemic, flattening the curve (green), and a simulation with more effective social distancing in place for a limited period only, typically followed by a resurgent epidemic when social distancing is halted (blue).', 'These are not quantitative predictions but robust qualitative illustrations for a range of model choices.See Online for appendices 2, 3 R 0 of 2·5 or higher, reductions in transmission by social distancing would have to be large; and much of the changes in transmission of pandemic influenza in the summer of 2009 within Europe were thought to be due to school closures, but children are not thought to be driving transmission of COVID-19.', 'Data from the southern hemisphere will assist in evaluating how much seasonality will influence COVID-19 transmission.Model-based predictions can help policy makers make the right decisions in a timely way, even with the uncertainties about COVID-19.', 'However, it is easy to suggest a 60% reduction in transmission will do it or quarantining within 1 day from symptom onset will control transmission, but it is unclear what communication strategies or social distancing actions individuals and governments must put in place to achieve these desired outcomes.', 'Ongoing data collection and epidemiological analysis are therefore essential parts of assessing the impacts of mitigation strategies, alongside clinical research on how to best manage seriously ill patients with COVID-19.There are difficult decisions ahead for governments.', 'How individuals respond to advice on how best to prevent transmission will be as important as government actions, if not more important.']</t>
   </si>
   <si>
+    <t>['\n\nSarbecovirus strains, the hypothesis that COVID-19 originated from bats is deemed very 56 likely [12, 34, 36, 39, [42] [43] [44] [45] .', 'Comparative genomics beyond 65 alignment-based approaches have benefited from the computational power of machine 66 learning.', 'Machine learning-based alignment-free methods have also been used 67 successfully for a variety of problems including virus classification [50] [51] [52] .', 'In this study, we use MLDSP [51] and MLDSP-GUI [52] with CGR as a 82 numerical representation of DNA sequences to assess the classification of COVID-19 83 from the perspective of machine learning-based alignment-free whole genome 84 comparison of genomic signatures.', 'Using MLDSP and MLDSP-GUI, we confirm that 85 the COVID-19 belongs to the Betacoronavirus, while its genomic similarity to the 86 sub-genus Sarbecovirus supports a possible bat origin.', '87 This paper shows how machine learning using intrinsic genomic signatures can 88 provide rapid alignment-free taxonomic classification of novel pathogens.', 'Our method 89 delivers accurate classifications of COVID-19 without a priori biological knowledge, by 90 a simultaneous processing of the geometric space of all relevant viral genomes.', 'The 91 main contributions are: 92 • Identifying intrinsic viral genomic signatures, and utilizing them for a real-time 93 and highly accurate machine learning-based classification of novel pathogen 94 sequences, such as COVID-19;\n\n95\n\n• A general-purpose bare-bones approach, which uses raw DNA sequences alone and 96 does not have any requirements for gene or genome annotation;\n\n97\n\n• The use of a "decision tree" approach to supervised machine learning (paralleling 98 taxonomic ranks), for successive refinements of taxonomic classification.', '116\n\nML-DSP [51] and MLDSP-GUI [52] were used as the machine learning-based 117 alignment-free methods for complete genome analyses.', 'All six classification models trained on 171 3273 sequences were used to classify (predict the label of) the 29 COVID-19 sequences.', '172 All of our machine learning-based models correctly predicted and confirmed the label as 173 Riboviria for all 29 sequences ( respective MoDMap3D is shown in Figure 1 (b).', 'All six classification models trained on 184 2779 sequences were used to classify (predict the label of) the 29 COVID-19 sequences.', '185 All of our machine learning-based models predicted the label as Coronaviridae for all 29 186 sequences ( All classifiers trained on Test-1, Test-2, Test-3a, and Test-3b datasets were used to predict the labels of 29 COVID-19 viral sequences.', 'The third test (Test-3a) is designed to classify the COVID-19 sequences at the genus 190 level.', 'All six classification models trained on 208 sequences were used to 196 classify (predict the label of) the 29 COVID-19 sequences.', 'All of our machine 197 learning-based models predicted the label as Betacoronavirus for all 29 sequences (Table 198 2).', 'All six classification models trained on 60 sequences 203 were used to classify the 29 COVID-19 sequences.', 'All of our machine learning-based 204 models predicted the label as Betacoronavirus for all 29 sequences (Table 2) .', 'In the MoDMap3D plot from Test-5, 220 COVID-19 sequences are placed in a single distinct cluster, see Figure 2 (b).', 'The COVID-19 was then compared to all sub-genera within the 251 Betacoronavirus genus: Embecovirus, Merbecovirus, Nobecovirs and Sarbecovirus seen in 252 Figure 6 .', 'Still, the early COVID-19 262 genomes that have been sequenced and uploaded are over 99% similar, suggesting these 263 infections result from a recent cross-species event [12, 31, 41] .', '264\n\nThese prior analyses relied upon alignment-based methods to identify relationships 265 between COVID-19 and other coronaviruses with nucleotide and amino acid sequence 266 similarities.', 'When analyzing the conserved replicase domains of ORF1ab for 267 coronavirus species classification, nearly 94% of amino acid residues were identical to 268 SARS-CoV, yet overall genome similarity was only around 70%, confirming that 269 COVID-19 was genetically different [63] .', 'Within the RdRp region, it was found that 270 another bat coronavirus, RaTG13, was the closest relative to COVID-19 and formed a 271 distinct lineage from other bat SARS-like coronaviruses [39, 41] .', 'Other groups found 272 that two bat SARS-like coronaviruses, bat-SL-CoVZC45 and bat-SL-CoVZXC21, were 273 also closely related to COVID-19 [12, [34] [35] [36] [37] [38] .', 'There is a consensus that these three bat 274 viruses are most similar to COVID-19, however, whether or not COVID-19 arose from a 275 recombination event is still unknown [39] [40] [41] .', '276 Regardless of the stance on recombination, current consensus holds that the 277 hypothesis of COVID-19 originating from bats is highly likely.', 'Whether or not COVID-19 was transmitted directly from 286 bats, or from intermediary hosts, is still unknown, and will require identification of 287 COVID-19 in species other than humans, notably from the wet market and surrounding 288 area it is thought to have originated from [30] .', 'China CDC released information about environmental sampling in 294 the market and indicated that 33 of 585 samples had evidence of COVID-19, with 31 of 295 these positive samples taken from the location where wildlife booths were concentrated, 296 suggesting possible wildlife origin [79, 80] .', '301 Viral outbreaks like COVID-19 demand timely analysis of genomic sequences to machine learning-based alignment-free method successfully used in the past for sequence 315 comparisons and analyses [51] .', 'In this study we confirm the taxonomy 317 of COVID-19 and, more generally, propose a method to efficiently analyze and classify a 318 novel unclassified DNA sequence against the background of a large dataset.', 'The objective is to train the classification models with the 329 known viral genomes and then predict the labels of the COVID-19 virus sequences.', 'The trained models are then used to predict the labels of 29 COVID-19 333 sequences.', 'As expected, all classification models correctly predict that the COVID-19 334 sequences belong to the Riboviria realm, see Table 2 .', 'When COVID-19 sequences are tested using the models trained on Test-2, all of 342 the models correctly predict the COVID-19 sequences as Coronaviridae (Table 2) .', 'All trained classification models correctly predict the COVID-19 as 349 Betacoronavirus, see Table 2 .', 'MLDSP-GUI obtains 100% classification accuracy for 354 this additional test and still predicts all of the COVID-19 sequences as Betacoronavirus.', '355 These tests confirm that the COVID-19 are from the genus Betacoronavirus.', 'This suggests substantial similarity between COVID-19 and 364 the Sarbecovirus sequences.', 'Test-5 and Test-6 (see Table 3 ) are designed to verify that 365 COVID-19 sequences can be differentiated from the known species in the 366 Betacoronavirus genus.', 'This 368 shows that although COVID-19 and Sarbecovirus are closer on the basis of genomic 369 similarity (Test-4), they are still distinguishable from known species.', 'Therefore, these 370 results suggest that COVID-19 may represent a genetically distinct species of 371 Sarbecovirus.', 'All COVID-19 virues are visually seen in MoDMap3D generated from 372 Test-5 (see Figure 2 (b)) as a closely packed cluster and it supports a fact that there is 373 99% similarity among these sequences [12, 31] .', 'The MoDMap3D generated from the 374 Test-5 (Figure 2(b) ) visually suggests and the average distances from COVID-19 375 sequences to all other sequences confirm that the COVID-19 sequences are most 376 proximal to the RaTG13 (distance: 0.0203), followed by the bat-SL-CoVZC45 (0.0418), 377 and bat-SL-CoVZX21 (0.0428).', 'The phylogenetic tree placed the RaTG13 sequence closest to the COVID-19 380 sequences, followed by the bat-SL-CoVZC45 and bat-SL-CoVZX21 sequences.', '383 We further confirm our results regarding the closeness of COVID dinucleotides in their genomes, otherwise known as CG suppression [81, 82] .', '423\n\nAdditional mammalian mechanisms for inhibiting viral RNA have been highlighted for 424 retroviruses with the actions of zinc-finger antiviral protein (ZAP) [81] .', "The 432 Spearman's rank correlation data and the patterns observed in the CGR images from 433 Figure 4 , of the coronavirus genomes, including COVID-19 identify patterns such as CG 434 underepresentation, also present in vertebrate and, importantly, bat host genomes.", 'Due to the high amino acid similarities between 438 COVID-19 and SARS-CoV main protease essential for viral replication and processing, 439 anticoronaviral drugs targeting this protein and other potential drugs have been 440 identified using virtual docking to the protease for treatment of 441 COVID-19 [29, 44, 45, [91] [92] [93] [94] .', 'The human ACE2 receptor has also been identified as the 442 potential receptor for COVID-19 and represents a potential target for treatment [42, 43] .']</t>
+  </si>
+  <si>
     <t>['Introduction\n\nThe epidemic of COVID-19 is caused by a novel virus first detected in Wuhan, China.', 'Outbreak of the COVID-19 started with the report of a first suspected case on December 8, 2019 in Wuhan.', 'Data in this study showed that detected and confirmed cases with COVID-19 infection declined from the peak of 44 on January 8 to only 2 on January 19, 2020, suggesting that the epidemic was likely under control.China officially declared the epidemic as an outbreak on January 20 when obvious human-to-human transmissions were ascertained with reagent probes and primers distributed to local agencies on that day.', 'Immediately following the declaration, massive actions were taken the next day to curb the epidemic at Wuhan, and soon spread to the whole country from central to local government, including all sectors from business to factories and to schools.', 'An Anti-COVID-19 Group headed by Premier Li Keqiang was established to lead the massive national efforts.', 'The highly emotional responses of the public were fueled by (1) sudden increases in the number of detected new cases after the massive intervention measures to identify the infected;(2) massive growing needs for masks; (3) a large number of suspected patients waiting to confirm their diagnose; (4) a large number of diagnosed COVID-19 patients for treatment; and (5) a growing number of deaths, despite national efforts to improve therapy, including the decision to build two large hospitals within a period of days.', 'This is particularly true for the COVID-19.', 'Therefore, there is no so-called rational responses, no standardoperating-procedure (SOP) to follow, no measures to take without negative consequences [2] .However, defining the COVID-19 as nonlinear and chaotic does not mean that we cannot do anything after we knew it was an outbreak, but simply waiting.', 'On the contrary, defining it as nonlinear and chaotic will better inform us to make right decisions and to take appropriate actions.', '(1) During the early stage of an infection, which we cannot tell whether it will be growing into an outbreak, we must closely monitor it using limited data and to find the early signs of change and to predict if and when it will become an outbreak; (2) After it is declared as an outbreak, it is better to take actions as soon as possible since infectious diseases can be controlled even without knowledge of the biology [10] ; and evaluate if the control measures work.The ultimate goal of this study is to attempt to provide some solutions to this paradox by providing early messages to inform control measures, to be optimistic and not panic, to ask right questions, and to take right actions.', 'Daily detected and confirmed cases\n\nData for this study were daily cumulative cases with COVID-19 infection for the first two months (63 days) of the epidemic from December 8, 2019 to February 8, 2020.', 'These data were used together with the data from the first source to monitor the dynamic of COVID-19 on a daily basis to 1) assess whether the COVID-19 epidemic was nonlinear and chaotic, 2) evaluate the responsiveness of the epidemic to the massive measures against it, and 3) inform the future trend of the epidemic.', 'Understanding of the detected cases on a daily basis\n\nIn theory, the true number of persons with COVID-19 infection can never be known no matter how we try to detect it.', 'Model daily change in the epidemic\n\nWe started our modeling analysis with data of cumulative number of diagnosed COVID-19 infections per day.', 'As a reference to assess the level of severity of the COVID-19 epidemic, the natural mortality rate of Wuhan population was obtained from the 2018 Statistical Report of Wuhan National Economy and Social Development.', 'Cumulative number of detected and diagnosed cases\n\nThe COVID-19 epidemic was initiated in Wuhan, the Provincial Capital of Hubei Province with a total population of 14.2 million, including 5.1 million mobile population.', 'Assuming all diagnosed cases in China were infected in Wuhan (an exaggerated scenarios for illustration purpose), the two-month incidence rate of COVID-19 was 2.6/1000 among Wuhan residents.', 'Based on reported case mortality of 2.3%, the population-based mortality of COVID-19 was 0.6/1000, or 1/9th of the mortality of Wuhan residents.', 'These findings suggest the nonlinear and chaotic character of the COVID-19 outbreak.After declaring the outbreak on January 20, information revealed by F ′ ′ (x) differed much from F ′ (x).', 'In other words, we have to wait for at least 14 days after the massive anti-COVID-19 epidemic without using information derived from F ′ ′ (x).', 'Quite different from F ′ (x), F ′′ (x) removed the time trend of F ′ (x) to show the acceleration/deceleration of diagnosed COVID-19.', 'Consequently, F ′ ′ (x) was much more sensitive than F ′ (x) to gauge the intrinsic dynamics of the epidemic in response to the massive anti-COVID-19 action.', 'Since January 21, 2020 after the massive anti-COVID actions, the F ′ ′ (x) suddenly became very active, as indicated by the alternative accelerations and decelerations.', "F ′ ′ (x) reached the peak on January 27 after the distribution of large number of test kits on January 26, which was an action based on the decision at the central government level in a meeting held by Chinese President Xi Jinping on January 24 and 25, the Chinese New Year's Eve and New Year's Day.In addition, the estimated F ′′ (x) captured three significant decelerations on January 28, February 5 and 6 (two days in a row), and 8, 2020 respectively; corresponding to the intensified massive actions in locating and treating the infected, locking down more communities, plus mask use and massive pathogen sterilization in neighborhood environment.", 'In addition to informing whether the epidemic was responsive to the massive interventions, information from F ′′ (x) signaled an overall downturn of the epidemic since the beginning of the massive anti-COVID-19 action on January 21, 2020.', 'Using this estimated growth rate, it takes only 4 days for the diagnosed COVID-19 to double.', '1 and 2, we divided the COVID-19 epidemic during the first two months of the epidemic into five phases.', 'Unfortunately, the COVID-19 as an outbreak was silently stepping in during this period.Phase 4 was from January 20 to 27, 2020 with the estimated P i increased from 1% on January 20, 2020 to surpass 100%, and reached the peak of 170% on January 27, 2020.', 'Different from the previous four phases, reductions in the estimated P i during this phase were not an indication of underdetection but an indication of declines in the epidemic reflected by the detected and confirmed cases of COVID-19.', '2 and 3 (Phase 4 and 5), three pieces of information can be derived: (1) The epidemic was highly sensitive to external interventions, supporting the nonlinear and chaotic characters revealed by the long latent period in the first three phases; (2) the massive national efforts were highly effective in detecting the detectable COVID-19; (3) signal for the COVID-19 in China to decline appeared on January 21 in 2020, 14 days before the start of eventual declines on February 4, as indicated by F ′ ′ (x) and F ′ (x) in Fig.', 'Disscussion\n\nIn this study, we used a novel approach to distill information from the cumulative number of diagnosed cases of COVID-19 infection.', 'Findings from this study provided useful information in a real time manner to monitor, evaluate and forecast the COVID-19 epidemic in China.', 'Nonlinear and chaotic nature of the COVID-19 outbreak\n\nAlthough an analytical demonstration of the COVID-19 outbreak as nonlinear, chaotic and catastrophic requires more time to wait till the epidemic ends, evidence in the first 2 months suggests that the COVID-19 outbreak in China is nonlinear and chaotic.', 'The significance of nonlinear and chaotic nature of COVID-19 means that no methods are available to predict exactly at what point in time the epidemic will emerge as an outbreak, just like volcanoes and earthquakes.', 'Therefore, practically there is no so-called a best time or missed the best time to take actions.', 'Therefore, knowing the nonlinear and chaotic nature of an epidemic outbreak, like COVID-19, for all stockholders will be essential to the mobilization of resources, working together, taking all actions possible to control the epidemic, and minimizing the negative consequences.Specifically, what we can do to deal with an outbreak like COVID-19 would be to (1) collect information as early as possible, (2) monitor the epidemic as close as possible just like we do for an earthquake and make preparations for a hurricane and (3) communicate with the society and use confirmed data appropriately reframed not causing or exacerbating fear and panic in the public, stress and distress among medical and public health professionals, as well as administrators to make right decisions and take the right strategies at the right time in the right places for the right people.Knowing the nonlinear and chaotic nature is also essential for taking actions to control the outbreak of an epidemic like the COVID-19 infection.', 'Answering these questions takes time, but there is no need to wait till all these questions are resolved before taking actions.', 'We can take actions to prevent COVID-19 immediately while waiting for answers to these questions.', 'More importantly, most of these actions are initiated, mobilized, coordinated and supported by the government from central to local, and enhanced by volunteers and international support.', 'For example, from the second derivative, we observed increases in the infected through the action on January 22, 2020, the next day after the massive intervention started on January 21, 2020.', 'From day one on January 21, 2020 when the massive intervention measures activated to February 4, 2020 is the latent period of COVID-19 infection.', 'Based on the findings from our analysis, the COVID-19 in China may end up soon.', 'Despite a delay of 43 days from the first confirmed cases on December 8, 2019 to January 20, 2020, the COVID-19 epidemic was highly responsive to massive interventions, supporting the effectiveness of these interventions.', 'It is our prediction that the outbreak of the COVID-19 infection will be brought under control by the end of February 2020, given the effective control measures known to everyone, increases in immune level in the total population due to latent infections, and most widely spread of knowledge and skills for infectious disease control and prevention among the 1.4 billion people in China.', 'By inclusion of the mortality rate as a reference, results from our approach will be (1) comprehensive to inform the public to be prepared, not scared and not to blame others; (2) useful for administrators to make decisions; (3) valuable for medical and health professionals to take actions.Second, we conceptually separated (1) the true number of infections, which will never be practically detected, from (2) the infections that are practically detectable if services are available and accessible and detection technologies are sensitive and reliable, and (3) the actually detected cases of infections.', 'Limitations and future plan\n\nThere are limitations.', 'We will follow the epidemic closely and prepare for further research on the topic when more data become available.Despite the limitations, this study provided new data to encourage those who are infected to better fight against the infections; to inform and encourage the general public, the medical and health professionals and the government to continue their current measures and to think of more measures that are innovative and effective to end the COVID-19 epidemic.', 'Of the diagnosed COVID-19 cases, less than 20% are severe.', 'Although the total cases COVID-19 reached to big numbers, but the 2-month incidence rate was about a half of the natural death rate for Wuhan residents.']</t>
   </si>
   <si>
+    <t>['Introduction\n\nThe type of pneumonia caused by the 2019 novel coronavirus disease (COVID-19) is a highly infectious disease, and the ongoing outbreak has been declared by WHO as a global public health emergency.', '1,2 COVID-19 pneumonia was first reported in Wuhan, Hubei Province, China, in December, 2019, followed by an outbreak across Hubei Province and other parts of the country.', '1 \n\n,2 A study in\n\nThe Lancet by Huang and colleagues 2 reported the epidemiological, clinical, laboratory, and radiological characteristics, as well as treatment and clinical out comes, of patients with laboratory-confirmed COVID-19 pneumonia.', 'The clinical characteristics and vertical transmission potential of COVID-19 pneumonia in pregnant women is unknown.', 'Urgent questions that need to be addressed promptly include whether pregnant women with COVID-19 pneumonia will develop distinct symptoms from non-pregnant adults, whether pregnant women who have confirmed COVID-19 pneumonia are more likely to die of the infection or to undergo preterm labour, and whether COVID-19 could spread vertically and pose risks to the fetus and neonate.', 'Answers to these questions are essential for formulating the principles of obstetric treatment for pregnant women with COVID-19 infection.', 'Therefore, to facilitate efforts, both in China and glo bally, to prevent and control COVID-19 pneumonia in children and pregnant women, 3 we retrospectively collected and analysed detailed clinical data from pregnant women with laboratory-confirmed COVID-19 infection at Zhongnan Hospital of Wuhan University, Wuhan, China.', 'In this study we present clinical features of pregnant women with confirmed COVID-19 pneumonia and examine the vertical trans mission potential of COVID-19.', 'Study design and patients\n\nWe did a retrospective review of medical records from nine pregnant women with COVID-19 pneumonia admitted to Zhongnan Hospital of Wuhan University from Jan 20 to Jan 31, 2020.', 'Diagnosis of COVID-19 pneumonia was based on the New Coronavirus Pneumonia Prevention and Control Program (4th edition) published by the National Health Commission of China.', '4 All nine pregnant women with COVID-19 pneumonia tested positive for severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) by use of quantitative RT-PCR (qRT-PCR) on samples from the respiratory tract.This study was reviewed and approved by the Medical Ethical Committee of Zhongnan Hospital of Wuhan University (approval number 2020004).', '5 Amniotic fluid samples from patients with COVID-19 pneumonia were obtained via direct syringe aspiration at the time of delivery.', 'Additionally, breast milk samples from patients with COVID-19 pneumonia were collected after their first lactation.', 'We found two articles: one titled \n\nAdded value of this study\n\nWe retrospectively reviewed clinical records, laboratory findings, and chest CT scans for nine pregnant women with laboratoryconfirmed COVID-19 pneumonia.', 'Three patients had increased aminotransferase concentrations.', 'None of the patients developed severe COVID-19 pneumonia or died.', 'Implications of all the available evidence\n\nThe clinical characteristics of COVID-19 pneumonia in pregnant women were similar to those of non-pregnant adult patients with COVID-19 pneumonia.', 'Based on data from this small group of patients, there is currently no evidence of vertical transmission in pregnant women who develop COVID-19 pneumonia in the third trimester.the sequence of Wuhan-Hu-1 (MN908947).', 'All patients had a history of epidemiological exposure to COVID-19.', 'However, none of the nine patients developed severe pneumonia, requiring mechanical ventilation, or died of COVID-19 pneumonia, as of Feb 4, 2020.', 'Pregnancy complications that appeared after the onset of COVID-19 infection included fetal distress (in two of nine patients) and premature rupture of the membrane (in two of nine; table 1).All patients were given oxygen support (nasal cannula) and empirical antibiotic treatment.', 'Six patients were administered antiviral therapy (table 1) .Data from laboratory tests showed that five of the nine pregnant women with COVID-19 pneumonia had lymphopenia (&lt;1·0 × 10⁹ cells per L).', 'Three had increased concentrations of alanine aminotransferase (ALT) and aspartate aminotransferase (AST), one of whom had ALT reaching 2093 U/L and AST reaching 1263 U/L.', 'Discussion\n\nWe report clinical data from nine pregnant women with laboratory-confirmed COVID-19 pneumonia.', 'The clinical characteristics of these patients with COVID-19 infection during pregnancy were similar to those of non-pregnant adults with COVID-19 infection, as previously reported.', 'Notably, based on our findings in these nine patients, there is currently no evidence to s uggest that development of COVID-19 pneumonia in the third trimester of pregnancy could lead to the occurrence of severe Pregnant women are particularly susceptible to respiratory pathogens and severe pneumonia, because they are at an immunosuppressive state, and physiological adaptive changes during pregnancy (eg, diaphragm elevation, increased oxygen consumption, and oedema of respiratory tract mucosa) can render them intolerant to hypoxia.', 'In the current study, we treated nine pregnant women with COVID-19 pneumonia in 11 days from Jan 20 to Jan 31, 2020.', 'Considering that SARS-CoV-2 has up to 85% sequence similarity with SARS, [11] [12] [13] [14] although none of our patients developed severe pneumonia or died of COVID-19 infection, we should be alert to the possibility that the disease course and prognosis of COVID-19 pneumonia could follow the same trend as SARS in pregnant women.', 'However, our obser vations are based on a small number of cases and the time between illness onset and delivery was short.According to our study, pregnant women with COVID-19 pneumonia showed a similar pattern of clinical characteristics to non-pregnant adult patients, as recently reported.', '2, 15 Common symptoms at the onset of COVID-19 pneumonia for these women included a fever and cough, whereas less common symptoms were myalgia, malaise, sore throat, diarrhoea, and shortness of breath.', 'Additionally, increased concentrations However, none of these symptoms was present in every patient, nor were the symptoms specific to pregnant women with COVID-19 pneumonia.', "Therefore, we recommend that, in addition to using nucleic acid tests as the gold standard for the diagnosis of COVID-19 pneumonia, relevant clinical examinations are done, including blood counts and chest CT and a comprehensive evaluation of a patient's medical history, epidemiological exposure, and symptoms.", 'However, the causes of premature birth were not related to COVID-19 pneumonia: one patient had severe pre-eclampsia, one had a history of two stillbirths, one had a history of two caesarean sections and irregular contractions; and one had premature rupture of the membrane for about 12 h and suspected intrauterine infection.', 'Furthermore, the time period from onset of COVID-19 pneumonia to admission was only 3 days for this patient; therefore we reasoned that the fetal intrauterine growth restriction was more likely to be a symptom associated with pre-eclampsia.', 'None of the neonates needed special paediatric treatment.The main focus of this study was to investigate the possibility of intrauterine transmission of COVID-19 infection.', 'Our results show that SARS-CoV-2 was negative in all of the above samples, suggesting that no intrauterine fetal infections occurred as a result of COVID-19 infection during a late stage of pregnancy.', '10, 16 However, our observation of no fetal infection caused by intrauterine vertical transmission could be affected by our small sample size and the stage of pregnancy at the onset of COVID-19 infection.', '17 We did not collect samples of vaginal mucosa or shedding in birth canals, which prevented us from analysing whether COVID-19 could be transmitted during vaginal delivery.', 'Notably, however, our results showed that breastmilk samples from mothers with COVID-19 infection appeared to be free from SARS-CoV-2.On Feb 6, 2020, a neonate born to a pregnant woman with COVID-19 pneumonia tested positive for SARS-CoV-2 infection 36 h after birth.', '18, 19 Although many important clinical details of this single case were not available at the time of writing this report, there are reasonable concerns that COVID-19 could be contracted in the womb.', 'Reportedly, the pregnant woman had developed fever for 8 h and was suspected to have COVID-19 pneumonia on the basis of her typical chest CT image before admission; an emergency caesarean section was subsequently done, which was followed by confirmation of COVID-19 pneumonia.', 'Additionally, no direct testing of intrauterine tissue samples such as amniotic fluid, cord blood, or placenta was done to confirm that the COVID-19 infection in the neonate was due to intrauterine transmission.', 'Therefore, we cannot conclude whether or not intrauterine COVID-19 infection occurred in this particular case.', 'Nonetheless, this single case of an infected neonate suggests that we should pay special attention to prevent infections in newborn babies born to mothers with COVID-19 pneumonia.This study is limited by the small sample size and retrospective method.', 'The effect of COVID-19 infection on the fetus in the first or second trimester of pregnancy remains to be clarified.', 'Second, whether vaginal delivery increases the risk of mother-to-child intrapartum transmission, and whether uterine contraction could increase the possibility of the virus ascending, needs to be further investigated.', 'Fourth, whether COVID-19 could damage the placenta, which represents an important link in vertical transmission, also needs to be further investigated.', 'Future investigations of these issues and follow-up studies of pregnant women with COVID-19 infection, as well as neonates, will be necessary to ascertain the safety and health of mothers and babies exposed to SARS-CoV-2.In summary, the symptoms of pregnant women with COVID-19 pneumonia were diverse, with the main symptoms being fever and cough.', 'Considering the significance of this ongoing global public health emergency, although our conclusions are limited by the small sample size, we believe that the findings reported here are important for understanding the clinical characteristics and vertical transmission potential of COVID-19 infection in pregnant women.', 'Data sharing\n\nWith the permission of the corresponding authors, we can provide participant data without names and identifiers, but not the study protocol, statistical analysis plan, or informed consent form.', 'The corresponding authors have the right to decide whether to share the data or not based on the research objectives and plan provided.']</t>
+  </si>
+  <si>
+    <t>['For 2019 novel coronavirus disease (COVID-19), this time, patients with body temperatures≥37.2 o C were asked to firstly visit Fever Clinics, where a triage strategy was implemented 9 , and probable or possible cases were identified by experts or expert panels, and samples were sent for quick viral detection.', 'On Jan. 21, 2020, the first case of COVID-19 was identified in our Fever Clinic, and up to Feb. 15, 21 cases were diagnosed, with 19 cases confirmed by positive 2019-nCoV results, among 88 patients with pneumonia sent for viral detection.', 'As far as we know, the prevalence of COVID-19 in patients with pneumonia visiting Fever Clinics has not been reported, and there is lack of data comparing the clinical features between COVID-19 and pneumonia of other etiologies.Therefore, we collected and reviewed the medical records of patients who visited the Fever Clinic in our hospital.', 'We aimed to estimate the prevalence of COVID-19 in pneumonias during this period and to find the unique features of COVID-19 as compared to pneumonias caused by other agents.', 'We believe that the results of our study will add to the knowledge of COVID-19 for practice in Fever Clinics facing newly emerging respiratory infections.', 'Based on epidemiological history, clinical and radiological manifestations, cases with possible or probably COVID-19 were sent for panel discussion and then for 2019-nCoV detection by RT-PCR.', 'Diagnostic criteria of COVID-19\n\nThe \n\nResults\n\nFrom January 21 to February 15, 2020, based on epidemiological evidence, fever and/or respiratory symptoms, chest radiological findings and blood white blood cell (WBC) results, physicians at the Fever Clinic referred 156 cases to panel discussion by multi-discipline experts.', 'After discussion, 110 were considered to be possible or probable cases of COVID-19, and received 2019-nCoV real-time PCR testing, which was positive in 19 cases (confirmed cases).', 'These 21 cases were grouped as COVID-19 for this analysis.', 'For the remaining cases with negative viral detection, the diagnosis of COVID-19 was excluded based on inconsistent epidemiological, clinical or radiological data.', 'Among these, 22 were excluded from the analysis because of lack of CT scan or no signs of pneumonia on CT scan, and finally 67 patients with pneumonia of other etiologies were included for analysis as the non-COVID-19 group (see patient selection flowchart in Figure 1 ).In the study period, 2123 patients visited the Fever Clinic because of fever and/or respiratory symptoms, and 342 patients were diagnosed to have pneumonia based on CT scan or in a few cases on Chest X-ray.', 'The prevalence of COVID-19 in all these pneumonia patients was 6.14% (21/342).', 'The prevalence of COVID-19 in cases with CT-confirmed pneumonia sent for 2019-nCoV testing was 23.9% (21/88).The demographics and baseline characteristics of the 21 patients with COVID-19 were shown in Table 1 .', 'https://doi.org/10.1101/2020.02.25.20027763 doi: medRxiv preprint of COVID-19.', 'Seven patients, from 5 family clusters, had close contact with their family members.In the two patients with unclear epidemiological link, one was a social worker contacting a high-flow of people and his wife was confirmed to have COVID-19 by positive 2019-nCoV test about one week later.', 'The other one had no epidemiological history on presentation, but another patient, who had had dinner with him, was also diagnosed to have COVID-19 later.', 'Other symptoms included shortness of breath, myalgia or arthralgia, sore throat, nasal symptoms and diarrhea ( Blood routine showed that decreased lymphocyte count was present in 38.1% of the COVID-19 patients.', 'More than 80% of COVID-19 patients had normal WBC and neutrophil counts.', 'Compared with COVID-19 patients, the total WBC and neutrophil counts were higher in non-COVID-19 patients.', 'Additionally, more non-COVID-19 patients had higher than normal WBC and neutrophil counts.', 'However, lymphocyte counts and the proportions of patients with decreased lymphocytes were not statistically different between the two groups (Table 3 ).In non-COVID-19 patients, infiltrates on the CT scan mainly involved 1-2 lung lobes, while in COVID-19 patients, lesions involving 4-5 lobes were more common.', 'In COVID-19 patients, lung lesions were mostly peripheral or sub-pleural in distribution, and in severe cases were diffusely distributed (Figure 2 ).', 'In non-COVID-19 patients, 34.3% showed airway-dominant lesions, while diffuse distribution was found in only 4.5%.', 'However, centrilobular nodules were observed in non-COVID-19 patients but not in COVID-19 patients (Table 4 ).', 'Discussion\n\nAs of Feb 15, 2020, 57416 cases of confirmed COVID-19 were reported in 31 provinces, autonomous regions and municipalities in China, among which 49030 were in Hubei Province, while in Beijing municipality, 380 confirmed cases were reported.', 'Since the outbreak in early December, 2019, case finding and reporting of COVID-19 were required for medical staff in Fever Clinics around the country.', 'During this study period, in Beijing, as in other regions of the country, influenza and other respiratory infections were also prevalent; it was a challenge for physicians to identify suspected COVID-19 from patients with fever, particularly from pneumonia of varied etiologies.', 'Our results here provide information on the prevalence of COVID-19 in the busy Fever Clinic of a teaching hospital and differential characteristics from non-COVID-19 pneumonias.From January 21, 2019, when the first case of COVID-19 was identified, up to Feb.15, 2020, 2123 patients visited our Fever Clinic because of fever and/or respiratory symptoms, and 342 patients were confirmed to have pneumonia by CT scan or in a few cases by Chest X-ray.', 'The prevalence of COVID-19 in all these pneumonia patients was 6.14% (21/342).', 'https://doi.org/10.1101/2020.02.25.20027763 doi: medRxiv preprint COVID-19 in cases with pneumonia sent for 2019-nCoV testing was 23.9% (21/88).We found that epidemiological history was extremely important for identification of suspected cases of COVID-19 and for differential diagnosis.', 'Over 90% of the COVID-19 patients had clearly identified epidemiological evidence, while in non-COVID-19 patients, epidemiological links could only be found in 32.8%.', 'In the later phase of our study, contact with family members with confirmed COVID-19 was an epidemiological feature and five family clusters were found.', 'A report from Chinese CDC showed that the incidence of COVID-19 outside Hubei Province peaked in Jan 24-27 and most cases (68.6%) had ever exposed to Wuhan or Hubei within 14 days 11 .', 'Consistent to previous reports, the incubation period of our cases was in a range of 2-10 days, with a median of 6.5 days [12] [13] [14] .A unique feature of our study was the comparison between COVID-19 and non-COVID-19 cases visiting the same Fever Clinic at a certain period, with the finding that the total WBC count and the neutrophil count were different between the two groups of patients.', 'In contrast, although decrease of lymphocytes was also common in our study, the difference between COVID-19 and non-COVID-19 cases was not significant, probably due to the fact that pneumonias enrolled for this analysis were mostly viral(for example, influenza) or atypical, as classical bacterial pneumonia had been excluded by first screening/triage.', 'Blood lymphopenia was observed in up to 85% of critically ill patients with COVID-19 16 .', 'Therefore, we speculate that persisting decrease of lymphocytes may be an indicator of severe disease, rather than a criterion for the diagnosis of COVID-19.Unlike pneumonia caused by other pathogens, COVID-19 has some unique characteristics on the CT scan.', 'Firstly, multi-lobe involvement was more common in COVID-19 as compared to non-COVID-19 pneumonia.', 'As a single-center, retrospective study of patients mainly from Haidian District in Beijing, the prevalence of COVID-19 in this Fever Clinic was not representative.', 'Furthermore, the pathogens causing pneumonia in patients without COVID-19 were not identified, therefore we were unable to evaluate the prevalence of other common viral pneumonias of this season, such as influenza pneumonia and All rights reserved.', 'Conclusions\n\nDuring the study period when COVID-19 was epidemic, the prevalence of COVID-19 in patients with pneumonia visiting our Fever Clinic was 6.14%.', 'Most of the COVID-19 cases were mild and moderate in severity and more than 90% had identified epidemiological exposure.Changes of WBC and neutrophil counts showed clinical significance for differential diagnosis of pneumonia caused by 2019-nCoV or other pathogens.', 'CT findings of COVID-19 were characteristic, including the number of affected lobes, lesion patterns and distribution, which may be helpful for clinicians to identify suspected cases of COVID-19 from pneumonia of other etiologies.']</t>
+  </si>
+  <si>
+    <t>['CoV is a zoonotic pathogen that can be transmitted via animal-to-human and human-to-human interaction [2] .', 'On 30 January 2020, the World Health Organization (WHO) declared COVID-19 a public health emergency of international concern (PHEIC) [5] .', 'Astonishingly, in the first week of March, a devastating number of new cases were reported globally, and COVID-19 emerged as a pandemic.', 'As of 12 March 2020, more than 125,000 confirmed cases across 118 countries and more than 4600 deaths had been reported [6] .COVID-19 is spread by human-to-human transmission through droplet, feco-oral, and direct contact and has an incubation period of 2-14 days [6] .', 'To date, no antiviral treatment or vaccine has been explicitly recommended for COVID-19.', 'Therefore, applying preventive measures to control COVID-19 infection is the most critical intervention.', 'By the end of January, the WHO and Centers for Disease Control and Prevention (CDC) had published recommendations for the prevention and control of COVID-19 for HCWs [8, 9] .', 'The WHO also initiated several online training sessions and materials on COVID-19 in various languages to strengthen preventive strategies, including raising awareness and training HCWs in preparedness activities [10] .', 'In this regard, the COVID-19 epidemic offers a unique opportunity to investigate the level of knowledge and perceptions of HCWs during this global health crisis.', "In addition, we aim to explore the role of different information sources in shaping HCWs' knowledge and perceptions of COVID-19 during this peak period.", 'Methods\n\nA prospective Web-based cross-sectional study was conducted using a survey instrument to obtain responses from HCWs globally during the first week of March 2020.A 23-item survey instrument was developed using WHO course materials on emerging respiratory viruses, including COVID-19 [14] .', 'The survey covered the domains of HCW characteristics, awareness, information sources, knowledge and perceptions related to COVID-19.', 'The 23-item questionnaire was divided into three parts, including participant characteristics (3 items), awareness of COVID-19 (2 items), source of information author/funder, who has granted medRxiv a license to display the preprint in perpetuity.is the (which was not peer-reviewed) The copyright holder for this preprint .', 'Almost all participants agreed that they had heard about COVID-19 (97.8%), but only 44.1% of them had the opportunity to attend lectures/discussions about COVID-19.. CC-BY-NC-ND 4.0 International license It is made available under a author/funder, who has granted medRxiv a license to display the preprint in perpetuity.is the (which was not peer-reviewed) The copyright holder for this preprint .', "https://doi.org/10.1101/2020.03.09.20033381 doi: medRxiv preprint\n\nSource of information\n\nWhen we asked about the participants' source for reliable information about COVID-19, the primary sources of information about COVID-19 were official government websites and social media ( Figure 1 ).", 'Approximately 30% of the participants reported that they used news media (TV/video, magazines, newspapers, and radio) and social media (Facebook, Twitter, Whatsapp, YouTube, Instagram, Snapchat) to obtain information about COVID-19.Moreover, nearly 40% of the participants sometimes discussed COVID-19-related topics with family and friends.', 'Table 2 shows the knowledge about COVID-19 among HCWs.', 'For instance, approximately two-thirds of doctors and half of allied health workers thought that the origin of COVID-19 was bats (65.7% vs. 55.7%, p&lt;0.05).', 'A high majority of the HCWs (85.6%) agreed that maintaining hand hygiene, covering the nose and mouth while coughing, and avoiding sick patients could help to prevent COVID-19 transmission.', 'A majority of the doctors agreed that COVID-19 could lead to pneumonia, respiratory failure, and death (84%, p&lt;0.05) and that supportive care is the only treatment option that is currently available (83.2%, p&lt;0.05).', "However, the participants' knowledge about questions related to the mode of transmission and incubation period of COVID-19 was poor (p&lt;0.05).", 'Perceptions about COVID-19\n\nOver 78% of the HCWs exhibited a positive perception of COVID-19.', 'A high majority of the HCWs knew that sick patients should share their recent travel history (92.7%), that flu vaccination is not sufficient to prevent COVID-19 (90.7%), and that COVID-19 is not fatal (88.5%).', 'CC-BY-NC-ND 4.0 International license It is made available under a author/funder, who has granted medRxiv a license to display the preprint in perpetuity.is the (which was not peer-reviewed) The copyright holder for this preprint Table 3 ].Items related to COVID-19-related perceptions among HCWs in the study were analyzed separately using the chi-square test to examine their association with age and sex and across different categories of people [ Table 4 ].Nearly 90% of the youngest participants (&lt;25 years) and 92% of the doctors believed that the symptoms of COVID-19 appeared as early as 2 to 14 days; the differences among the respondent groups were statistically significant (p&lt;0.05).', 'Moreover, a significant proportion of the doctors perceived eating well-cooked/handled meat to be safe (83.2%) (p&lt;0.05).Medical students were found to have the perception that flu vaccination is not sufficient to prevent COVID-19 transmission (88%, p&lt;0.05).', 'A large number of allied health workers incorrectly believed that it is not safe to eat well-processed meat during the COVID-19 outbreak (25.3%, p&lt;0.05), that COVID-19 is fatal (21.5%), that there is a delay in symptoms (19.8%), and that flu vaccination is sufficient (19.8%; p&lt;0.05) compared with other participants in the respective groups.', 'In particular, health authorities and scientists have warned that widespread misinformation about COVID-19 is a serious concern causing xenophobia worldwide [4, [16] [17] [18] [19] .', 'In this regard, HCWs should carefully evaluate COVID-19-related information and should use scientific and authentic content as information sources.', 'Discussion\n\nThe findings of this study suggest significant knowledge gaps between the amount of information available about COVID-19 and the depth of knowledge among HCWs, particularly about the mode of transmission and incubation period of COVID-19.Additionally, many allied health workers had inaccurate knowledge that COVID-19 can be treated with antivirals and that there is a vaccine available.', 'This is unfortunate because the surge of COVID-19 is globally devastating, and a large number of resources are provided by healthcare authorities to educate HCWs and improve their knowledge about COVID-19.', 'Greater encouragement from health authorities is needed to assimilate COVID-19-related knowledge among HCWs, including doctors.. CC-BY-NC-ND 4.0 International license It is made available under a author/funder, who has granted medRxiv a license to display the preprint in perpetuity.is the (which was not peer-reviewed) The copyright holder for this preprint .', 'https://doi.org/10.1101/2020.03.09.20033381 doi: medRxiv preprint Generally, most participants had a positive perception of the prevention and control of COVID-19.', 'For instance, only half (52%) of the HCWs aged 45-65 years believed that the symptoms of COVID-19 appeared as early as 2 to 14 days (p&lt;0.05), and more than a quarter of the medical students thought that eating meat during the outbreak was unsafe.Approximately 20% of allied health workers believed that the flu vaccine is sufficient for COVID-19 prevention.', 'Limitations\n\nWe used WHO training material for the detection, prevention, response, and control of COVID-19 to develop a validated questionnaire.', 'Finally, due to the four-week closure of higher educational institutions in the UAE during the COVID-19 outbreak [16], the institutional review board was not approached.Despite these limitations, our findings provide valuable information about the knowledge and perceptions of HCWs during a peak period of COVID-19.', 'Conclusion\n\nWe identified a significant gap in the source of information, poor knowledge levels, and discrepancies in perceptions of COVID-19 among our study participants.', 'CC-BY-NC-ND 4.0 International license It is made available under a author/funder, who has granted medRxiv a license to display the preprint in perpetuity.is the (which was not peer-reviewed) The copyright holder for this preprint .of COVID-19 continues to emerge, greater efforts through educational campaigns that target HCWs and the wider population beyond borders are urgently needed.']</t>
+  </si>
+  <si>
     <t>['Looming threat of COVID-19 infection in Africa: act collectively, and fast\n\nBecause of the high volume of air traffic and trade between China and Africa, 1 Africa is at a high risk for the introduction and spread of the novel coronavirus disease 2019 (COVID-19); although only Egypt has reported the first case, from a non-national.', '2 The greatest concern for public health experts is whether COVID-19 will become a pandemic, with sustained year-round transmission, similar to influenza, as is now being observed in several countries.', 'With neither treatment nor vaccines, and without pre-existing immunity, the effect might be devastating because of the multiple health challenges the continent already faces: rapid population growth and increased movement of people; existing endemic diseases, such as human immunodeficiency virus, tuberculosis, and malaria; remerging and emerging infectious pathogens such as Ebola virus disease, Lassa haemorrhagic fever, and others; and increasing incidence of non-communicable diseases.Models that enable the continent to better allocate scarce resources to better prepare and respond to the COVID-19 epidemic are crucial.', "The modelling study by Marius Gilbert and colleagues in The Lancet 4 identifies each African country's risk of importation of COVID-19 from China, using data on the volume of air travel from three airports in provinces in China to African countries.", 'The study provides a valuable tool that can help countries in Africa prioritise and allocate resources as they prepare to respond to the potential introduction and spread of COVID-19.The study should also be interpreted in light of the fast-evolving nature of the COVID-19 outbreak.', 'Although these measures might delay, but not stop, 5 the importation risk of COVID-19 into Africa, their implementation is still worthwhile.', 'Second, although Beijing, Shanghai, and Fujian do not report the highest number of cases of COVID-19 in China, the volume of travel from these cities to Africa is high, which might increase the risk of exporting cases to Africa.', 'Lastly, almost half of the flights from Africa to China are operated by Ethiopian Airlines, so it is possible that cases might pass through Ethiopia and affect destination countries.The report by Gilbert and colleagues 4 provides an important tool to map out the continental risk for the spread of COVID-19 in Africa, which should be used to inform a framework of action to prepare the continent for any potential importation and spread of COVID-19.', 'The strategy must be comprehensive, and member states, donors, and partners should immediately commit to releasing financial resources to support country-customised implementation plans derived from the strategy.', 'The partnership has six work streams: laboratory diagnosis and subtyping; surveillance, including screening at points of entry and cross-border activities; infection prevention and control in healthcare facilities; clinical management of people with severe COVID-19; risk communication; and supply-chain management and stockpiles.', 'Because mitigating the potential spread of COVID-19 in Africa will require rapid detection and containment, the laboratory work streams of AFTCOR, Africa CDC, and WHO are working closely to expeditiously scale up diagnostic testing capacity linked to enhanced surveillance and monitoring-eg, at the beginning of February, only two countries in Africa had the diagnostic capacity to test for COVID-19.', 'However, as of Feb 25, 2020, more than 40 countries would have been capacitated to accurately diagnose COVID-19 infection, thanks to the coordination efforts of AFTCOR.', 'Second, any effective preparedness and response strategy for COVID-19 requires a committed political will; as such, the African Union Commission, Africa CDC, and WHO convened, on Feb 22, 2020, in Addis Ababa, Ethiopia, an emergency meeting of all ministers of health of 55 member states to commit to acting fast and collectively to develop and implement a coordinated continent-wide strategy.', 'To prevent the occurrence of a social, health security, and economic tragedy, actions agreed at the emergency ministerial meeting will need to be acted on quickly, before any additional COVID-19 cases are introduced to the continent, and result in sustained human-tohuman transmission.', 'The potential social, economic, and security devastation that COVID-19 could cause in Africa should be enough of an incentive for African governments to invest immediately in preparedness for the worst-case scenario.', 'Third, commitment and release of financial resources from partners and donors before a crisis hits Africa will help anticipate demand and address supply chain management, mapping, and stockpiling of COVID-19 response needs, such as large quantities of personal protective equipment, gloves, surgical masks, coveralls, and hoods, and medical countermeasures like antiviral agents.', 'Medical staff at major hospitals must be trained in the proper protocols of quarantining individuals who are at-risk of COVID-19 infection, as well as isolation and safe treatment of patients who test positive.', 'Africa needs to be supported to act now, and needs to act fast.JNN is the director of the Africa CDC and a WHO special envoy on COVID-19.']</t>
   </si>
   <si>
-    <t>['The COVID-19 Response Team assessed the clinical condition of screened individuals to determine the need for hospital admission or for home testing for SARS-CoV-2 and subsequent isolation.', '4 The COVID-19 Response Team handles patient flow to local hospitals and addresses specific issues about bed resources, emergency department overcrowding, and the need for patient transfer to other specialised facilities.', "5 In this context, the EMS is inevitably\n\nThe response of Milan's Emergency Medical System to the COVID-19 outbreak in Italy\n\nThe number of people infected with severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2), the virus causing coronavirus disease 2019 (COVID-19), is dramatically increasing worldwide.", '1 The first person-to-person transmission in Italy was reported on Feb 21, 2020, and led to an infection chain that represents the largest COVID-19 outbreak outside Asia to date.', 'Here we document the response of the Emergency Medical System (EMS) of the metropolitan area of Milan, Italy, to the COVID-19 outbreak.On Jan 30, 2020, WHO declared the COVID-19 outbreak a public health emergency of international concern.', 'Local medical authorities adopted specific WHO recommendations to identify and isolate suspected cases of COVID-19.', 'Suspected cases were transferred to preselected hospital facilities where the SARS-CoV-2 test was available and infectious disease units were ready for isolation of confirmed cases.Since the first case of SARS-CoV-2 local transmission was confirmed, the EMS in the Lombardy region (reached by dialling 112, the European emergency number) represented the first response to handling suspected symptomatic patients, to adopting containment measures, and to addressing population concerns.', 'The EMS of the metropolitan area of Milan instituted a COVID-19 Response Team of dedicated and highly qualified personnel, with the ultimate goal of tackling the viral outbreak without burdening ordinary EMS activity (figure).', 'The team is active at all times and consists of ten health-care professionals supported by two technicians.The COVID-19 Response Team collaborated with regional medical authorities to design a procedural algorithm for the detection of suspected cases of COVID-19 (figure).', 'Patients were screened for: (1) domicile or prolonged stay in the hot zone (ie, where COVID-19 cases first appeared), or both; (2) \n\nFigure: EMS organisation and procedural algorithm of the COVID-19 Response Team\n\nThe activities of the EMS and the specifically instituted COVID-19 response team (A).', 'On the basis of caller needs, the receiver operators of the primary PSAP dispatch calls to either the ordinary EMS for primary medical assistance or to the COVID-19 response team for the assessment of risk factors for SARS-CoV-2 infection.', 'To address hospital needs and to receive medical directives, the COVID-19 response team maintains direct contacts with local hospitals and regional public health authorities.', 'The COVID-19 response team algorithm to detect and manage suspected cases of COVID-19 (B).', 'On the basis of risk factors for SARS-CoV-2 contagion and the clinical conditions of the screened individuals, the COVID-19 response team determines the need for hospital admission, home isolation, or SARS-Cov-2 testing.', 'The COVID-19 response team also provides counselling (ie, hygiene recommendations and preventive actions to limit respiratory diseases spread) for non-suspected cases and for patients isolated at home, including their cohabitants.', 'COVID-19=coronavirus disease 2019.', 'Specific algorithms, detailed protocols, and specialised teams must be fostered within each EMS department to allocate the right resources to the right individuals when cases of COVID-19 present.']</t>
-  </si>
-  <si>
-    <t>['Why Long-Term Care Preparedness for COVID-19 is Important\n\nSeveral epidemiological variables make long-term care facilities a priority area for near term public health planning.', 'Most significantly, long-term care residents are among those at highest risk for COVID-19 morbidity and mortality.', '4 Initial estimates from the Chinese Centers for Disease Control indicate an overall fatality rate from COVID-19 of 2.3%.', 'For patients under the age of 50, the case fatality rate for COVID-19 has not exceeded 0.4% (5) .', '5 Even as the overall case fatality rate drops, the risk of death among older adults may be 10-fold higher than for younger individuals.Residents of long-term care facilities often have medical conditions associated with an increased risk of morbidity and mortality to COVID-19.', 'Based on analyses of deaths related to COVID-19 through February 11, 2020, the odds of dying from the virus were greater in those with heart (OR ¼ 12.', '10 These elements offer a critical framework for the long-term care community and the public at large as it prepares for COVID-19.', 'AMDA, The Society for Post-Acute and Long-Term Care Medicine, has recently published interim recommendations (https://paltc.org/COVID-19) for health care providers in Long-Term Care Facilities.', 'The documents offer guidance and address frequently asked questions on how Post-Acute and Long-Term Care Facilities should prepare for and manage individuals with suspected COVID-19.', 'Symptoms of COVID-19 include fever, cough, and shortness of breath, but initial symptoms are milder and frail older adults often present atypically.', 'While studies underway to assess antiviral medications for COVID-19 have begun, supportive care is the best available therapeutic option.Absent vaccination and antiviral prophylaxis, and stringent and proactive infection prevention and control measures remain the best way to reduce the risk of staff and residents becoming ill (Table 1 ).', 'This includes steps to actively reduce both the risk of introducing COVID-19 into nursing homes and for transmission within the nursing home, particularly from asymptomatic staff members who may unwittingly shed viruses to surfaces that can infect their residents or by direct contact with them.', 'Airborne disease protocols should be activated and put into action.', 'Plans previously developed for pandemic influenza can be re-purposed for COVID-19, including the respiratory outbreak preparedness checklist previously developed by the CDC (https:// www.cdc.gov/coronavirus/2019-ncov/php/pandemic-preparednessresources.html).Once COVID-19 has begun to spread within a community, additional efforts to reduce the introduction of the virus into the building can include limiting visitors to the long-term care building.', 'where residents congregate, and frequently touched surfaces.Currently, the types of precautions recommended for people with suspected COVID-19 are still evolving.', 'In addition to Standard and Contact Precautions, the CDC recommends Droplet and Airborne Precautions during the care of individuals with suspected COVID-19 while the World Health Organization recommends Droplet Precautions; presently we have a concurrent influenza epidemic, so precautions for respiratory disease need to protect against both diseases.', 'Maintain Health Care Infrastructure\n\nA key practical consideration for the long-term care environment will be to determine if or when to admit a resident who has been previously diagnosed with COVID-19.', 'According to data acquired from 4 Chinese patients who contracted COVID-19 and recovered, positive reverse transcriptaseepolymerase chain testing was still present at 5 to 13 days post infection and then on subsequent testing.', '11 It is unclear whether this meant that they were continuously infectious or re-infected, but should give pause as to when recovering COVID-19 patients are safe to bring into a facility where rapid transmission of the virus to a susceptible population could occur.', 'As ALs are not routinely regulated by the federal government, state regulators will need to consider how to encourage ALs to have the staffing and infrastructure in place to meet the care delivery needs for this potentially vulnerable population when COVID-19 enters the community.', 'It will also be important for state regulators to ensure that AL facilities have a plan in place to prepare for cases of COVID-19.', 'Quite clearly, mortality within long-term care environments related to COVID-19 will be significantly higher than among the general population as a function of resident advanced age and comorbidity rather than substandard care.', 'We do not yet know how this epidemic will unfold, and how effective infection prevention and control measures will be at staving off the spread of COVID-19 into long-term care facilities.', 'We cannot yet predict whether the spread of COVID-19 follows the 1918 Spanish Flu pandemic with mortality rates akin to those calculated so far, or more like the 2009 A/H1N1 pandemic where the mortality rates more closely mirrored those of seasonal influenza.', 'Executing a communication strategy that keeps residents, family members, and the public informed will also be critical during this rapidly evolving crisis.']</t>
-  </si>
-  <si>
-    <t>['Introduction\n\nhuge amount of efforts for radiologists, which is not acceptable when COVID-19 is spreading fastly and there are great shortages for radiologists.', 'Thus, performing COVID-19 detection in a weakly-supervised manner is of great importance.', 'One of the simplest labels for COVID-19 detection is the patient-level, i.e., indicating the patient is COVID-19 positive or negative.', 'Therefore, aim of current study was to investigate the potential of a deep learning-based model for automatic COVID-19 detection on chest CT volumes using the weak patient-level label, for the sake of rapid diagnosis of COVID-19 at this critical situation to help to counter this outbreak, especially within Wuhan, Hubei province, China.', 'Material and methods\n\nPatients This retrospective study was approved by Huazhong University of Science and Technology ethics committee, patient consent was waived due to the retrospective nature of this study.Between Dec. 13, 2019 to Feb. 6, 2020, we searched unenhanced chest CT scans of patients with suspected COVID-19 from the picture archiving and communication system (PACS) of radiology department (Union Hospital, Tongji Medical College, Huazhong University of Science and Technology).', 'Finally, 540 patients (mean age, 42.5±16.1 years; range, 3-81 years, male 226, female 314) were enrolled into this study, including 313 patients (mean age, 50.7±14.7 years; range, 8-81 years; male 138, female 175) with clinical diagnosed COVID-19 (COVID-positive group) and 229 patients (mean age, 31.2±10.0 years; range, 3-69 years; male 88, female 141) without COVID-19 (COVID-negative group).', 'There was no significant difference in sex between the two groups (χ 2 =1.744; P=0.187), age in COVIDpositive group significantly higher than that of COVID-negative group (t=17.09; P&lt;0.001).', 'The first case (female, year 66) was diagnosed as COVID-19 negative on Jan 24, 2020, then changed into COVID-positive on Feb 6, 2020; the second case (female, year 23) was diagnosed as COVID-19 positive on Jan 24, 2020, then changed into COVID-negative on Feb 3, 2020.', 'All the CT volumes scanned on and before Jan 23, 2020, were assigned for deep learning training, and all the CT volumes scanned after Jan 23, 2020, were assigned for deep learning testing.', 'CC-BY-NC-ND 4.0 International license It is made available under a author/funder, who has granted medRxiv a license to display the preprint in perpetuity.is the (which was not peer-reviewed) The copyright holder for this preprint .COVID-19 has been regarded as current standard for clinical diagnostic cases in severely affected areas only in Hubei Province, indicating that chest CT is fundamental for COVID-19 identification of clinically diagnosed cases.Typical CT findings for COVID-19 are also listed: multifocal small patchy shadowing and interstitial abnormalities in the early stage, especially for the peripheral area of the bilateral lungs.', 'In severe cases, pulmonary diffuse consolidation may occur and pleural effusion is rarely shown.The combination of epidemiologic features (travel or contact history), clinical signs and symptoms, chest CT, laboratory findings and real-time RT-PCR (if available) for SARS-CoV-2 nucleic acid testing is used for the final identification of COVID-19.', 'According to the CT reports, if a CT scan was COVID-positive, its ground-truth label was 1; otherwise, the label was 0.', 'The network took a CT volume with its 3D lung mask as input and directly output the probabilities of COVID-positive and COVID-negative.The Proposed DeCoVNet We proposed a 3D deep convolutional neural Network to Detect COVID-19 (DeCoVNet) from CT volumes.', 'ProClf progressively abstracts the information in the CT volumes by 3D max-pooling and finally directly output the probabilities of being COVID-positive and COVID-negative.', 'The 3D lung mask of an input chest CT volume helped to reduce background information and better detect COVID-19.', 'The input size is 2 × T × 192 × 288. segmented the lung regions using an unsupervised learning method [20] , removed the failure cases manually, and the rest segmentation results were taken as ground-truth masks.', 'The overall training and testing procedures of UNet and DeCoVNet for COVID-19 detection were illustrated in Fig.', 'The network was trained for 100 epochs using Adam optimizer [22] with a constant learning rate of 1e-5.', 'The trained DeCoV-Net took the preprocessed CT-Mask volume of each patient and output the COVID-positive probability as well as COVID-negative probability.', 'Then the predicted probabilities of all patients and their corresponding ground-truth labels were collected for statistical analysis.The cohort for studying the COVID-19 detection contained 630 CT scans collected from Dec 13, 2019 to Feb 6, 2020.', 'Of the training volumes, 15% were randomly selected for hyperparameter tuning during the training stage.Statistical Analysis COVID-19 detection results were reported and analyzed using receiver operating characteristic (ROC) and precision-recall (PR) curves.', 'ROC AUC, PR AUC, and some key operating points were used to assess the deep learning algorithm.', 'The software for COVID-19 detection with the pre-trained model as well as the results was available at https://github.com/sydney0zq/covid-19-detection, which will be made publicly available on the publication of this paper.', 'For every testing CT scan, we used the trained DeCoVNet to predict its probability of COVID-19.', 'On the PR curve, our model obtained a PR AUC of 0.975.When using the threshold of 0.5 to make COVID-19 detection prediction (i.e., if the probability of COVID-19 was larger than 0.5, the patient was classified as COVID-positive, and vice versa), the algorithm obtained an accuracy of 0.901 with a positive predictive value (PPV) of 0.840 and a negative predictive value (NPV) of 0.982.', 'By varying the probability threshold, we obtained a series of COVID-19 detection accuracy, PPV and NPV in Table 2 .', 'Our data showed that the COVID-19 prediction accuracy obtained by the DeCoVNet algorithm was higher than 0.9 when the threshold ranged from 0.2 to 0.5.', 'In images corresponding to the true positive and the false negative, the lesions of COVID-19 were annotated by red arrows.', '5 (F) showed the only false positive prediction, in which the respiratory artifact had been mistaken as a COVID-19 lesion by the DeCoVNet algorithm.', 'Discussion\n\nTo our knowledge, this is the first study to perform weakly-supervised computer-aided COVID-19 detection with a large number of CT volumes from the frontline hospital at the present epidemic period.', 'By designing an effective weakly-supervised deep learning-based algorithm and training it on CT volumes collected before Jan 23, 2020 with only patient-level labels, the testing results on 131 CT scans collected from Jan 24, 2020, to Feb 6, 2020, were very impressive, e.g., the PR AUC value was 0.975.', 'Though there were many effective applications of medical AI in previous studies [13, 23] , developing AI for automatic COVID-19 detection was still a challenging task.', 'Firstly, in the current emergency situation, the number of enrolled patients is relatively smaller compared with that used in previous studies [13, 23] ; and patients enrolled in our study were clinically diagnosed cases with COVID-19, because the majority of them did not undergo the nucleic acid testing due to the sudden outbreak and limited medical resource in such a short time period.', 'Secondly, the lesions of COVID-19 in CT volumes were not labeled by radiologists and only patientlevel labels (i.e., COVID-positive or COVID-negative) were utilized for training the AI algorithm in our study.', 'Thirdly, some small infected areas of COVID-19 have the potential to be missed even by professional radiologists, and whether it is feasible to be detected by deep learning-based 3D DCNN model remains unclear.', 'The second problem was solved by regarding the COVID-19 detection problem as a weakly-supervised learning problem [24] , i.e., detecting COVID-19 without annotating the regions of COVID-19 lesions.', 'In the designed DeCoVNet, we used the spatially global pooling layer and the temporally global pooling layer to technically handle the weakly-supervised COVID-19 detection problem.', 'The third problem was addressed by taking the advantages of deep learning and utilizing a pre-trained UNet for providing the lung masks to guide the learning of DeCoVNet.The deep learning-based COVID-19 diagnostic algorithm used in our study is effective compared to recent deep learning-based computer-aided diagnosis methods.', 'On the task of predicting the risk of lung cancer [13] , the deep learning model was trained on 42290 CT cases from 14851 patients and obtained 0.944 ROC AUC.', 'On the task of critical findings from head CT [23] , the deep learning model was trained on 310055 head CT scans and obtained ROC AUC of 0.920.', 'By comparing the data between them, it was able to find that the task of COVID-19 detection may be easier and the proposed deep learning algorithm was very powerful.', 'As for the erroneous 12 false negative predictions in our results, the most possible explanations after we rechecked the original CT images were listed as follows: those lesions were slightly increased in CT densities, and images of those ground-glass opacities were very faint without consolidation.Our study provided a typical and successful solution for developing medical AI for emerging diseases, such as COVID-19.', 'While we were developing this AI, doctors in Wuhan were still extremely busy with treating a huge number of COVID-19 patients and it may be impossible for them to annotate the lesions in CT volumes in the current austere fight against this epidemic.', 'In the future, the burden of AI experts could be lifted significantly by automatic machine learning (AutoML) [25] .Limitations of this study There are still several limitations in this study.', 'Third, when diagnosing COVID-19, the algorithm worked in a black-box manner, since the algorithm was based on deep learning and its explainability was still at an early stage.', 'Conclusion\n\nIn conclusion, without the need for annotating the COVID-19 lesions in CT volumes for training, our weakly-supervised deep learning algorithm obtained strong COVID-19 detection performance.', 'Therefore, our algorithm has great potential to be applied in clinical application for accurate and rapid COVID-19 diagnosis, which is of great help for the frontline medical staff and is also vital to control this epidemic worldwide.']</t>
-  </si>
-  <si>
-    <t>['\n\nSarbecovirus strains, the hypothesis that COVID-19 originated from bats is deemed very 56 likely [12, 34, 36, 39, [42] [43] [44] [45] .', 'Comparative genomics beyond 65 alignment-based approaches have benefited from the computational power of machine 66 learning.', 'Machine learning-based alignment-free methods have also been used 67 successfully for a variety of problems including virus classification [50] [51] [52] .', 'In this study, we use MLDSP [51] and MLDSP-GUI [52] with CGR as a 82 numerical representation of DNA sequences to assess the classification of COVID-19 83 from the perspective of machine learning-based alignment-free whole genome 84 comparison of genomic signatures.', 'Using MLDSP and MLDSP-GUI, we confirm that 85 the COVID-19 belongs to the Betacoronavirus, while its genomic similarity to the 86 sub-genus Sarbecovirus supports a possible bat origin.', '87 This paper shows how machine learning using intrinsic genomic signatures can 88 provide rapid alignment-free taxonomic classification of novel pathogens.', 'Our method 89 delivers accurate classifications of COVID-19 without a priori biological knowledge, by 90 a simultaneous processing of the geometric space of all relevant viral genomes.', 'The 91 main contributions are: 92 • Identifying intrinsic viral genomic signatures, and utilizing them for a real-time 93 and highly accurate machine learning-based classification of novel pathogen 94 sequences, such as COVID-19;\n\n95\n\n• A general-purpose bare-bones approach, which uses raw DNA sequences alone and 96 does not have any requirements for gene or genome annotation;\n\n97\n\n• The use of a "decision tree" approach to supervised machine learning (paralleling 98 taxonomic ranks), for successive refinements of taxonomic classification.', '116\n\nML-DSP [51] and MLDSP-GUI [52] were used as the machine learning-based 117 alignment-free methods for complete genome analyses.', 'All six classification models trained on 171 3273 sequences were used to classify (predict the label of) the 29 COVID-19 sequences.', '172 All of our machine learning-based models correctly predicted and confirmed the label as 173 Riboviria for all 29 sequences ( respective MoDMap3D is shown in Figure 1 (b).', 'All six classification models trained on 184 2779 sequences were used to classify (predict the label of) the 29 COVID-19 sequences.', '185 All of our machine learning-based models predicted the label as Coronaviridae for all 29 186 sequences ( All classifiers trained on Test-1, Test-2, Test-3a, and Test-3b datasets were used to predict the labels of 29 COVID-19 viral sequences.', 'The third test (Test-3a) is designed to classify the COVID-19 sequences at the genus 190 level.', 'All six classification models trained on 208 sequences were used to 196 classify (predict the label of) the 29 COVID-19 sequences.', 'All of our machine 197 learning-based models predicted the label as Betacoronavirus for all 29 sequences (Table 198 2).', 'All six classification models trained on 60 sequences 203 were used to classify the 29 COVID-19 sequences.', 'All of our machine learning-based 204 models predicted the label as Betacoronavirus for all 29 sequences (Table 2) .', 'In the MoDMap3D plot from Test-5, 220 COVID-19 sequences are placed in a single distinct cluster, see Figure 2 (b).', 'The COVID-19 was then compared to all sub-genera within the 251 Betacoronavirus genus: Embecovirus, Merbecovirus, Nobecovirs and Sarbecovirus seen in 252 Figure 6 .', 'Still, the early COVID-19 262 genomes that have been sequenced and uploaded are over 99% similar, suggesting these 263 infections result from a recent cross-species event [12, 31, 41] .', '264\n\nThese prior analyses relied upon alignment-based methods to identify relationships 265 between COVID-19 and other coronaviruses with nucleotide and amino acid sequence 266 similarities.', 'When analyzing the conserved replicase domains of ORF1ab for 267 coronavirus species classification, nearly 94% of amino acid residues were identical to 268 SARS-CoV, yet overall genome similarity was only around 70%, confirming that 269 COVID-19 was genetically different [63] .', 'Within the RdRp region, it was found that 270 another bat coronavirus, RaTG13, was the closest relative to COVID-19 and formed a 271 distinct lineage from other bat SARS-like coronaviruses [39, 41] .', 'Other groups found 272 that two bat SARS-like coronaviruses, bat-SL-CoVZC45 and bat-SL-CoVZXC21, were 273 also closely related to COVID-19 [12, [34] [35] [36] [37] [38] .', 'There is a consensus that these three bat 274 viruses are most similar to COVID-19, however, whether or not COVID-19 arose from a 275 recombination event is still unknown [39] [40] [41] .', '276 Regardless of the stance on recombination, current consensus holds that the 277 hypothesis of COVID-19 originating from bats is highly likely.', 'Whether or not COVID-19 was transmitted directly from 286 bats, or from intermediary hosts, is still unknown, and will require identification of 287 COVID-19 in species other than humans, notably from the wet market and surrounding 288 area it is thought to have originated from [30] .', 'China CDC released information about environmental sampling in 294 the market and indicated that 33 of 585 samples had evidence of COVID-19, with 31 of 295 these positive samples taken from the location where wildlife booths were concentrated, 296 suggesting possible wildlife origin [79, 80] .', '301 Viral outbreaks like COVID-19 demand timely analysis of genomic sequences to machine learning-based alignment-free method successfully used in the past for sequence 315 comparisons and analyses [51] .', 'In this study we confirm the taxonomy 317 of COVID-19 and, more generally, propose a method to efficiently analyze and classify a 318 novel unclassified DNA sequence against the background of a large dataset.', 'The objective is to train the classification models with the 329 known viral genomes and then predict the labels of the COVID-19 virus sequences.', 'The trained models are then used to predict the labels of 29 COVID-19 333 sequences.', 'As expected, all classification models correctly predict that the COVID-19 334 sequences belong to the Riboviria realm, see Table 2 .', 'When COVID-19 sequences are tested using the models trained on Test-2, all of 342 the models correctly predict the COVID-19 sequences as Coronaviridae (Table 2) .', 'All trained classification models correctly predict the COVID-19 as 349 Betacoronavirus, see Table 2 .', 'MLDSP-GUI obtains 100% classification accuracy for 354 this additional test and still predicts all of the COVID-19 sequences as Betacoronavirus.', '355 These tests confirm that the COVID-19 are from the genus Betacoronavirus.', 'This suggests substantial similarity between COVID-19 and 364 the Sarbecovirus sequences.', 'Test-5 and Test-6 (see Table 3 ) are designed to verify that 365 COVID-19 sequences can be differentiated from the known species in the 366 Betacoronavirus genus.', 'This 368 shows that although COVID-19 and Sarbecovirus are closer on the basis of genomic 369 similarity (Test-4), they are still distinguishable from known species.', 'Therefore, these 370 results suggest that COVID-19 may represent a genetically distinct species of 371 Sarbecovirus.', 'All COVID-19 virues are visually seen in MoDMap3D generated from 372 Test-5 (see Figure 2 (b)) as a closely packed cluster and it supports a fact that there is 373 99% similarity among these sequences [12, 31] .', 'The MoDMap3D generated from the 374 Test-5 (Figure 2(b) ) visually suggests and the average distances from COVID-19 375 sequences to all other sequences confirm that the COVID-19 sequences are most 376 proximal to the RaTG13 (distance: 0.0203), followed by the bat-SL-CoVZC45 (0.0418), 377 and bat-SL-CoVZX21 (0.0428).', 'The phylogenetic tree placed the RaTG13 sequence closest to the COVID-19 380 sequences, followed by the bat-SL-CoVZC45 and bat-SL-CoVZX21 sequences.', '383 We further confirm our results regarding the closeness of COVID dinucleotides in their genomes, otherwise known as CG suppression [81, 82] .', '423\n\nAdditional mammalian mechanisms for inhibiting viral RNA have been highlighted for 424 retroviruses with the actions of zinc-finger antiviral protein (ZAP) [81] .', "The 432 Spearman's rank correlation data and the patterns observed in the CGR images from 433 Figure 4 , of the coronavirus genomes, including COVID-19 identify patterns such as CG 434 underepresentation, also present in vertebrate and, importantly, bat host genomes.", 'Due to the high amino acid similarities between 438 COVID-19 and SARS-CoV main protease essential for viral replication and processing, 439 anticoronaviral drugs targeting this protein and other potential drugs have been 440 identified using virtual docking to the protease for treatment of 441 COVID-19 [29, 44, 45, [91] [92] [93] [94] .', 'The human ACE2 receptor has also been identified as the 442 potential receptor for COVID-19 and represents a potential target for treatment [42, 43] .']</t>
-  </si>
-  <si>
-    <t>['\n\nThe newly identified coronavirus, COVID-19, was first reported in Wuhan, China on December 31, 2019.', 'Herein, we briefly discuss key cultural, policy and epidemiological aspects that might have contributed to this scenario.The COVID-19 belongs to the same family as SARS and the Middle East Respiratory Syndrome Coronavirus (MERS-CoV), and all are zoonotic infections.', 'The SARS-CoV 2002À03 epidemic originated from civet cats, sold in live wild animal markets À similar to the one in Wuhan, where COVID-19 has been linked to snakes, bats and pangolins [2] .', "In addition, their hygienic practices tend to be sub-optimal, contributing to transmission of a broad range of infections, including COVID-19.Another aspect that may have influenced COVID-19 rapid spread is China's highly centralized, hierarchical and bureaucratic surveillance and health response system.", "Almost two decades after the SARS-CoV epidemic, China's political system and pattern of crisis management may have jeopardized the country's initial response to COVID-19.Rapid spread of COVID-19 is also influenced by high population density and mobility.", "In response to COVID-19, the Chinese government restricted 'unnecessary or non-essential large-scale public gatherings' in late January, 2020, in anticipation of domestic and international travel of millions of people for the Chinese New Year celebration.", 'Thousands cruise ship passengers where COVID-19 cases were confirmed are been quarantined.', 'While these measures may have curtailed transmission, by February 19, 2020, COVID-19 was reported in roughly 30 countries, with almost 75,000 confirmed cases.', 'A recent mathematical modeling estimated that, by the end of January 2020, more than 75,000 people were infected with COVID-19 only in Wuhan [1] .', 'The World Health Organization (WHO) declared COVID-19 a Public Health Emergency of International Concern (PHEIC) on January 30, 2020 [5] .Substandard implementation of appropriate infection prevention and control measures could influence COVID-19 global spread.', 'These include early recognition, source control and additional precautions at point-of-care for persons under investigation or with confirmed COVID-19.', 'Healthcare workers are at increased risk; Dr. Li Wenliang, a Chinese ophthalmologist at Wuhan Central Hospital who was one of the first to warn the public about COVID-19 on 30 December 2019 (and was later detained for doing so), died from the virus at aged 33 on February 7, 2020.', 'More than 1,700 health care workers have been infected so far, with 6 fatalities.The myriad factors influencing the COVID-19 pandemic are not unique.', 'However, Ebola differs in mode of transmission (direct contact) and has a much higher case fatality rate (CFR; 50%À80%) [7] .The CFR and basic reproductive rate (Ro) of COVID-19 is still unknown.', 'Similarly, one patient with MERS-CoV transferred from Saudi Arabia to South Korea was linked to 186 additional MERS-CoV cases [8] .', 'COVID-19 could foster a similar scenario.', 'Inappropriate prevention and treatment strategies such as herbal remedies and exaggerated numbers of persons affected by COVID-19 cases have circulated on social media.', 'The COVID-19 pandemic, rapid spread and magnitude unleashed panic and episodes of racism against people of Asian descent.', 'Efforts to address this scenario in the COVID-19 and future epidemics need to consider traditional and social media communication, among other sources of information to curtail misinformation and prejudice.', 'To avoid a global pandemic, timely surveillance, epidemiologic information about the pathogenicity and transmissibility of COVID-19 are needed.', "Unfortunately, as of February 6, 2020, the COVID-19 scale constitutes a pandemic and China's delayed response influenced this scenario.", 'If strict control measures had been taken earlier, the result would have been better than now" [9] During the first reports from the Chinese government, COVID-19 was referred as "preventable and controllable".']</t>
-  </si>
-  <si>
-    <t>['The disease was named COVID-19 by the World Health Organization (WHO) [2] .To date, most SARS-CoV-2 infected patients have developed mild symptoms such as dry cough, sore throat, and fever.', 'WHO global health emergency\n\nOn 30th January 2020, the WHO declared the Chinese outbreak of COVID-19 to be a Public Health Emergency of International Concern posing a high risk to countries with vulnerable health systems.', 'The emergency committee have stated that the spread of COVID-19 may be interrupted by early detection, isolation, prompt treatment, and the implementation of a robust system to trace contacts [5] .', 'In light of this, various bodies have committed to making articles pertaining to COVID-19 immediately available via open access to support a unified global response [6] .https://doi.org/10.1016/j.ijsu.2020.02.034 Received 3 February 2020; Received in revised form 17 February 2020; Accepted 24 February 2020\n\nGlobal response\n\nEfforts aimed at deciphering the pathophysiology of COVID-19 have led to the EU mobilising a €10,000,000 research fund to "contribute to more efficient clinical management of patients infected with the virus, as well as public health preparedness and response" [7] .', "Regarding diagnostic testing, US-based companies such as Co-Diagnostics and the Novacyt's molecular diagnostics division Primerdesign have launched COVID-2019 testing kits for use in the research setting [8, 9] .", 'The United Kingdom (UK) government have also invested £20,000,000 to help develop a COVID-19 vaccine [10] .', 'Strikers are demanding that the border to mainland China be closed completely to prevent further COVID-19 transmission.', 'Confirmed UK cases and British response\n\nAs of 4th March 2020, a total of 16,659 tests for COVID-19 have been conducted across the UK.', 'Any detected cases of COVID-19 should be transferred to an Airborne High Consequence Infectious Diseases (HCID) centre, including the two principal centres in England (the Royal Free Hospital in London and the Newcastle Royal Victoria Infirmary).The DoH and UK Chief Medical Officers have also advised individuals having visited Wuhan and the Hubei Province in the last 14 days to remain indoors and to call NHS 111.', 'Viral transmission and spread\n\nThere are currently few studies that define the pathophysiological characteristics of COVID-19, and there is great uncertainty regarding its mechanism of spread.', 'However, there is an increasing body of evidence to suggest that human-to-human transmission may be occurring during the asymptomatic incubation period of COVID-19, which has been estimated to be between 2 and 10 days [20] [21] [22] .As of 3rd March 2020, 90,870 cases of COVID-19 have been confirmed, 80,304 of which are confined to China.', 'Prevention\n\nVarious bodies including the WHO and US Centers for Disease Control and Prevention (CDC) have issued advice on preventing further spread of COVID-19 [20, 24] .', 'They recommend avoiding travel to highrisk areas, contact with individuals who are symptomatic, and the consumption of meat from regions with known COVID-19 outbreak.', 'Diagnosis\n\nClinical features of COVID-19 include dry cough, fever, diarrhoea, vomiting, and myalgia.', 'The WHO and CDC have both issued guidance on key clinical and epidemiological findings suggestive of a COVID-19 infection (Table 1 ) [27] .', 'Patients may present with an elevated C-reactive protein, erythrocyte sedimentation rate, lactate dehydrogenase, creatinine, and a prolonged prothrombin time [4] .Full genome sequencing and phylogenetic analysis on fluid from bronchoalveolar lavage can confirm COVID-2019 infection [29] .', 'Treatment\n\nAt present, no effective antiviral treatment or vaccine is available for COVID-19.', 'However, a randomized multicentre controlled clinical trial is currently underway to assess the efficacy and safety of abidole in patients with COVID-19 (ChiCTR2000029573).', 'Oseltamivir, a neurominidase inhibitor, is currently being used by medical staff in China for suspected infections despite the lack of any conclusive evidence regarding its effectiveness on COVID-19.', 'Glucocorticoids may also be considered for patients with severe immune reactions.', 'The current reported mortality for COVID-19 is approximately 3.4% compared with 9.6% for SARS [37] and 34.4% for Middle East respiratory syndrome (MERS) [38] .', 'The clinical features of COVID-19 versus its distance relative SARS are summarised in Table 2 .', 'To date, COVID-19 has been shown to have a mean incubation period of 5.2 days and a median duration from the onset of symptoms to death of 14 days [22, 39] , which is comparable to that of MERS [40] .', 'COVID-19 pathophysiology\n\nCOVID-19 is caused by SARS-CoV-2, a betacoronavirus.', 'The wider consequences of COVID-19\n\nChina is integral to nearly every sector of the global economy.', 'The recent outbreak of the COVID-19 has already challenged an economy strained by trade wars with the US; national growth hit a 30year low in 2019 [58] .', 'The key difference between COVID-19 and SARS however is the complexity of supply chains that China is now enmeshed in.', 'Lessons learned from the COVID-19 outbreak\n\nThe international response to COVID-19 has been more transparent and efficient when compared to the SARS outbreak.', 'However, several learning points should be taken away from COVID-19 in the event of future outbreaks (Table 3) .', 'Conclusion\n\nThe recent COVID-19 outbreak has been deemed a global health emergency.', 'It is perhaps clear that quarantine alone may not be sufficient to prevent the spread of COVID-19, and the global impact of this viral infection is one of heightening concern.', 'Evidently, the pandemic potential of COVID-19 demands rigorous surveillance and on-going monitoring to accurately track and potentially predict its future host adaptation, evolution, transmissibility, and pathogenicity.', 'However, the rapidly evolving nature of the COVID-2019 epidemic, ever changing statistics, and constant unravelling of new research findings represents a major limitation to the present review.']</t>
-  </si>
-  <si>
-    <t>['The outbreak of COVID-19 was first reported in Wuhan, Hubei province, China on December 2019, has now rapidly spread over 50 countries.', 'Fever (88%), cough (67%), and fatigue (34%)were the most common symptoms presented by COVID-19 patients 3 which were similar to those with infections caused by other respiratory viruses, such as Influenza A/B, respiratory syncytial virus, and rhinovirus.', '4, 5 For the prevention and control of COVID-19, Taiwan Centers for Disease Control (CDC) initiated testing of SARS-CoV-2 on January 24 th 2020 for persons who had a travel history to China and presented fever or any respiratory symptoms within 14 days.', 'Until February 28 th , 2105 cases were screened and 34 of them were diagnosed of COVID-19.', 'Through multiplex PCR analysis with FilmArray TM Respiratory Panel, the non-COVID-19 patients were later diagnosed of infections with other respiratory pathogens.', 'Undoubtedly, early screening and diagnosis is crucial for the treatment and control of COVID-19.', 'To establish the diagnostic protocol for this disease, in this report, we comparatively analyzed the clinical presentations, laboratory data, radiologic findings, and travel and exposure contact histories, of the COVID-19 patients with those with other respiratory infections.', 'During January 20 th to February 19 th 2020, a total of 43 patients who were admitted to China Medical University Hospital (CMUH) met the screening criteria of COVID-19 reported by Taiwan CDC.', 'For cases reporting of COVID-19 infection, blood tests were performed after their admission to the negative pressure isolation wards.', 'Results\n\nA total of 43 patients suspected with COVID-19 were admitted to CMUH during January 20 th to February 19 th 2020.', 'Of the 10 patients who had contact history, 4 had close contact with people who visited Guangdong or Hubei province, and 6 had connected to COVID-19 patients.', 'The two COVID-19 patients confirmed in this study had no travel or contact history with people who had been to China but had a family dinner on 27 th January with the patient who was the first COVID-19 mortality case (Taiwan NO.', 'About 44% of the non-COVID19 patients had at least one comorbidity; however, the two confirmed cases, COVID-19 patients A and B, presented no comorbid conditions.', 'Clinical course of COVID-19 patient A and B.', 'The first symptom of COVID-19\n\npatient A was sore throat, which developed on the day (28 th January, illness day 1; Figure   1A ) and had dry cough as the primary manifestation that persisted until illness day 19.During the third sampling on 24 th February, the loads of SARS-CoV-2 in the naso-oropharyngeal specimens from COVID-19 patients A and B were both at an undetectable level.', 'Clinical features and laboratory data of COVID-19 patients in comparison\n\nwith non-COVID-19 group.', 'The most common symptoms reported by both groups included fever (56%) and nonproductive cough (53%), followed by rhinorrhea (37%), sore throat (21%), productive cough (21%), and dyspnea (9%) ( Table 1) Both the COVID-19 patients had normal white blood cell (WBC) counts without lymphocytopenia and the neutrophil to lymphocyte ratio in the normal range (Table 2) .Of the non-COVID-19 patients, 83% had normal WBC counts and 29% had lymphocytopenia.', 'No statistically significant differences were found between the COVID-19 and non-COVID-19 groups in levels of creatinine, aspartate aminotransferase (AST), alanine aminotransferase (ALT), bilirubin, C-reactive protein (CRP), creatine kinase (CK), and lactate dehydrogenase (LDH) ( Table 2) .', 'Detection of respiratory pathogens for non-COVID-19 patients.', 'FilmArray TM Respiratory Panel, a multiplex PCR assay that comprehensively detects 20 respiratory viruses and bacteria 8 \n\nDiscussion\n\nIn comparison with non-COVID-19 patients, no specific symptoms or laboratory data were noted in the early phase of COVID-19 illness.', 'As demonstrated in this report, the development of mild COVID-19 illness was insidiously initiated and persisted for a long period.', 'The prolonged duration of SARS-CoV-2 detection in naso-oropharyngeal specimens of the COVID-19 patients with mild illness is of concern in epidemic areas.Clinical manifestations of viral respiratory infections range from asymptomatic or flu-like symptoms such as fever, nonproductive or productive cough, myalgia, rhinorrhea, and sore throat, to acute respiratory distress syndrome (ARDS) or multiple organs failure.', '10 COVID-19 is highly contagious.', '5 Although mild illness without lymphocytopenia was developed in both the COVID-19 patients A and B, who had no comorbid conditions, the loads of SARS-CoV-2 persisted for a long duration ( Figure   1B ).', 'Some COVID-19 patients who were considered recovered after symptoms resolved still carried detectable levels of SARS-CoV-2 for 5 to 13 days.', '19 The naso-oropharyngeal specimens, collected from the third sampling of COVID-19 patients A and B, showed negative for SARS-CoV-2.', 'Until 6 th March, the two COVID-19 patients are still in the isolation room, pending for the latest sputum rRT-PCR results.', 'Despite of mild upper and lower respiratory tract symptoms, COVID-19 patient A suffered from diarrhea throughout the illness course.', 'Consistent with the recent study that gastrointestinal symptoms, including diarrhea, vomiting, and abdominal pain, were developed in some COVID-19 patients.', 'Potential fecal-oral transmission in patients with COVID-19 is of concern.Seasonal viral respiratory pathogens prevalent in Taiwan']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'action', 'action', 'action', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'action', 'action', 'plan', 'covid', 'action', 'plan', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'action']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'action', 'covid', 'covid', 'covid', 'covid', 'action', 'action', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'action', 'action', 'covid', 'action', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'action', 'action', 'covid', 'action', 'action', 'action', 'covid', 'covid', 'covid', 'covid', 'action', 'plan', 'covid', 'covid', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'plan', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'covid', 'crisis', 'covid', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'transfer', 'covid', 'covid', 'covid', 'covid', 'transfer', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'plan', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'plan', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'plan', 'covid', 'covid', 'covid', 'crisis']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'learning', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'learning', 'covid', 'covid', 'learning', 'learning', 'learning', 'covid', 'learning', 'covid', 'plan', 'covid', 'learning', 'covid', 'learning', 'covid', 'learning', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'learning', 'learning', 'covid', 'learning', 'covid', 'learning', 'covid', 'covid', 'learning', 'learning', 'covid', 'learning', 'covid', 'covid', 'learning', 'covid', 'covid', 'learning', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'covid', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'crisis', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'transfer', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'transfer', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'transfer', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
+    <t>['covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'learning', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'learning', 'covid', 'learning', 'covid', 'covid', 'learning', 'covid', 'learning', 'learning', 'learning', 'covid', 'covid', 'plan', 'covid', 'learning', 'learning', 'covid', 'learning', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'creation', 'covid', 'crisis', 'covid', 'crisis', 'crisis', 'covid', 'plan']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'action', 'covid', 'action', 'action', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'action', 'action', 'plan', 'action', 'covid', 'plan', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'action']</t>
+  </si>
+  <si>
+    <t>['covid', 'learning', 'learning', 'learning', 'covid', 'covid', 'learning', 'covid', 'learning', 'covid', 'learning', 'covid', 'learning', 'covid', 'learning', 'covid', 'covid', 'covid', 'learning', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'learning', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'action', 'covid', 'covid', 'covid', 'covid', 'action', 'action', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'action', 'covid', 'action', 'action', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'action', 'covid', 'action', 'action', 'covid', 'action', 'action', 'covid', 'covid', 'covid', 'covid', 'action', 'plan', 'covid', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'transfer', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'transfer', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'covid', 'covid', 'plan', 'plan']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['action', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'crisis', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'plan', 'covid', 'covid', 'covid', 'covid', 'action', 'covid', 'covid', 'crisis', 'covid', 'covid', 'covid']</t>
   </si>
 </sst>
 </file>
@@ -576,16 +586,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>22700</v>
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -596,62 +612,59 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>5011</v>
+        <v>2748</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>27534</v>
+        <v>7970</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>25855</v>
+        <v>22700</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -662,19 +675,19 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>25903</v>
+        <v>691</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -685,22 +698,22 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>73</v>
+        <v>5011</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -711,59 +724,74 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>691</v>
+        <v>16532</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>10073</v>
+        <v>334</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>18427</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -771,25 +799,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>22433</v>
+        <v>27534</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
